--- a/data/hotels_by_city/Houston/Houston_shard_555.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_555.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="579">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107867-Reviews-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Residence-Inn-By-Marriott-Houston-Westchase.h166749.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1621 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r549203496-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107867</t>
+  </si>
+  <si>
+    <t>549203496</t>
+  </si>
+  <si>
+    <t>12/25/2017</t>
+  </si>
+  <si>
+    <t>On the whole, very good</t>
+  </si>
+  <si>
+    <t>We stayed in the Residence Inn Westchase for several weeks as beneficiaries of the FEMA response to Harvey flooding our home.  It was a good "port in the storm" for us.  On the whole, this hotel did an outstanding job under sometimes difficult circumstances.  All the staff with whom we interacted were great.
+We had a one-bedroom suite with kitchenette.  A door allows the bedroom to be closed off from the living room.  Two TVs.  The bedroom of this suite is large enough to have a king bed, but they have only queen beds in them.  The sofa can make into a bed (of sorts) so that two can have some privacy from each other, although the sofa-bed is very uncomfortable.
+The kitchenette has a range, microwave, fridge and dishwasher.  They provide dishes, pots and utensils.  Housekeeping did a good job on the days we let them in.
+The breakfast is available every day.  There is a large grill on the patio so that guests can buy a steak at the Kroger next door and grill it themselves.  On Mondays, Tuesdays and Wednesdays the hotel has a “mix” event where they provide various kinds of victuals with wine and beer available.
+Parking is gated, mostly well-lighted and controlled with your room key.
+FEMA was picking up the tab for our stay and that of many others, so I will skip commenting on things that pertain particularly to some people staying...We stayed in the Residence Inn Westchase for several weeks as beneficiaries of the FEMA response to Harvey flooding our home.  It was a good "port in the storm" for us.  On the whole, this hotel did an outstanding job under sometimes difficult circumstances.  All the staff with whom we interacted were great.We had a one-bedroom suite with kitchenette.  A door allows the bedroom to be closed off from the living room.  Two TVs.  The bedroom of this suite is large enough to have a king bed, but they have only queen beds in them.  The sofa can make into a bed (of sorts) so that two can have some privacy from each other, although the sofa-bed is very uncomfortable.The kitchenette has a range, microwave, fridge and dishwasher.  They provide dishes, pots and utensils.  Housekeeping did a good job on the days we let them in.The breakfast is available every day.  There is a large grill on the patio so that guests can buy a steak at the Kroger next door and grill it themselves.  On Mondays, Tuesdays and Wednesdays the hotel has a “mix” event where they provide various kinds of victuals with wine and beer available.Parking is gated, mostly well-lighted and controlled with your room key.FEMA was picking up the tab for our stay and that of many others, so I will skip commenting on things that pertain particularly to some people staying there who simply have no idea how to behave in civilized society.  I presume they also were Harvey refugees, so in ordinary times you should not have to put up with this.  The hotel staff did the best they could in dealing with the more egregious behaviors.There were a few general qualifications.- The room is mainly comfortable, but there is no comfortable place to sit in the suite’s living area.  The only fairly comfy chair is the desk chair, a wheeled office chair.- The breakfast is good, but they do not keep it hot enough.  As for the Mon-Wed evening “mix” victuals, most were good, but always be careful what you eat in a place where people and their kids can put their hands all over the food.- The hotel is “pet-friendly.”  That is fine if you have a pet or three (and many Harvey refugees brought theirs along), but not everyone can appreciate this amenity.  Some bring their dogs into the breakfast area in the morning.- The room doors have about a 1 inch clearance at the threshold, so when other “guests” walk up and down the hall talking in loud voices at all hours or bring their screaming arguments into the place in the middle of the night, there is no escape from the sound.  Additionally, some dogs experience separation anxiety when their owners go out for a while, and they bark loudly and even howl at the room door, with all of it echoing down the hall.  Dog-lovers may have no problem with this.- There is a sport court, and kids will get out there making a lot of noise which comes right in your windows.  Sometimes they are out there past the 10 p.m. close time; we had to call the management about this once.  There is also a smoking area in the same vicinity, and people will sit out there late at night smoking and drinking and talking loudly, which also comes right through the windows.  We had to call the front desk more than once about this.The negative issues notwithstanding, I do recommend this hotel, especially during non-disaster recovery times.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We stayed in the Residence Inn Westchase for several weeks as beneficiaries of the FEMA response to Harvey flooding our home.  It was a good "port in the storm" for us.  On the whole, this hotel did an outstanding job under sometimes difficult circumstances.  All the staff with whom we interacted were great.
+We had a one-bedroom suite with kitchenette.  A door allows the bedroom to be closed off from the living room.  Two TVs.  The bedroom of this suite is large enough to have a king bed, but they have only queen beds in them.  The sofa can make into a bed (of sorts) so that two can have some privacy from each other, although the sofa-bed is very uncomfortable.
+The kitchenette has a range, microwave, fridge and dishwasher.  They provide dishes, pots and utensils.  Housekeeping did a good job on the days we let them in.
+The breakfast is available every day.  There is a large grill on the patio so that guests can buy a steak at the Kroger next door and grill it themselves.  On Mondays, Tuesdays and Wednesdays the hotel has a “mix” event where they provide various kinds of victuals with wine and beer available.
+Parking is gated, mostly well-lighted and controlled with your room key.
+FEMA was picking up the tab for our stay and that of many others, so I will skip commenting on things that pertain particularly to some people staying...We stayed in the Residence Inn Westchase for several weeks as beneficiaries of the FEMA response to Harvey flooding our home.  It was a good "port in the storm" for us.  On the whole, this hotel did an outstanding job under sometimes difficult circumstances.  All the staff with whom we interacted were great.We had a one-bedroom suite with kitchenette.  A door allows the bedroom to be closed off from the living room.  Two TVs.  The bedroom of this suite is large enough to have a king bed, but they have only queen beds in them.  The sofa can make into a bed (of sorts) so that two can have some privacy from each other, although the sofa-bed is very uncomfortable.The kitchenette has a range, microwave, fridge and dishwasher.  They provide dishes, pots and utensils.  Housekeeping did a good job on the days we let them in.The breakfast is available every day.  There is a large grill on the patio so that guests can buy a steak at the Kroger next door and grill it themselves.  On Mondays, Tuesdays and Wednesdays the hotel has a “mix” event where they provide various kinds of victuals with wine and beer available.Parking is gated, mostly well-lighted and controlled with your room key.FEMA was picking up the tab for our stay and that of many others, so I will skip commenting on things that pertain particularly to some people staying there who simply have no idea how to behave in civilized society.  I presume they also were Harvey refugees, so in ordinary times you should not have to put up with this.  The hotel staff did the best they could in dealing with the more egregious behaviors.There were a few general qualifications.- The room is mainly comfortable, but there is no comfortable place to sit in the suite’s living area.  The only fairly comfy chair is the desk chair, a wheeled office chair.- The breakfast is good, but they do not keep it hot enough.  As for the Mon-Wed evening “mix” victuals, most were good, but always be careful what you eat in a place where people and their kids can put their hands all over the food.- The hotel is “pet-friendly.”  That is fine if you have a pet or three (and many Harvey refugees brought theirs along), but not everyone can appreciate this amenity.  Some bring their dogs into the breakfast area in the morning.- The room doors have about a 1 inch clearance at the threshold, so when other “guests” walk up and down the hall talking in loud voices at all hours or bring their screaming arguments into the place in the middle of the night, there is no escape from the sound.  Additionally, some dogs experience separation anxiety when their owners go out for a while, and they bark loudly and even howl at the room door, with all of it echoing down the hall.  Dog-lovers may have no problem with this.- There is a sport court, and kids will get out there making a lot of noise which comes right in your windows.  Sometimes they are out there past the 10 p.m. close time; we had to call the management about this once.  There is also a smoking area in the same vicinity, and people will sit out there late at night smoking and drinking and talking loudly, which also comes right through the windows.  We had to call the front desk more than once about this.The negative issues notwithstanding, I do recommend this hotel, especially during non-disaster recovery times.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r531467172-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>531467172</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Very pleased with our unplanned stay</t>
+  </si>
+  <si>
+    <t>My wife, my two dogs, and myself found ourselves homeless after being flooded out by Harvey. After staying with family for several days, we were able to get a room here. It was a small space for two humans and two rather large dogs, but the staff was very helpful, courteous and sympathetic to our situation. In particular, Jorge was always greeted us with a warm greeting and a smile every single time we showed up in the lobby for ice or to buy a late night snack. During our 32 day stay, we did not have any issues with the room or it's rather nice amenities. I would not hesitate to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded October 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2017</t>
+  </si>
+  <si>
+    <t>My wife, my two dogs, and myself found ourselves homeless after being flooded out by Harvey. After staying with family for several days, we were able to get a room here. It was a small space for two humans and two rather large dogs, but the staff was very helpful, courteous and sympathetic to our situation. In particular, Jorge was always greeted us with a warm greeting and a smile every single time we showed up in the lobby for ice or to buy a late night snack. During our 32 day stay, we did not have any issues with the room or it's rather nice amenities. I would not hesitate to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r523732436-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>523732436</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>Guess I'll start with the cockroaches that like to scurry the floor and ceiling at night as you sleep. The facilities are old and nothing works. Toilet requires several flushes before it flushes. Door between living room and bedroom won't close. I've had to call the front desk multiple times just to have the cleaning service clean the kitchen. Everything is "under construction" also.  I always have good experiences at residence inns, but this particular location is way sub-par. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded September 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2017</t>
+  </si>
+  <si>
+    <t>Guess I'll start with the cockroaches that like to scurry the floor and ceiling at night as you sleep. The facilities are old and nothing works. Toilet requires several flushes before it flushes. Door between living room and bedroom won't close. I've had to call the front desk multiple times just to have the cleaning service clean the kitchen. Everything is "under construction" also.  I always have good experiences at residence inns, but this particular location is way sub-par. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r491826940-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491826940</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>Home away from Home !</t>
+  </si>
+  <si>
+    <t>Stayed with this hotel for a month.  We were a large group of people on a business trip and the hotel took good care of us. The breakfast spread is quite good.  They serve snacks and drinks (on the house !) every Monday and Tuesday evenings , where you get to mingle with other guests.The shuttle service is good and took us to office and brought us back to the hotel on time.  They arranged for shuttle services from nearby Courtyard Marriott in case the Residence Inn shuttle was not available.The room is equipped with a small kitchen and a good set of utensils, fridge, microwave and hot plate.The housekeeping staff are really good and the entire premise is kept very clean and tidy. The hotel staff (Werllin, Tiara, Thuy, Julie, Alejandaro and others) are very friendly and always greet with a warm smile. The hotel occasionally surprised us with some Indian snacks as we returned from office and arranged an Indian buffet dinner for us on our last day.It is a very convenient place to stay (long term or otherwise) with a grocery store next door and a laundry room in the hotel.I definitely will come back to this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Julie A, Owner at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded June 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2017</t>
+  </si>
+  <si>
+    <t>Stayed with this hotel for a month.  We were a large group of people on a business trip and the hotel took good care of us. The breakfast spread is quite good.  They serve snacks and drinks (on the house !) every Monday and Tuesday evenings , where you get to mingle with other guests.The shuttle service is good and took us to office and brought us back to the hotel on time.  They arranged for shuttle services from nearby Courtyard Marriott in case the Residence Inn shuttle was not available.The room is equipped with a small kitchen and a good set of utensils, fridge, microwave and hot plate.The housekeeping staff are really good and the entire premise is kept very clean and tidy. The hotel staff (Werllin, Tiara, Thuy, Julie, Alejandaro and others) are very friendly and always greet with a warm smile. The hotel occasionally surprised us with some Indian snacks as we returned from office and arranged an Indian buffet dinner for us on our last day.It is a very convenient place to stay (long term or otherwise) with a grocery store next door and a laundry room in the hotel.I definitely will come back to this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r486039296-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>486039296</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average place, needs some maintenance </t>
+  </si>
+  <si>
+    <t>This hotel is pretty average, the best thing being the spacious apartments with fully equipped kitchen and separate living room area. The pool was under maintenance and the gym is very basic. The cooked breakfast was very poor. MoreShow less</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is pretty average, the best thing being the spacious apartments with fully equipped kitchen and separate living room area. The pool was under maintenance and the gym is very basic. The cooked breakfast was very poor. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r486016034-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>486016034</t>
+  </si>
+  <si>
+    <t>Ok-Not Great</t>
+  </si>
+  <si>
+    <t>First the bad. I've stayed in better.  Exposed wire on wall. Toilet seat had a noticeable tilt to one side. Pool was empty.  Construction in some rooms. Gate to parking lot not working. Faucet in bathroom was loose.  Generally it has maintenance issues. Now the good. Room was clean and quiet MoreShow less</t>
+  </si>
+  <si>
+    <t>First the bad. I've stayed in better.  Exposed wire on wall. Toilet seat had a noticeable tilt to one side. Pool was empty.  Construction in some rooms. Gate to parking lot not working. Faucet in bathroom was loose.  Generally it has maintenance issues. Now the good. Room was clean and quiet More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r477718424-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>477718424</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>Changed my mind...</t>
+  </si>
+  <si>
+    <t>My first review on Residence inn was 5 star. But now I changed my mind a little bit. This stay was 10 weeks, so I've seen a lot:)I wasn't really happy about a few aspects during my stay, but in general it was really good.Residence inn is going through renovation right now and there were some issues for me about it. I had to change my room twice, first time because my room was in renovation area, and the second time I asked to change it again because of the strong smell of paint in the room (it was expected for renovated room). Unfortunately, in the last room I had problem with my dish washer (it took 2 weeks to get a response that it has to be changed completely). The staff changed a lot as well. New general manager, new front desk managers. They are trying really hard to make it work during all those problems with renovation. By the way, Residence Inn has mon-wed dinners (from snacks and sweets to bbq)  with free drinks. And the food is really good.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2017</t>
+  </si>
+  <si>
+    <t>My first review on Residence inn was 5 star. But now I changed my mind a little bit. This stay was 10 weeks, so I've seen a lot:)I wasn't really happy about a few aspects during my stay, but in general it was really good.Residence inn is going through renovation right now and there were some issues for me about it. I had to change my room twice, first time because my room was in renovation area, and the second time I asked to change it again because of the strong smell of paint in the room (it was expected for renovated room). Unfortunately, in the last room I had problem with my dish washer (it took 2 weeks to get a response that it has to be changed completely). The staff changed a lot as well. New general manager, new front desk managers. They are trying really hard to make it work during all those problems with renovation. By the way, Residence Inn has mon-wed dinners (from snacks and sweets to bbq)  with free drinks. And the food is really good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r476579946-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476579946</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>Nice location, nice suite</t>
+  </si>
+  <si>
+    <t>I'm pleased with the great service, and spacious, clean and comfortable room suite with A complete kitchenette with new full fridge, oven, dishwasher and sink, and sofa bed along with the spacious bathroom with new soft towels and bedroom. The AC is good and quiet. It makes you feel at home.  The parking lot is spacious. It's an enjoyable stay as from the location, It's convenient to go to downtown or NASA or other places for sight seeing  easily though it's a 20 - 30 minutes from the airport with a no toll back road. The great service from the front desk, breakfast and housekeeping is greatly appreciated.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>I'm pleased with the great service, and spacious, clean and comfortable room suite with A complete kitchenette with new full fridge, oven, dishwasher and sink, and sofa bed along with the spacious bathroom with new soft towels and bedroom. The AC is good and quiet. It makes you feel at home.  The parking lot is spacious. It's an enjoyable stay as from the location, It's convenient to go to downtown or NASA or other places for sight seeing  easily though it's a 20 - 30 minutes from the airport with a no toll back road. The great service from the front desk, breakfast and housekeeping is greatly appreciated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r459456724-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459456724</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>nice rooms / great staff</t>
+  </si>
+  <si>
+    <t>not in a great area BUT had no issues and the employees did a nice job. Clean room , good breakfast and good extras ...nice superbowl party ! Had maintenance fix a few small issues and housekeeping was good as well. Usually stay at 5 star properties but This did the trick. would go back again....only wish they had a safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Kyle M, Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded February 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2017</t>
+  </si>
+  <si>
+    <t>not in a great area BUT had no issues and the employees did a nice job. Clean room , good breakfast and good extras ...nice superbowl party ! Had maintenance fix a few small issues and housekeeping was good as well. Usually stay at 5 star properties but This did the trick. would go back again....only wish they had a safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r450823899-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>450823899</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>staff and customer service</t>
+  </si>
+  <si>
+    <t>Hi all, That's my first review ever maybe , and the reason why I am writing that because I have seen an amazing customer service here starting from Hotel manager (Kyle) , (Athena- front desk) ,(Megan-front desk manager) ,( Dontez- front desk) denize , roberta , and everybody .I am a frequent flyer and I go everywhere , I have stayed mostly in 5 and 4 stars hotels but I never seen such a great treatment like here, you feel like home and the management treat you like a family member.Thanks to everybody and you are the best so far , keep it upRegardsAzizMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded January 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2017</t>
+  </si>
+  <si>
+    <t>Hi all, That's my first review ever maybe , and the reason why I am writing that because I have seen an amazing customer service here starting from Hotel manager (Kyle) , (Athena- front desk) ,(Megan-front desk manager) ,( Dontez- front desk) denize , roberta , and everybody .I am a frequent flyer and I go everywhere , I have stayed mostly in 5 and 4 stars hotels but I never seen such a great treatment like here, you feel like home and the management treat you like a family member.Thanks to everybody and you are the best so far , keep it upRegardsAzizMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r450505035-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>450505035</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loved the hospitality </t>
+  </si>
+  <si>
+    <t>I never write hotel reviews but I had to this time because I had such an amazing time at this residence inn. The staff, especially the manager, were so friendly and approachable. You got the impression they were happy employees who genuinely cared about their guests and did their best to please them. They were always around to help with any problem I had. The breakfast was awesome and had a wide range of options to choose from. I particularly loved the waffles. I'm heading back there soon for some few weeks and I'm really looking forward to going back. MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded January 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2017</t>
+  </si>
+  <si>
+    <t>I never write hotel reviews but I had to this time because I had such an amazing time at this residence inn. The staff, especially the manager, were so friendly and approachable. You got the impression they were happy employees who genuinely cared about their guests and did their best to please them. They were always around to help with any problem I had. The breakfast was awesome and had a wide range of options to choose from. I particularly loved the waffles. I'm heading back there soon for some few weeks and I'm really looking forward to going back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r448357855-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448357855</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>Residence inn</t>
+  </si>
+  <si>
+    <t>Denise Jones booked my reservation. She was very nice and attentive. Everything was perfect. In fact she even had an awesome gift.  for me in the room. I would definitely book this hotel again. The whole staff was nice and the room was very spacious for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded January 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2017</t>
+  </si>
+  <si>
+    <t>Denise Jones booked my reservation. She was very nice and attentive. Everything was perfect. In fact she even had an awesome gift.  for me in the room. I would definitely book this hotel again. The whole staff was nice and the room was very spacious for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r445034573-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445034573</t>
+  </si>
+  <si>
+    <t>12/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outstanding customer service! </t>
+  </si>
+  <si>
+    <t>This hotel has everything you could need to make you feel at home! What stands out for me is the welcoming and warm staff who show genuine interest in delivering fantastic personalised customer service. Breakfasts are always plentiful and the shuttle service was really useful in making quick trips around the area. Rooms were cleaned well every day and were very bright and very spacious. The general manager Kyle makes it his business to get to know every single guest and goes above and beyond to help you with absolutely anything. I can't praise his effort enough. Weekly mixers run by the hotel staff also created a real community feeling amongst the guests. Looking forward to returning and staying with the residence inn family again!! MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded December 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2016</t>
+  </si>
+  <si>
+    <t>This hotel has everything you could need to make you feel at home! What stands out for me is the welcoming and warm staff who show genuine interest in delivering fantastic personalised customer service. Breakfasts are always plentiful and the shuttle service was really useful in making quick trips around the area. Rooms were cleaned well every day and were very bright and very spacious. The general manager Kyle makes it his business to get to know every single guest and goes above and beyond to help you with absolutely anything. I can't praise his effort enough. Weekly mixers run by the hotel staff also created a real community feeling amongst the guests. Looking forward to returning and staying with the residence inn family again!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r444319756-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>444319756</t>
+  </si>
+  <si>
+    <t>12/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent service </t>
+  </si>
+  <si>
+    <t>Excellent service, the manager Kyle is the best, he makes you feel like home at all times. The best place to stay for business or pleasure, for short or long stay. The brunch is excellent as well as the snacks and sips during the week that allows you to socialize and enjoy your stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded December 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2016</t>
+  </si>
+  <si>
+    <t>Excellent service, the manager Kyle is the best, he makes you feel like home at all times. The best place to stay for business or pleasure, for short or long stay. The brunch is excellent as well as the snacks and sips during the week that allows you to socialize and enjoy your stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r442964424-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442964424</t>
+  </si>
+  <si>
+    <t>12/08/2016</t>
+  </si>
+  <si>
+    <t>Great welcome</t>
+  </si>
+  <si>
+    <t>Big thumbs up to Kyle the manager, personalized service to every guest, makes you feel happy and like a million bucks.Rooms are suites, there are happy hours mon-wed (and Kyle might give you a beer on a Thursday if he feels like it). Breakfast buffet hits the spot and means you can fuel up quick before your busy day starts.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded December 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2016</t>
+  </si>
+  <si>
+    <t>Big thumbs up to Kyle the manager, personalized service to every guest, makes you feel happy and like a million bucks.Rooms are suites, there are happy hours mon-wed (and Kyle might give you a beer on a Thursday if he feels like it). Breakfast buffet hits the spot and means you can fuel up quick before your busy day starts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r439642662-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439642662</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>This is my the second home</t>
+  </si>
+  <si>
+    <t>I stayed here for 6 weeks and it was almost a home for me. I had very comfortable room with kitchen area (no cockroaches, no smell). The room was too big for me but who am I to complain :) The daily housekeeping service was good and all the staff at the property was very helpful and friendly. Amazing service, amazing staff, Thanks Kyle and Raza!There is a nice pool and my favorite warm spa pool.Small gym - 2 treadmill, ellipsoid machine, a couple of bike gym machines and set of dumbbells, it is more than enough for me, but if it's not enough for you there is a huge gym nearby. About food: compliment breakfast is good, a few options, you can make your own breakfast (fruits, oatmeal, waffles, toasts, cereals, 4 different hot options). There is a couple restaurants areas nearby, walkable distance (you can ask for a shuttle as well :)). And 24 hours Kroger in 200m.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded November 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for 6 weeks and it was almost a home for me. I had very comfortable room with kitchen area (no cockroaches, no smell). The room was too big for me but who am I to complain :) The daily housekeeping service was good and all the staff at the property was very helpful and friendly. Amazing service, amazing staff, Thanks Kyle and Raza!There is a nice pool and my favorite warm spa pool.Small gym - 2 treadmill, ellipsoid machine, a couple of bike gym machines and set of dumbbells, it is more than enough for me, but if it's not enough for you there is a huge gym nearby. About food: compliment breakfast is good, a few options, you can make your own breakfast (fruits, oatmeal, waffles, toasts, cereals, 4 different hot options). There is a couple restaurants areas nearby, walkable distance (you can ask for a shuttle as well :)). And 24 hours Kroger in 200m.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r439306732-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439306732</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>Great Hospitality</t>
+  </si>
+  <si>
+    <t>Every thing is wonderful about this hotel, the staff, the rooms, the services, it was perfect 6 weeks. if i ever been to Houston again Residence Inn will be my firs choice. special thanks to the hotel manager Kyle, for the help and creating wonderful positive atmosphere in the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded November 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2016</t>
+  </si>
+  <si>
+    <t>Every thing is wonderful about this hotel, the staff, the rooms, the services, it was perfect 6 weeks. if i ever been to Houston again Residence Inn will be my firs choice. special thanks to the hotel manager Kyle, for the help and creating wonderful positive atmosphere in the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r438190637-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438190637</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Stay and Wonderful Staff</t>
+  </si>
+  <si>
+    <t>I would like to recommend this Residence Inn to all of my friends visiting Houston.Kyle, the General Manager is awesome! He treated me and my husband like real family members, and offered us warm greetings every morning and valuable free rides to near attractions and restaurants in person probably every day during our stay. Additionally, we had quite a few meaningful/fun talks making me have a deeper understanding of the local culture of Houston, which was the essence of a trip. The month in Houston staying with Kyle will be my memorable life experience. Kyle, I wish you all the best in your bright future and please send my regards to your wife and cute kids.Raza (apologies if misspelled), the Front Desk Manager, is also amazing, and had given us quite a lot daily support during our stay. We also enjoyed having conversations with him.Ama, a cleaning lady, is friendly and helpful.   I wish you enjoy your life every day.  John, your kind smile and handsomeness will be remembered. The other beautiful ladies with the front desks, each of you is really the sunshine of Houston.Bryan, the AC engineer, thank you for "rescuing" me the other day by your charm.... this list could go on...In a word, come to this Residence Inn if you visit Houston!!!! You won't regret!!!Kind regards,LingMoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded November 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2016</t>
+  </si>
+  <si>
+    <t>I would like to recommend this Residence Inn to all of my friends visiting Houston.Kyle, the General Manager is awesome! He treated me and my husband like real family members, and offered us warm greetings every morning and valuable free rides to near attractions and restaurants in person probably every day during our stay. Additionally, we had quite a few meaningful/fun talks making me have a deeper understanding of the local culture of Houston, which was the essence of a trip. The month in Houston staying with Kyle will be my memorable life experience. Kyle, I wish you all the best in your bright future and please send my regards to your wife and cute kids.Raza (apologies if misspelled), the Front Desk Manager, is also amazing, and had given us quite a lot daily support during our stay. We also enjoyed having conversations with him.Ama, a cleaning lady, is friendly and helpful.   I wish you enjoy your life every day.  John, your kind smile and handsomeness will be remembered. The other beautiful ladies with the front desks, each of you is really the sunshine of Houston.Bryan, the AC engineer, thank you for "rescuing" me the other day by your charm.... this list could go on...In a word, come to this Residence Inn if you visit Houston!!!! You won't regret!!!Kind regards,LingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r436603863-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436603863</t>
+  </si>
+  <si>
+    <t>11/12/2016</t>
+  </si>
+  <si>
+    <t>Amazing Customer service</t>
+  </si>
+  <si>
+    <t>I stayed here the second time in 1 year and the service is amazing , the general Manager Kyle is absolutely fantastic &amp; fun loving person .Their socializing events every Mon , Tue, Friday are a great way to bring different travelers together .The Staff here is courteous and helpful , overall great location , great stay , and big cheers to the leader of the group Kyle , who brings in all this customer centricity into his men .MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded November 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here the second time in 1 year and the service is amazing , the general Manager Kyle is absolutely fantastic &amp; fun loving person .Their socializing events every Mon , Tue, Friday are a great way to bring different travelers together .The Staff here is courteous and helpful , overall great location , great stay , and big cheers to the leader of the group Kyle , who brings in all this customer centricity into his men .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r436266285-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436266285</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>Feels like home away from home!</t>
+  </si>
+  <si>
+    <t>The Residence Inn is a great hotel: large rooms, good and diverse breakfast and great staff who will do everything in their power to make you feel at home. I have never stayed in a hotel before where the general manager knows all guests by name. The shuttle service is amazing as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded November 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2016</t>
+  </si>
+  <si>
+    <t>The Residence Inn is a great hotel: large rooms, good and diverse breakfast and great staff who will do everything in their power to make you feel at home. I have never stayed in a hotel before where the general manager knows all guests by name. The shuttle service is amazing as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r435483065-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435483065</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Good Hotel and location, great service</t>
+  </si>
+  <si>
+    <t>Family stayed at the hotel for over a month.Really excellent service. The GM Kyle sets the tone for the place with his leadership and drive for top class service. There is a genuine family atmosphere created and he and his staff clearly wanted to make sure your stay was as good as it could be. I could not really fault the hotel , breakfasts were great , the Mon to Wed night time socials created an easy and relaxed atmosphere. Property is a little tired but kept clean and with a pool available. Location is good , especially right next to a Kroger, and with ;ots of dining options close by if wanted. Our best wishes to all the staff at the hotel, they all went the extra mile whenever needed (with every single guest) and did so with a smile on their faces and a genuine desire to make all the residents have a great stay. Well done.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded November 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2016</t>
+  </si>
+  <si>
+    <t>Family stayed at the hotel for over a month.Really excellent service. The GM Kyle sets the tone for the place with his leadership and drive for top class service. There is a genuine family atmosphere created and he and his staff clearly wanted to make sure your stay was as good as it could be. I could not really fault the hotel , breakfasts were great , the Mon to Wed night time socials created an easy and relaxed atmosphere. Property is a little tired but kept clean and with a pool available. Location is good , especially right next to a Kroger, and with ;ots of dining options close by if wanted. Our best wishes to all the staff at the hotel, they all went the extra mile whenever needed (with every single guest) and did so with a smile on their faces and a genuine desire to make all the residents have a great stay. Well done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r421079769-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421079769</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>"Home away from home"</t>
+  </si>
+  <si>
+    <t>I stayed in the hotel for 3 months this year, the staff is very friendly and GM Kyle is an amazing person. The shuttle service made my commute easy.I love playing basketball and they have a basketball court which I made best use of !MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded September 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2016</t>
+  </si>
+  <si>
+    <t>I stayed in the hotel for 3 months this year, the staff is very friendly and GM Kyle is an amazing person. The shuttle service made my commute easy.I love playing basketball and they have a basketball court which I made best use of !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r420745898-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>420745898</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Amazing Hospitality</t>
+  </si>
+  <si>
+    <t>Love the staff works and they are so helpful especially the General manager Kyle.Stayed there for almost 2 months, had an amazing time. They had their shuttle services which helped me a lot as i didn't had a car of my own.Will love to come back again and again and highly suggest for othersMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded September 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2016</t>
+  </si>
+  <si>
+    <t>Love the staff works and they are so helpful especially the General manager Kyle.Stayed there for almost 2 months, had an amazing time. They had their shuttle services which helped me a lot as i didn't had a car of my own.Will love to come back again and again and highly suggest for othersMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r417901742-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>417901742</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>VERY GOOD DEAL</t>
+  </si>
+  <si>
+    <t>Residence inn west chase Houston provides of good service like breakfast our team have visited on the Business trip, for this  nearest to our office provide shuttle to office &amp; back..... located at good nature's  environmentMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded September 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2016</t>
+  </si>
+  <si>
+    <t>Residence inn west chase Houston provides of good service like breakfast our team have visited on the Business trip, for this  nearest to our office provide shuttle to office &amp; back..... located at good nature's  environmentMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r387130933-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387130933</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Its Average</t>
+  </si>
+  <si>
+    <t>The hotel has a full equipped kitchen which is nice. It looks like had a partial renovation . The kitchen is nice but other areas show wear and tear of aging. The shower was hard to operate. It takes a good ten mins for the hot water to come through and I can't turn off the shower, so it was dripping all the time. MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded June 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2016</t>
+  </si>
+  <si>
+    <t>The hotel has a full equipped kitchen which is nice. It looks like had a partial renovation . The kitchen is nice but other areas show wear and tear of aging. The shower was hard to operate. It takes a good ten mins for the hot water to come through and I can't turn off the shower, so it was dripping all the time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r381990365-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381990365</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>You don't even get what you pay for. Spend your money somewhere else. Dirty rooms nasty attitudes. They overcharge you at the end. Cheap place and cheap attitude, management is nonexistent. Called and was put on hold for 10 min after I asked for corporates number.  Which they could never find.  Would never recommend this place to anyone. They gave me a hard time at check in which I should have taken as a sign,  but I have them a shot anyways and paid a hefty price for it.  Room smelled bad and the beds sheets stink.  Just horrible.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>You don't even get what you pay for. Spend your money somewhere else. Dirty rooms nasty attitudes. They overcharge you at the end. Cheap place and cheap attitude, management is nonexistent. Called and was put on hold for 10 min after I asked for corporates number.  Which they could never find.  Would never recommend this place to anyone. They gave me a hard time at check in which I should have taken as a sign,  but I have them a shot anyways and paid a hefty price for it.  Room smelled bad and the beds sheets stink.  Just horrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r381692948-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381692948</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>Really the best</t>
+  </si>
+  <si>
+    <t>Someone said on their review "Best hotel and staff ever." Truer words were never spoken. I work for the U.S. Government and travel a lot. I pay government rate and usually get government rate service. Not here! It starts at the top with the General Manager, Kyle, and spreads to all the others. Kyle even sat and looked at pictures of my two Grandbabies and my band! The rooms and grounds are kept clean. There's plenty of food at breakfast and nice treats, and games, at night. Other hotels should send their staff to learn from this place. Thanks, John CMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded June 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2016</t>
+  </si>
+  <si>
+    <t>Someone said on their review "Best hotel and staff ever." Truer words were never spoken. I work for the U.S. Government and travel a lot. I pay government rate and usually get government rate service. Not here! It starts at the top with the General Manager, Kyle, and spreads to all the others. Kyle even sat and looked at pictures of my two Grandbabies and my band! The rooms and grounds are kept clean. There's plenty of food at breakfast and nice treats, and games, at night. Other hotels should send their staff to learn from this place. Thanks, John CMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r365930612-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365930612</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>It was home for me !!</t>
+  </si>
+  <si>
+    <t>I stayed with my husband for 2. 5  months in this property and TRUST ME , this was home for me . The staff was extremely courteous &amp; friendly . RAZA , KYLE &amp; ROBERTO from the front desk were exceptional who made our stay memorable . On every Sunday , they have " FUN DAY SUNDAY " , where they took to all famous tourist attractions ( including #NASA ) .The housekeeping is too helpful. You just need to tell them your expectation &amp; then you are done !!Adriana , from Housekeeping is an AWESOME EMPLOYEE !! She will make sure the room is cleaned as per your expectations :)A BIG THUMBS UP for this property !!KEEP UP THE GOOD WORK GUYS!!AND we miss you :)MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded April 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2016</t>
+  </si>
+  <si>
+    <t>I stayed with my husband for 2. 5  months in this property and TRUST ME , this was home for me . The staff was extremely courteous &amp; friendly . RAZA , KYLE &amp; ROBERTO from the front desk were exceptional who made our stay memorable . On every Sunday , they have " FUN DAY SUNDAY " , where they took to all famous tourist attractions ( including #NASA ) .The housekeeping is too helpful. You just need to tell them your expectation &amp; then you are done !!Adriana , from Housekeeping is an AWESOME EMPLOYEE !! She will make sure the room is cleaned as per your expectations :)A BIG THUMBS UP for this property !!KEEP UP THE GOOD WORK GUYS!!AND we miss you :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r364672370-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364672370</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t>Comfortable with great staff</t>
+  </si>
+  <si>
+    <t>I stayed here 4 nights on business in April 2016. There's more to like here than to complain about. The staff was very friendly and responsive to requests. There was a decent breakfast bar (included) each morning, and some treat in the evening Mon - Wed. I think Monday was a social hour, Tuesday was grilled burgers &amp; fixin's plus alcohol, Wed was a spread of sweets. I loved having a little kitchen and Kroger is next door. I'd say the décor in my room was starting to look a little bit worn but it was clean. There's a large L shaped sofa but I didn't find it to be comfortable at all! To watch TV you'd want to have your head (I watch lying down) at the short end of the L, and that was a built in part that also served as an entry console. It was hard, and the sofa wasn't very deep. I could never get comfortable there so I watched TV in my bedroom. Nonetheless I was happy with my room and will stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I stayed here 4 nights on business in April 2016. There's more to like here than to complain about. The staff was very friendly and responsive to requests. There was a decent breakfast bar (included) each morning, and some treat in the evening Mon - Wed. I think Monday was a social hour, Tuesday was grilled burgers &amp; fixin's plus alcohol, Wed was a spread of sweets. I loved having a little kitchen and Kroger is next door. I'd say the décor in my room was starting to look a little bit worn but it was clean. There's a large L shaped sofa but I didn't find it to be comfortable at all! To watch TV you'd want to have your head (I watch lying down) at the short end of the L, and that was a built in part that also served as an entry console. It was hard, and the sofa wasn't very deep. I could never get comfortable there so I watched TV in my bedroom. Nonetheless I was happy with my room and will stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r364572686-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364572686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Hotel and Staff EVER </t>
+  </si>
+  <si>
+    <t>Our recent stay at the Residence Inn has been amszing. The staff was exceptional and the accommodations were great. I recommend this hotel for a vacation or a staycation  you will not be disappointed! From the full breakfast every morning to the on site gym and pool the facilities were impeccable.  For business or pleasure this hotel will meet your every needMoreShow less</t>
+  </si>
+  <si>
+    <t>Our recent stay at the Residence Inn has been amszing. The staff was exceptional and the accommodations were great. I recommend this hotel for a vacation or a staycation  you will not be disappointed! From the full breakfast every morning to the on site gym and pool the facilities were impeccable.  For business or pleasure this hotel will meet your every needMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r361277251-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361277251</t>
+  </si>
+  <si>
+    <t>04/03/2016</t>
+  </si>
+  <si>
+    <t>The most accommodating staff I've ever encountered</t>
+  </si>
+  <si>
+    <t>I arrived March 21 about 8:45 pm. I did not thoroughly look at my room until my friends left about an hour later. Unfortunately, despite three phone calls and filling out the online preference form the room was not prepared per my instructions. Roberta did her best to find me non-feather pillows but could do nothing about the other issues. She did tell me she would contact the manager so he could deal with it in the morning. True to her word she did just that. I was at the reception desk when he came in. Kyle could not have been nicer and more accommodating to deal with my requests. He even offered to move my things which had already been unpacked and place them in the new room just as I had left them in the old room. I should've taken him up on the offer and saved my energy. The rest of the visit was pure pleasure. Kyle and his staff did everything they could to make me comfortable. Kyle even got a bathmat for the tub because I felt insecure with only one grab bar. Special thanks to Roberta, Jasmine, Alberto, Rahi, and Di and in an gne. I wish I could've stayed there for my entire visit. The SpringHill Suites at Northwest Houston was a horrible experience despite being a brand-new facility open for less than a year. They could use a touch of Kyle's management...I arrived March 21 about 8:45 pm. I did not thoroughly look at my room until my friends left about an hour later. Unfortunately, despite three phone calls and filling out the online preference form the room was not prepared per my instructions. Roberta did her best to find me non-feather pillows but could do nothing about the other issues. She did tell me she would contact the manager so he could deal with it in the morning. True to her word she did just that. I was at the reception desk when he came in. Kyle could not have been nicer and more accommodating to deal with my requests. He even offered to move my things which had already been unpacked and place them in the new room just as I had left them in the old room. I should've taken him up on the offer and saved my energy. The rest of the visit was pure pleasure. Kyle and his staff did everything they could to make me comfortable. Kyle even got a bathmat for the tub because I felt insecure with only one grab bar. Special thanks to Roberta, Jasmine, Alberto, Rahi, and Di and in an gne. I wish I could've stayed there for my entire visit. The SpringHill Suites at Northwest Houston was a horrible experience despite being a brand-new facility open for less than a year. They could use a touch of Kyle's management and leadership style. No one was happy there and they were extremely unaccommodating despite a phone call the morning of my move from the RI. I have not received a survey from them directly. They will get a negative review on Trip Advisor.  One note that I did not give Kyle is that the original room I was in did not have all the kitchen utensils that were in the second room. I know a remodel is going to happen in the near future and it would be helpful to assure that all rooms are furnished the same even if the guests are not planning to cook. I want to commend Kyle and his staff for being one happy group of people and going out of their way to assure that the needs of their guests are well met. Close to food, shopping, has shuttle service within a three mile radius. Too cold for the pool. But it looked nice. Nice grounds.MoreShow less</t>
+  </si>
+  <si>
+    <t>I arrived March 21 about 8:45 pm. I did not thoroughly look at my room until my friends left about an hour later. Unfortunately, despite three phone calls and filling out the online preference form the room was not prepared per my instructions. Roberta did her best to find me non-feather pillows but could do nothing about the other issues. She did tell me she would contact the manager so he could deal with it in the morning. True to her word she did just that. I was at the reception desk when he came in. Kyle could not have been nicer and more accommodating to deal with my requests. He even offered to move my things which had already been unpacked and place them in the new room just as I had left them in the old room. I should've taken him up on the offer and saved my energy. The rest of the visit was pure pleasure. Kyle and his staff did everything they could to make me comfortable. Kyle even got a bathmat for the tub because I felt insecure with only one grab bar. Special thanks to Roberta, Jasmine, Alberto, Rahi, and Di and in an gne. I wish I could've stayed there for my entire visit. The SpringHill Suites at Northwest Houston was a horrible experience despite being a brand-new facility open for less than a year. They could use a touch of Kyle's management...I arrived March 21 about 8:45 pm. I did not thoroughly look at my room until my friends left about an hour later. Unfortunately, despite three phone calls and filling out the online preference form the room was not prepared per my instructions. Roberta did her best to find me non-feather pillows but could do nothing about the other issues. She did tell me she would contact the manager so he could deal with it in the morning. True to her word she did just that. I was at the reception desk when he came in. Kyle could not have been nicer and more accommodating to deal with my requests. He even offered to move my things which had already been unpacked and place them in the new room just as I had left them in the old room. I should've taken him up on the offer and saved my energy. The rest of the visit was pure pleasure. Kyle and his staff did everything they could to make me comfortable. Kyle even got a bathmat for the tub because I felt insecure with only one grab bar. Special thanks to Roberta, Jasmine, Alberto, Rahi, and Di and in an gne. I wish I could've stayed there for my entire visit. The SpringHill Suites at Northwest Houston was a horrible experience despite being a brand-new facility open for less than a year. They could use a touch of Kyle's management and leadership style. No one was happy there and they were extremely unaccommodating despite a phone call the morning of my move from the RI. I have not received a survey from them directly. They will get a negative review on Trip Advisor.  One note that I did not give Kyle is that the original room I was in did not have all the kitchen utensils that were in the second room. I know a remodel is going to happen in the near future and it would be helpful to assure that all rooms are furnished the same even if the guests are not planning to cook. I want to commend Kyle and his staff for being one happy group of people and going out of their way to assure that the needs of their guests are well met. Close to food, shopping, has shuttle service within a three mile radius. Too cold for the pool. But it looked nice. Nice grounds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r355909940-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355909940</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Excellent customer service</t>
+  </si>
+  <si>
+    <t>The hotel staff were very friendly and resourceful. The management and hotel staff were remarkable in the way they accommodated our special requests. The facility is clean and quiet. I would definitely recommend this facility to everyone tired of poor customer serviceMoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded March 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2016</t>
+  </si>
+  <si>
+    <t>The hotel staff were very friendly and resourceful. The management and hotel staff were remarkable in the way they accommodated our special requests. The facility is clean and quiet. I would definitely recommend this facility to everyone tired of poor customer serviceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r355420576-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355420576</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>Exceptional!!!!</t>
+  </si>
+  <si>
+    <t>My church has rented out the meeting two times in a roll and we've throughly enjoyed our experience at Residence Inn thus far. The facilities are top notch and the staff are efficient and warm. I would definitely recommend this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded March 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2016</t>
+  </si>
+  <si>
+    <t>My church has rented out the meeting two times in a roll and we've throughly enjoyed our experience at Residence Inn thus far. The facilities are top notch and the staff are efficient and warm. I would definitely recommend this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r347148449-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347148449</t>
+  </si>
+  <si>
+    <t>02/12/2016</t>
+  </si>
+  <si>
+    <t>Simply the best staff</t>
+  </si>
+  <si>
+    <t>Stayed here for four months for business and could not fault the service. Staff are so friendly and accommodating. The room is big with everything you might need. The pool and hot tub are clean and the bbq adjacent is a nice touch. All in all 10/10!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded February 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for four months for business and could not fault the service. Staff are so friendly and accommodating. The room is big with everything you might need. The pool and hot tub are clean and the bbq adjacent is a nice touch. All in all 10/10!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r344053548-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344053548</t>
+  </si>
+  <si>
+    <t>01/31/2016</t>
+  </si>
+  <si>
+    <t>excellent customer service</t>
+  </si>
+  <si>
+    <t>I stayed there 9 days in Jan. 2016. First of all, I was guest of the day. My microwave didn't work so the maintenance guy came quick and fixed it. I wanted to open the windows so the maintenance guy came and took the restrictor off so I could open them. I held a meeting and Chrissy loaned me the projector for free and taught me how to use it. She spent an hour with me. I also got a good deal on the meeting room. The breakfast was very good and although I eat gluten and dairy free, I was able to find food I could eat. I loved the potatoes and sausage combo with peppers. They even have dinner or snacks 3 days a week. The grocery store is right across the parking lot so I cooked almost all my meals. All their staff was very nice and friendly. I loved my room and used it to hold a small class for 3 days and a meeting another day. It was a very good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2016</t>
+  </si>
+  <si>
+    <t>I stayed there 9 days in Jan. 2016. First of all, I was guest of the day. My microwave didn't work so the maintenance guy came quick and fixed it. I wanted to open the windows so the maintenance guy came and took the restrictor off so I could open them. I held a meeting and Chrissy loaned me the projector for free and taught me how to use it. She spent an hour with me. I also got a good deal on the meeting room. The breakfast was very good and although I eat gluten and dairy free, I was able to find food I could eat. I loved the potatoes and sausage combo with peppers. They even have dinner or snacks 3 days a week. The grocery store is right across the parking lot so I cooked almost all my meals. All their staff was very nice and friendly. I loved my room and used it to hold a small class for 3 days and a meeting another day. It was a very good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r341654657-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341654657</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean comfortable </t>
+  </si>
+  <si>
+    <t>Nice secure property in west Houston . Very comfortable and quite. Very efficient staff . Property well maintained and clean . Great location for business on westheimer west of galleria mall. Plenty of restaurants in walking distance.  Will be backMoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded February 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2016</t>
+  </si>
+  <si>
+    <t>Nice secure property in west Houston . Very comfortable and quite. Very efficient staff . Property well maintained and clean . Great location for business on westheimer west of galleria mall. Plenty of restaurants in walking distance.  Will be backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r322638780-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322638780</t>
+  </si>
+  <si>
+    <t>10/28/2015</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>We stayed at this property from October 13 -25 2015All I can say is its going to be very difficult for us to stay else where! :)Kyle the General Manager along with Megan and jasmine they made our stay so wonderful...Have not met any hotel staff as great as themClean Friendly and safe property!!!Hospitality at its best!Thank you!Esmail &amp; AtekaMoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded November 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this property from October 13 -25 2015All I can say is its going to be very difficult for us to stay else where! :)Kyle the General Manager along with Megan and jasmine they made our stay so wonderful...Have not met any hotel staff as great as themClean Friendly and safe property!!!Hospitality at its best!Thank you!Esmail &amp; AtekaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r321720668-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321720668</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>staff very nice and enjoyed the stay</t>
+  </si>
+  <si>
+    <t>very nice place to stay staff very nice also good breakfast the rooms a very nice and family enjoyed the pool.we will come here again all good nothing else to say.mrs sherrie williams is a very nice personMoreShow less</t>
+  </si>
+  <si>
+    <t>very nice place to stay staff very nice also good breakfast the rooms a very nice and family enjoyed the pool.we will come here again all good nothing else to say.mrs sherrie williams is a very nice personMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r321374193-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321374193</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>Very good place to stay</t>
+  </si>
+  <si>
+    <t>This a very good place to stay it has a pool,gym the rooms are comfortable,the breakfast and the front desk people is very kind.The rooms also have a good kitchen so if you get tired eating out, you can cook anything you want, because you can buy groceries in a kroger supermarket located just in front of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>This a very good place to stay it has a pool,gym the rooms are comfortable,the breakfast and the front desk people is very kind.The rooms also have a good kitchen so if you get tired eating out, you can cook anything you want, because you can buy groceries in a kroger supermarket located just in front of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r309558481-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>309558481</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service, Excellent Location</t>
+  </si>
+  <si>
+    <t>The hotel is located close to excellent restaurants, and right next to a Kroger store. There are full kitchens in the rooms. The manager and staff are excellent and very accommodating. I highly recommend this property for your next stay in Houston. It has easy access to all the major highways and expressways.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded September 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is located close to excellent restaurants, and right next to a Kroger store. There are full kitchens in the rooms. The manager and staff are excellent and very accommodating. I highly recommend this property for your next stay in Houston. It has easy access to all the major highways and expressways.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r305515012-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>305515012</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
+    <t>Amazing place family enviroment</t>
+  </si>
+  <si>
+    <t>I have stayed at many fine hotels from Las Vegas to New York, I have never stayed at a more friendly, amazing hotel.  We were there for 12 days for medical treatment, in those 12 days not a single employee passed me without saying hello.  Jasmine, who is at the front desk is the most amazing caring person, she came in at 6:30am to say good bye when her shift didn't start until 3:00pm.  Dan in maintenance was so polite and sweet, Sheree is a jack of all trades and truly enjoys her career.  And Kyle the manager, I can't say enough about him, he knew every guest by name and went out of his way to make sure everything was perfect for our stay.  We will be returning for 3 more treatments and I would never even think of staying anywhere  else. They made a stressful trip as enjoyable as possible.  They changed my view on life and people.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed at many fine hotels from Las Vegas to New York, I have never stayed at a more friendly, amazing hotel.  We were there for 12 days for medical treatment, in those 12 days not a single employee passed me without saying hello.  Jasmine, who is at the front desk is the most amazing caring person, she came in at 6:30am to say good bye when her shift didn't start until 3:00pm.  Dan in maintenance was so polite and sweet, Sheree is a jack of all trades and truly enjoys her career.  And Kyle the manager, I can't say enough about him, he knew every guest by name and went out of his way to make sure everything was perfect for our stay.  We will be returning for 3 more treatments and I would never even think of staying anywhere  else. They made a stressful trip as enjoyable as possible.  They changed my view on life and people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r304430761-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>304430761</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t>Professionalism</t>
+  </si>
+  <si>
+    <t>I watched staff help guests in pooring rain, during a time when  a large crowd was checking in, yet still maintain composure and professionalism. Great shuttle service. Fixed anything broken within a short time. I'd especially like to note the efforts of Jasmine to manage guests that were not easy to deal with. Also, the Manager, Kyle, better not change a thing; stay just the way you are. His demeanor and sincerity helping this Iraq veteran sets a standard for others to follow.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded August 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2015</t>
+  </si>
+  <si>
+    <t>I watched staff help guests in pooring rain, during a time when  a large crowd was checking in, yet still maintain composure and professionalism. Great shuttle service. Fixed anything broken within a short time. I'd especially like to note the efforts of Jasmine to manage guests that were not easy to deal with. Also, the Manager, Kyle, better not change a thing; stay just the way you are. His demeanor and sincerity helping this Iraq veteran sets a standard for others to follow.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r299228088-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299228088</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>This is the Place to Stay!</t>
+  </si>
+  <si>
+    <t>For those looking for more than your standard hotel room Residence Inns have traditionally provided great properties and service. However being a road warrior for many years, I was totally impressed  the Kyle Metzger, the Hotel property manager. I realize that many managers wind up in a reactive position dealing with customer complaints. But this is the first time I have seen a manager in a proactive manner beyond the front desk. Mr. Metzger gave little toys to the children at breakfast and I was simply astounded to find him later in the workout area checking on the water supply and asking if I needed more water. I hope Marriot Management realizes what a gem they have and Capitalize on this rare find. Kudos to Mr. Metzger.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded August 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2015</t>
+  </si>
+  <si>
+    <t>For those looking for more than your standard hotel room Residence Inns have traditionally provided great properties and service. However being a road warrior for many years, I was totally impressed  the Kyle Metzger, the Hotel property manager. I realize that many managers wind up in a reactive position dealing with customer complaints. But this is the first time I have seen a manager in a proactive manner beyond the front desk. Mr. Metzger gave little toys to the children at breakfast and I was simply astounded to find him later in the workout area checking on the water supply and asking if I needed more water. I hope Marriot Management realizes what a gem they have and Capitalize on this rare find. Kudos to Mr. Metzger.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r299185779-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299185779</t>
+  </si>
+  <si>
+    <t>....A great family hotel!</t>
+  </si>
+  <si>
+    <t>Check in was quick on arrival at the hotel. Rooms were clean with sufficient towels and toiletries.Breakfast was good with sufficient variety though this depends on your taste.Staff was friendly and always willing to help. Unlike other hotels I stayed in the US we got lots of assistance in this hotel from staff - like movement of luggage to the room. They were always ready to take us to shopping malls around the hotel mostly within 3 miles with occasional weekend trips to more distant selected shopping malls selected by guest. The manager Kyle Metzyer was extremely helpful - the best hotel manager I have ever met! He went out of his way to buy my son some cereals not usually available on there menu on our request. He even bought birthday cakes and celebrated my  sons sixth birthday at the hotel!Internet was good for most uses.I recommend this hotel for family and business. I will surely visit again if in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Check in was quick on arrival at the hotel. Rooms were clean with sufficient towels and toiletries.Breakfast was good with sufficient variety though this depends on your taste.Staff was friendly and always willing to help. Unlike other hotels I stayed in the US we got lots of assistance in this hotel from staff - like movement of luggage to the room. They were always ready to take us to shopping malls around the hotel mostly within 3 miles with occasional weekend trips to more distant selected shopping malls selected by guest. The manager Kyle Metzyer was extremely helpful - the best hotel manager I have ever met! He went out of his way to buy my son some cereals not usually available on there menu on our request. He even bought birthday cakes and celebrated my  sons sixth birthday at the hotel!Internet was good for most uses.I recommend this hotel for family and business. I will surely visit again if in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r297503259-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>297503259</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>I was here during end of July on a business trip for 7 days , the hotel is very comfortable and with all amenities you require during a business as well as pleasure trip. Its right next to some great eating places &amp; a shopping complex for daily needs , if you have any .Kyle Metzger the General Manager is a extremely  helpful 7 courteous Gentleman, ....Overall a great stay , looking forward to returning soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded August 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2015</t>
+  </si>
+  <si>
+    <t>I was here during end of July on a business trip for 7 days , the hotel is very comfortable and with all amenities you require during a business as well as pleasure trip. Its right next to some great eating places &amp; a shopping complex for daily needs , if you have any .Kyle Metzger the General Manager is a extremely  helpful 7 courteous Gentleman, ....Overall a great stay , looking forward to returning soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r296191779-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296191779</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>Excellent Management and Staff</t>
+  </si>
+  <si>
+    <t>I have stayed in Residence Inn Houston Westchase from July 1 to August 1, 2015.  I usually stay in Residence-Inn especially when I have a long stay in my agenda.  The hotel management and staff are very friendly and promote in addressing any issues.  I had several points during my stay which they took care of them quickly and efficiently without any problems and/or discussion.  The management is proactive and I certainly have noticed a significant improvement in housekeeping related matters which I encountered initially.  We are looking forward to see the staff in our next trip.  Thank you Kyle and Will for taking care of us.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed in Residence Inn Houston Westchase from July 1 to August 1, 2015.  I usually stay in Residence-Inn especially when I have a long stay in my agenda.  The hotel management and staff are very friendly and promote in addressing any issues.  I had several points during my stay which they took care of them quickly and efficiently without any problems and/or discussion.  The management is proactive and I certainly have noticed a significant improvement in housekeeping related matters which I encountered initially.  We are looking forward to see the staff in our next trip.  Thank you Kyle and Will for taking care of us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r293941881-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293941881</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Convenient and Comfortable</t>
+  </si>
+  <si>
+    <t>This was a Last minute booking upon my Houston visit. It is located adjacent to Korger and walking distance 8 different restaurants. I really enjoyed the atmosphere. They hosted a social gathering with wines and cheeses. Will Campbell(Sales Manager) was very helpful and a overall great person. This social event was very elegant and unique to my other hotel experiences. I can say I was given 5 star treatment at 4 star prices. I would recommend this hotel to anyone looking for a comfortable environmentMoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded August 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2015</t>
+  </si>
+  <si>
+    <t>This was a Last minute booking upon my Houston visit. It is located adjacent to Korger and walking distance 8 different restaurants. I really enjoyed the atmosphere. They hosted a social gathering with wines and cheeses. Will Campbell(Sales Manager) was very helpful and a overall great person. This social event was very elegant and unique to my other hotel experiences. I can say I was given 5 star treatment at 4 star prices. I would recommend this hotel to anyone looking for a comfortable environmentMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r292426624-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>292426624</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>All the positives outhweighed by lousy service</t>
+  </si>
+  <si>
+    <t>We are long-time Residence Inn clients, but it's the first (and definitely last) time we stay in this particular one. Lousy service, mostly unfriendly staff (with few exceptions, like the super nice and friendly lady who serves breakfast), and the WORST experience with housekeeping service. Everyday we have to ask for something they forgot to leave, like pillowcases or toilet paper. It really is embarassing to have to ask for whatever they forgot each day. We talked with the housekeeping supervisor and they have been leaving extra stuff everyday as a "special" treatment. But these things are supposed to be standard in any hotel stay, not special. We don't need extra stuff, we just need the usual things that any hotel room has. Pillowcases? Come on! My mother is also staying here in another room and for three days in a row, we leave at 10am, come back at 4pm and her room has not been cleaned. Call the unfriendly staff (via a local call because there are problems with the phones and you can't reach the front desk by dialing 0 from your room), and 20 minutes later they have not been able to find anyone from housekeeping to go and clean the room. It is frankly ridiculous. I guess this is our last time in any Residence Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>David M, Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded July 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2015</t>
+  </si>
+  <si>
+    <t>We are long-time Residence Inn clients, but it's the first (and definitely last) time we stay in this particular one. Lousy service, mostly unfriendly staff (with few exceptions, like the super nice and friendly lady who serves breakfast), and the WORST experience with housekeeping service. Everyday we have to ask for something they forgot to leave, like pillowcases or toilet paper. It really is embarassing to have to ask for whatever they forgot each day. We talked with the housekeeping supervisor and they have been leaving extra stuff everyday as a "special" treatment. But these things are supposed to be standard in any hotel stay, not special. We don't need extra stuff, we just need the usual things that any hotel room has. Pillowcases? Come on! My mother is also staying here in another room and for three days in a row, we leave at 10am, come back at 4pm and her room has not been cleaned. Call the unfriendly staff (via a local call because there are problems with the phones and you can't reach the front desk by dialing 0 from your room), and 20 minutes later they have not been able to find anyone from housekeeping to go and clean the room. It is frankly ridiculous. I guess this is our last time in any Residence Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r242921905-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242921905</t>
+  </si>
+  <si>
+    <t>12/04/2014</t>
+  </si>
+  <si>
+    <t>Always happy to stay here</t>
+  </si>
+  <si>
+    <t>I spent six nights at the Residence Inn Houston Westchase over October-November 2014. I have stayed here several (could say many) times before, and I am always happy here.  All rooms are junior suites, and the staff always very pleasant and helpful. Highly recommended for anyone wanting to be in the Westheimer Road area, or visiting the city generally.The hotel is easy to find, and walking distance to Kroeger supermarket to pick up toothpaste (etc, etc).  If you like steaks, the Outback steakhouse is also a short walk away.Car parking is easy and free. There is a gym, and a small outside swimming pool in the centre of the hotel complex. There are lifts to all floors in all the hotel buildings.Breakfast is included each morning. Nothing special, but coffee, juice and basic hot and cold choice is very welcome.  Three or four nights a week, an evening snack meal is also provided (free) with wine and beer.  I like this when I'm not feeling adventurous enough to go out.I cannot recall any bad experiences here - EVER.If my review has informed you, please reward me with a "Helpful" vote. Happy travels!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded January 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2015</t>
+  </si>
+  <si>
+    <t>I spent six nights at the Residence Inn Houston Westchase over October-November 2014. I have stayed here several (could say many) times before, and I am always happy here.  All rooms are junior suites, and the staff always very pleasant and helpful. Highly recommended for anyone wanting to be in the Westheimer Road area, or visiting the city generally.The hotel is easy to find, and walking distance to Kroeger supermarket to pick up toothpaste (etc, etc).  If you like steaks, the Outback steakhouse is also a short walk away.Car parking is easy and free. There is a gym, and a small outside swimming pool in the centre of the hotel complex. There are lifts to all floors in all the hotel buildings.Breakfast is included each morning. Nothing special, but coffee, juice and basic hot and cold choice is very welcome.  Three or four nights a week, an evening snack meal is also provided (free) with wine and beer.  I like this when I'm not feeling adventurous enough to go out.I cannot recall any bad experiences here - EVER.If my review has informed you, please reward me with a "Helpful" vote. Happy travels!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r239210578-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239210578</t>
+  </si>
+  <si>
+    <t>11/10/2014</t>
+  </si>
+  <si>
+    <t>horrible stay</t>
+  </si>
+  <si>
+    <t>the hotel was horrible - multiple billing issues - was told by clerk that it is not his problem and that i need to call marriott reservations to have the issue resolved. i am a gold member and this is unacceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jonathan C, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded November 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2014</t>
+  </si>
+  <si>
+    <t>the hotel was horrible - multiple billing issues - was told by clerk that it is not his problem and that i need to call marriott reservations to have the issue resolved. i am a gold member and this is unacceptable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r239083181-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239083181</t>
+  </si>
+  <si>
+    <t>Great hotel with excellent staff !</t>
+  </si>
+  <si>
+    <t>I stayed there twice this year for busines trips, the hotel located in good spot on Westchase district and very close to big supermarket, the hotel is clean and modern with free breakfast and snacks provided 4 days a week. The hotel also provide free shuttle service within 4 mile from hotel. The rooms are clean and always in good shape. I really like the staff working there, you always will get a warm welcome from front desk whenever you enter the hotel, special thanks for Clara the housekeeper for her professional and outstanding job she is doing every day to keep the room in great look ! I highly recommend this hotel it’s the best when considering money paid to value received.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Jonathan C, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded November 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2014</t>
+  </si>
+  <si>
+    <t>I stayed there twice this year for busines trips, the hotel located in good spot on Westchase district and very close to big supermarket, the hotel is clean and modern with free breakfast and snacks provided 4 days a week. The hotel also provide free shuttle service within 4 mile from hotel. The rooms are clean and always in good shape. I really like the staff working there, you always will get a warm welcome from front desk whenever you enter the hotel, special thanks for Clara the housekeeper for her professional and outstanding job she is doing every day to keep the room in great look ! I highly recommend this hotel it’s the best when considering money paid to value received.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r204060175-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204060175</t>
+  </si>
+  <si>
+    <t>05/04/2014</t>
+  </si>
+  <si>
+    <t>excellent location and very clean and comfortable</t>
+  </si>
+  <si>
+    <t>We stayed one night. The hotel is very centrally located in Houston's westchase district but in a quiet spot. There is a Kroger's grocery store and gas station right next to it, open late. Gated parking. Plenty of food choices a short drive away or one can even walk. Rooms and bathrooms were nice and clean. Front desk staff was very hospitable. Cody was very helpful at check in. We look forward to staying there again next time we're in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Jonathan C, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded May 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2014</t>
+  </si>
+  <si>
+    <t>We stayed one night. The hotel is very centrally located in Houston's westchase district but in a quiet spot. There is a Kroger's grocery store and gas station right next to it, open late. Gated parking. Plenty of food choices a short drive away or one can even walk. Rooms and bathrooms were nice and clean. Front desk staff was very hospitable. Cody was very helpful at check in. We look forward to staying there again next time we're in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r195925678-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195925678</t>
+  </si>
+  <si>
+    <t>03/02/2014</t>
+  </si>
+  <si>
+    <t>Nice place to stay, except poor internet speed</t>
+  </si>
+  <si>
+    <t>Very nice place, friendly staff, good shuttle service, comfortable rooms. Overall, quite exciting place except the internet which is not that good (the free one). But you can buy high speed subscription for 5$ a day.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Jonathan C, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded March 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2014</t>
+  </si>
+  <si>
+    <t>Very nice place, friendly staff, good shuttle service, comfortable rooms. Overall, quite exciting place except the internet which is not that good (the free one). But you can buy high speed subscription for 5$ a day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r194534610-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194534610</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t>Nothing But Nice Things to Say</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay at Residence Inn Westchase - from the efficient check-in (real late) to the delightful staff to the excellent breakfast.  Our room was a nicely sized suite with full kitchen and living room.  The location was convenient to us and there are plenty of good restaurants nearby (even an adjacent grocery store).  I was a little taken aback by the fencing around the property (not aware that it was warranted by the neighborhood), but I guess the added security was to be commended.  Did I mention that you should save room for breakfast?MoreShow less</t>
+  </si>
+  <si>
+    <t>Jonathan C, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded March 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2014</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay at Residence Inn Westchase - from the efficient check-in (real late) to the delightful staff to the excellent breakfast.  Our room was a nicely sized suite with full kitchen and living room.  The location was convenient to us and there are plenty of good restaurants nearby (even an adjacent grocery store).  I was a little taken aback by the fencing around the property (not aware that it was warranted by the neighborhood), but I guess the added security was to be commended.  Did I mention that you should save room for breakfast?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r181418473-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181418473</t>
+  </si>
+  <si>
+    <t>10/17/2013</t>
+  </si>
+  <si>
+    <t>Friendly Staff, Good Rate, Ideal Location...What more could you ask for</t>
+  </si>
+  <si>
+    <t>The family and I traveled to Houston for a weekend getway and chose Residence Inn because of their pet policies reasonable fee compared to other hotels. We checked in late but Cody was welcoming and cheerful and conversated with my 6 yr old which made him feel like a grown up. The buffet breakfast was big and had a lot of choices AND they had fountain drinks which is great because I do not drink coffee but I drink soda (I know bad). Catalina who worked in the kitchen area kept the buffet clean, stocked, and was very accomodating. When we checked out Stacey was helpful and filled up my cooler with ice for the long trip back. The rooms were very clean and it felt just like home.The location is perfect with a Kroger next door and several restaurants down the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>The family and I traveled to Houston for a weekend getway and chose Residence Inn because of their pet policies reasonable fee compared to other hotels. We checked in late but Cody was welcoming and cheerful and conversated with my 6 yr old which made him feel like a grown up. The buffet breakfast was big and had a lot of choices AND they had fountain drinks which is great because I do not drink coffee but I drink soda (I know bad). Catalina who worked in the kitchen area kept the buffet clean, stocked, and was very accomodating. When we checked out Stacey was helpful and filled up my cooler with ice for the long trip back. The rooms were very clean and it felt just like home.The location is perfect with a Kroger next door and several restaurants down the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r178824994-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178824994</t>
+  </si>
+  <si>
+    <t>09/27/2013</t>
+  </si>
+  <si>
+    <t>Great Place to stay in Houston</t>
+  </si>
+  <si>
+    <t>I was in Houston for a business purpose for a month or so and was accompanied with family. I was looking for a hotel to stay near office as well as nice place where my family can also spend time during the day. I found Residence Inn at Westchase Houston a perfect place to stay in Houston. Hot and fresh breakfast and evening social hour in lobby with snacks and drinks was the best thing at this place. Apartments are very well maintained with Kitchen and Kroger food store is right outside the gate which is awesome. The staff at the hotel is very friendly. The place is near to city and lot of food options nearby if you don't like to cook everyday. I would highly recommend this hotel to anyone who is visiting Houston and happens to have work/business near Westchase.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>I was in Houston for a business purpose for a month or so and was accompanied with family. I was looking for a hotel to stay near office as well as nice place where my family can also spend time during the day. I found Residence Inn at Westchase Houston a perfect place to stay in Houston. Hot and fresh breakfast and evening social hour in lobby with snacks and drinks was the best thing at this place. Apartments are very well maintained with Kitchen and Kroger food store is right outside the gate which is awesome. The staff at the hotel is very friendly. The place is near to city and lot of food options nearby if you don't like to cook everyday. I would highly recommend this hotel to anyone who is visiting Houston and happens to have work/business near Westchase.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r176517664-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>176517664</t>
+  </si>
+  <si>
+    <t>09/09/2013</t>
+  </si>
+  <si>
+    <t>Wedding week</t>
+  </si>
+  <si>
+    <t>This is my third stay here and second since the renovation.  We booked 6 rooms for guests attending a family wedding; the staff was very friendly and courteous to us.  They took particular care with my 85 year old mom.  We love Ana and her mom.  We enjoyed the variety of breakfast items offered and partook of some of the evening snacks.  Caution:  protein goes first.  My grandson played basketball with some of the other guests.  We used the grill and swim facilities one night.  Several good restaurants are close by and Kroger is across the street.  We had a blast celebrating with bride and groom.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r154212974-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154212974</t>
+  </si>
+  <si>
+    <t>03/10/2013</t>
+  </si>
+  <si>
+    <t>Much better after renovation</t>
+  </si>
+  <si>
+    <t>I stayed here last year before the renovation and had a horrible experience that made me reconsider whether I should change my hotel chain of choice. Management responded and did a full renovation and upon returning, I can positively say that this is now one of the better appointed hotels in the area.I am very happy with the staff service, I like the new room appointments and lobby/breakfast area. The musty old smell in the rooms is gone. Really, the only thing that shows its age is the elevator. Breakfast is varied from day to day and offeres ample options. The evening social is a nice perk. Internet worked great. I found the new security fence around the parking lot to be the best system in this area- you must have your room key to access the parking lot and the entrance/exit is in view of the lobby. The security provided here is a major reason why I am booking my next trip here. Thanks to the staff and the renovation crew - this is a great example of Marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>RIWestchase, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded March 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here last year before the renovation and had a horrible experience that made me reconsider whether I should change my hotel chain of choice. Management responded and did a full renovation and upon returning, I can positively say that this is now one of the better appointed hotels in the area.I am very happy with the staff service, I like the new room appointments and lobby/breakfast area. The musty old smell in the rooms is gone. Really, the only thing that shows its age is the elevator. Breakfast is varied from day to day and offeres ample options. The evening social is a nice perk. Internet worked great. I found the new security fence around the parking lot to be the best system in this area- you must have your room key to access the parking lot and the entrance/exit is in view of the lobby. The security provided here is a major reason why I am booking my next trip here. Thanks to the staff and the renovation crew - this is a great example of Marriott.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r151436159-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151436159</t>
+  </si>
+  <si>
+    <t>02/04/2013</t>
+  </si>
+  <si>
+    <t>Great Choice for Extended Stays</t>
+  </si>
+  <si>
+    <t>I was on a business trip in Houston for 2 weeks, and stayed at the Residence Inn Houston Westchase. The room was sufficiently furnished with a kitchen, living area, and study table, and the hotel staff were always alert to my questions. The gym is a little small but decently equipped. I did not get to try to the pool as it was far too cold for a swim. It is very conveniently located next to Kroger. I appreciated the daily breakfasts, and was pleasantly surprised by the social hour from Mon - Thur. This is probably the only hotel I know that provides meals in the evenings. If you are looking for an extended stay hotel that feels homely and warm, this is the place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>RIWestchase, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded February 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2013</t>
+  </si>
+  <si>
+    <t>I was on a business trip in Houston for 2 weeks, and stayed at the Residence Inn Houston Westchase. The room was sufficiently furnished with a kitchen, living area, and study table, and the hotel staff were always alert to my questions. The gym is a little small but decently equipped. I did not get to try to the pool as it was far too cold for a swim. It is very conveniently located next to Kroger. I appreciated the daily breakfasts, and was pleasantly surprised by the social hour from Mon - Thur. This is probably the only hotel I know that provides meals in the evenings. If you are looking for an extended stay hotel that feels homely and warm, this is the place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r138050911-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138050911</t>
+  </si>
+  <si>
+    <t>08/22/2012</t>
+  </si>
+  <si>
+    <t>Hospitable staff, decent property, renovation coming</t>
+  </si>
+  <si>
+    <t>I stayed here for nearly 3 weeks for work and found the staff to be very friendly and helpful - Anna at the front desk in particular. Some were not as skilled / experienced, but everyone was very friendly and willing to assist. The rooms are a bit dated and there were signs everywhere announcing the renovation, but I would would say it's perfectly fine even without the renovation.The property has a nice pool area with lots of chairs, big BBQ's for guests to use and outdoor seating that we used a few times. They have breakfast (the typical stuff) and a beer/wine/light dinner reception a few days a week. The food isn't fantastic, but if you're busy working it's very convenient to just grab a snack and a glass of wine. I really loved having a grocery store literally right next door. It's wonderful to be able to grab something and is one of the major benefits of this hotel.There is a free shuttle within a couple mile radius, but we found it hard to use / difficult to schedule. It is Houston afterall so you really need a car to get anywhere.The rooms are probably slightly below your average Residence Inn, but they seem to be taking care of that. When I am headed back to Houston for my annual business trip next year I'll really look forward to our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>RIWestchase, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded August 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for nearly 3 weeks for work and found the staff to be very friendly and helpful - Anna at the front desk in particular. Some were not as skilled / experienced, but everyone was very friendly and willing to assist. The rooms are a bit dated and there were signs everywhere announcing the renovation, but I would would say it's perfectly fine even without the renovation.The property has a nice pool area with lots of chairs, big BBQ's for guests to use and outdoor seating that we used a few times. They have breakfast (the typical stuff) and a beer/wine/light dinner reception a few days a week. The food isn't fantastic, but if you're busy working it's very convenient to just grab a snack and a glass of wine. I really loved having a grocery store literally right next door. It's wonderful to be able to grab something and is one of the major benefits of this hotel.There is a free shuttle within a couple mile radius, but we found it hard to use / difficult to schedule. It is Houston afterall so you really need a car to get anywhere.The rooms are probably slightly below your average Residence Inn, but they seem to be taking care of that. When I am headed back to Houston for my annual business trip next year I'll really look forward to our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r130878999-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130878999</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>Marriott should be embarrassed</t>
+  </si>
+  <si>
+    <t>In fairness, I should begin by noting that there IS, in fact, a sign on the check-in desk promising that the entire property will be renovated over the next few months...that does not, however, excuse poor housekeeping in one of the most dismal and depressing hotels I've stayed in for some time! Even the poor lizard decomposing on the back of our sofa had apparently given up the will to live after a night there...seriously...and that was AFTER the room had been "serviced" for our arrival.Drawers, tables and kitchen area were stained and chipped. The bath was ridiculously slippy - to the point that my husband was ready to go ask them for a mat to place into it, if I hadn't insisted that we simply leave.We have stayed here before, and the staff are always pleasant...but there's only so much they can do in the face of such miserable surroundings. We had booked for a week - but could only stand three days. With other brand new hotels - cheaper - in the same area, Marriott cannot refurbish this place any too soon. Right now, it doesn't deserve the name, and is an embarrassment to the brand.The renovation of the pool does suggest that the hotel could be good again in the near future - just wait until the work is done before you book!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>RIWestchase, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded June 4, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2012</t>
+  </si>
+  <si>
+    <t>In fairness, I should begin by noting that there IS, in fact, a sign on the check-in desk promising that the entire property will be renovated over the next few months...that does not, however, excuse poor housekeeping in one of the most dismal and depressing hotels I've stayed in for some time! Even the poor lizard decomposing on the back of our sofa had apparently given up the will to live after a night there...seriously...and that was AFTER the room had been "serviced" for our arrival.Drawers, tables and kitchen area were stained and chipped. The bath was ridiculously slippy - to the point that my husband was ready to go ask them for a mat to place into it, if I hadn't insisted that we simply leave.We have stayed here before, and the staff are always pleasant...but there's only so much they can do in the face of such miserable surroundings. We had booked for a week - but could only stand three days. With other brand new hotels - cheaper - in the same area, Marriott cannot refurbish this place any too soon. Right now, it doesn't deserve the name, and is an embarrassment to the brand.The renovation of the pool does suggest that the hotel could be good again in the near future - just wait until the work is done before you book!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r129986787-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129986787</t>
+  </si>
+  <si>
+    <t>05/15/2012</t>
+  </si>
+  <si>
+    <t>Felt like a resort</t>
+  </si>
+  <si>
+    <t>Great service. The house cleaners were very attentive. The front desk was always there to address any problem. The swimming pool was relaxing and therapeutic. We had a great stay and look forward to our return.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great service. The house cleaners were very attentive. The front desk was always there to address any problem. The swimming pool was relaxing and therapeutic. We had a great stay and look forward to our return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r104966937-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>104966937</t>
+  </si>
+  <si>
+    <t>04/21/2011</t>
+  </si>
+  <si>
+    <t>A good base station.</t>
+  </si>
+  <si>
+    <t>Good sized clean room. Somewhat tired equipment. Great breakfast. Good location. Friendly staff. Handy Supermarket next door. DIY Laundry. Very efficient Chambermaids. Shame about the quality of American TV, but you can't have everything !! Slamming doors and wooden floors a bit of a distraction.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r47434308-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>47434308</t>
+  </si>
+  <si>
+    <t>10/21/2009</t>
+  </si>
+  <si>
+    <t>Excellent service located accessible to Houston's attractions.</t>
+  </si>
+  <si>
+    <t>Typical Residence Inn located about 4 miles west of Galleria shopping, 610, etc. Also only a mile or so from Sam Houston tollway.Clean, spacious with a  good breakfast makes it a fine choice. Staff was friendly, and although I can't remember his name, the Chief Engineer was very friendly and even drove the shuttle once to get me down Westheimer. Yes, there is a shuttle, even though I don't think the Marriott website states it.Rate was great, and an easy 3 minute walk to a H-E-B store.Would stay again without hesitation.</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r22079548-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>22079548</t>
+  </si>
+  <si>
+    <t>11/22/2008</t>
+  </si>
+  <si>
+    <t>Not the best!</t>
+  </si>
+  <si>
+    <t>I stay at this hotel often when traveling to Houston only because of convenience.   It is not one of the better RI's, hotel needs updates.   The heating and cooling rarely works properly in the rooms, and the room itself is not the cleanest.  The plus to this hotel is the kitchen and the grocery store (Kroger) right next door.  If price is not so much of a concern, I would recommend the Hilton right up the road or the Marriott around the corner.   If looking for another extended stay hotel there is a Homewood Suites down the road however it is tough to get in there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r12772530-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>12772530</t>
+  </si>
+  <si>
+    <t>01/18/2008</t>
+  </si>
+  <si>
+    <t>Do NOT stay at this place</t>
+  </si>
+  <si>
+    <t>Nasty hotel.  Roaches all over the place and the place smelled like filth!! Please do not ever stay there if you need a decent place away from home.  Even after complaining to the front desk about Roach problems, they did not do anything.My husband and I had to move out of this hotel and BTW I am a platinum elite member for Marriott hotels and they did nothing!!</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r4349637-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4349637</t>
+  </si>
+  <si>
+    <t>01/12/2006</t>
+  </si>
+  <si>
+    <t>Great Stay Aug 05-Dec05</t>
+  </si>
+  <si>
+    <t>I recently completed a long stay at the Residence Inn Westchase.  I was there for about fifteen weeks, departing around December 1st.  I had a very good experience, and would strongly recommend it.  The front desk staff is very good, and I found them very helpful.  I would note in particular that during my stay they dealt with both being swamped by Hurricane Katrina evacuees and the evacuation of Houston for Hurricane Rita.  I saw no drop in service during this time.  It's convenient to both the Galleria shopping center and the 8 Loop (the outer beltway around Houston).  There's a grocery store next door (literally) and it is within walking distance to a number of restaurants and a Borders.  The neighborhood is generally safe, though it's within a mile or two of somewhat rougher territory, so use judgement at night.  There is on site security at night.  All in all, I was very pleased.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2005</t>
+  </si>
+  <si>
+    <t>I recently completed a long stay at the Residence Inn Westchase.  I was there for about fifteen weeks, departing around December 1st.  I had a very good experience, and would strongly recommend it.  The front desk staff is very good, and I found them very helpful.  I would note in particular that during my stay they dealt with both being swamped by Hurricane Katrina evacuees and the evacuation of Houston for Hurricane Rita.  I saw no drop in service during this time.  It's convenient to both the Galleria shopping center and the 8 Loop (the outer beltway around Houston).  There's a grocery store next door (literally) and it is within walking distance to a number of restaurants and a Borders.  The neighborhood is generally safe, though it's within a mile or two of somewhat rougher territory, so use judgement at night.  There is on site security at night.  All in all, I was very pleased.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r3017102-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3017102</t>
+  </si>
+  <si>
+    <t>01/18/2005</t>
+  </si>
+  <si>
+    <t>Piped music</t>
+  </si>
+  <si>
+    <t>I stay here on a regular basis and it is a good Residence Inn.  I really like that it is right next to a good supermarket which is open 24 hours so you can walk over an buy what you need when you need it.  The hotel is just off Westheimer which can be a little noisy but apart from that this is a quiet area.The only thing that bugged me was the piped music, especially around the pool.  All I wanted to do was swim and lie in the sun an relax but the piped music around the pool and playing area was bugging me.  Just turn it off.  I mentioned it to the staff and their response was "we are not aware of any piped music"I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay here on a regular basis and it is a good Residence Inn.  I really like that it is right next to a good supermarket which is open 24 hours so you can walk over an buy what you need when you need it.  The hotel is just off Westheimer which can be a little noisy but apart from that this is a quiet area.The only thing that bugged me was the piped music, especially around the pool.  All I wanted to do was swim and lie in the sun an relax but the piped music around the pool and playing area was bugging me.  Just turn it off.  I mentioned it to the staff and their response was "we are not aware of any piped music"I would stay here again.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2156,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2188,4495 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>142</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>143</v>
+      </c>
+      <c r="X13" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>152</v>
+      </c>
+      <c r="X14" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>160</v>
+      </c>
+      <c r="X15" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>168</v>
+      </c>
+      <c r="X16" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" t="s">
+        <v>175</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>176</v>
+      </c>
+      <c r="O17" t="s">
+        <v>177</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>178</v>
+      </c>
+      <c r="X17" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>176</v>
+      </c>
+      <c r="O18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>186</v>
+      </c>
+      <c r="X18" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s">
+        <v>193</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>194</v>
+      </c>
+      <c r="X19" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" t="s">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s">
+        <v>201</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>151</v>
+      </c>
+      <c r="O20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>202</v>
+      </c>
+      <c r="X20" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" t="s">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s">
+        <v>209</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>210</v>
+      </c>
+      <c r="X21" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" t="s">
+        <v>217</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>218</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>219</v>
+      </c>
+      <c r="X22" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s">
+        <v>226</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>227</v>
+      </c>
+      <c r="O23" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>228</v>
+      </c>
+      <c r="X23" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>232</v>
+      </c>
+      <c r="J24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K24" t="s">
+        <v>234</v>
+      </c>
+      <c r="L24" t="s">
+        <v>235</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>236</v>
+      </c>
+      <c r="O24" t="s">
+        <v>69</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>237</v>
+      </c>
+      <c r="X24" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>241</v>
+      </c>
+      <c r="J25" t="s">
+        <v>242</v>
+      </c>
+      <c r="K25" t="s">
+        <v>243</v>
+      </c>
+      <c r="L25" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>245</v>
+      </c>
+      <c r="O25" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>246</v>
+      </c>
+      <c r="X25" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>250</v>
+      </c>
+      <c r="J26" t="s">
+        <v>251</v>
+      </c>
+      <c r="K26" t="s">
+        <v>252</v>
+      </c>
+      <c r="L26" t="s">
+        <v>253</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>254</v>
+      </c>
+      <c r="X26" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>257</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>258</v>
+      </c>
+      <c r="J27" t="s">
+        <v>259</v>
+      </c>
+      <c r="K27" t="s">
+        <v>260</v>
+      </c>
+      <c r="L27" t="s">
+        <v>261</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>236</v>
+      </c>
+      <c r="O27" t="s">
+        <v>262</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>254</v>
+      </c>
+      <c r="X27" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>264</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>265</v>
+      </c>
+      <c r="J28" t="s">
+        <v>266</v>
+      </c>
+      <c r="K28" t="s">
+        <v>267</v>
+      </c>
+      <c r="L28" t="s">
+        <v>268</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>269</v>
+      </c>
+      <c r="O28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>270</v>
+      </c>
+      <c r="X28" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>273</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>274</v>
+      </c>
+      <c r="J29" t="s">
+        <v>275</v>
+      </c>
+      <c r="K29" t="s">
+        <v>276</v>
+      </c>
+      <c r="L29" t="s">
+        <v>277</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>278</v>
+      </c>
+      <c r="O29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>279</v>
+      </c>
+      <c r="X29" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>282</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>283</v>
+      </c>
+      <c r="J30" t="s">
+        <v>284</v>
+      </c>
+      <c r="K30" t="s">
+        <v>285</v>
+      </c>
+      <c r="L30" t="s">
+        <v>286</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>287</v>
+      </c>
+      <c r="O30" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>279</v>
+      </c>
+      <c r="X30" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>289</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>290</v>
+      </c>
+      <c r="J31" t="s">
+        <v>284</v>
+      </c>
+      <c r="K31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s">
+        <v>292</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>287</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>279</v>
+      </c>
+      <c r="X31" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>295</v>
+      </c>
+      <c r="J32" t="s">
+        <v>296</v>
+      </c>
+      <c r="K32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L32" t="s">
+        <v>298</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>227</v>
+      </c>
+      <c r="O32" t="s">
+        <v>177</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>279</v>
+      </c>
+      <c r="X32" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>300</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>301</v>
+      </c>
+      <c r="J33" t="s">
+        <v>302</v>
+      </c>
+      <c r="K33" t="s">
+        <v>303</v>
+      </c>
+      <c r="L33" t="s">
+        <v>304</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>227</v>
+      </c>
+      <c r="O33" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>305</v>
+      </c>
+      <c r="X33" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>308</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>309</v>
+      </c>
+      <c r="J34" t="s">
+        <v>310</v>
+      </c>
+      <c r="K34" t="s">
+        <v>311</v>
+      </c>
+      <c r="L34" t="s">
+        <v>312</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>227</v>
+      </c>
+      <c r="O34" t="s">
+        <v>69</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>313</v>
+      </c>
+      <c r="X34" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>316</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>317</v>
+      </c>
+      <c r="J35" t="s">
+        <v>318</v>
+      </c>
+      <c r="K35" t="s">
+        <v>319</v>
+      </c>
+      <c r="L35" t="s">
+        <v>320</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>321</v>
+      </c>
+      <c r="O35" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>322</v>
+      </c>
+      <c r="X35" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>325</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>326</v>
+      </c>
+      <c r="J36" t="s">
+        <v>327</v>
+      </c>
+      <c r="K36" t="s">
+        <v>328</v>
+      </c>
+      <c r="L36" t="s">
+        <v>329</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>278</v>
+      </c>
+      <c r="O36" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>330</v>
+      </c>
+      <c r="X36" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>333</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>334</v>
+      </c>
+      <c r="J37" t="s">
+        <v>335</v>
+      </c>
+      <c r="K37" t="s">
+        <v>336</v>
+      </c>
+      <c r="L37" t="s">
+        <v>337</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>278</v>
+      </c>
+      <c r="O37" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>338</v>
+      </c>
+      <c r="X37" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>341</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>342</v>
+      </c>
+      <c r="J38" t="s">
+        <v>343</v>
+      </c>
+      <c r="K38" t="s">
+        <v>344</v>
+      </c>
+      <c r="L38" t="s">
+        <v>345</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>245</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>346</v>
+      </c>
+      <c r="X38" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>349</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>350</v>
+      </c>
+      <c r="J39" t="s">
+        <v>351</v>
+      </c>
+      <c r="K39" t="s">
+        <v>352</v>
+      </c>
+      <c r="L39" t="s">
+        <v>353</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>245</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>346</v>
+      </c>
+      <c r="X39" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>355</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>356</v>
+      </c>
+      <c r="J40" t="s">
+        <v>357</v>
+      </c>
+      <c r="K40" t="s">
+        <v>358</v>
+      </c>
+      <c r="L40" t="s">
+        <v>359</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>245</v>
+      </c>
+      <c r="O40" t="s">
+        <v>69</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>346</v>
+      </c>
+      <c r="X40" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>361</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>362</v>
+      </c>
+      <c r="J41" t="s">
+        <v>363</v>
+      </c>
+      <c r="K41" t="s">
+        <v>364</v>
+      </c>
+      <c r="L41" t="s">
+        <v>365</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>366</v>
+      </c>
+      <c r="O41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>367</v>
+      </c>
+      <c r="X41" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>370</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>371</v>
+      </c>
+      <c r="J42" t="s">
+        <v>372</v>
+      </c>
+      <c r="K42" t="s">
+        <v>373</v>
+      </c>
+      <c r="L42" t="s">
+        <v>374</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>366</v>
+      </c>
+      <c r="O42" t="s">
+        <v>69</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>375</v>
+      </c>
+      <c r="X42" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>378</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>379</v>
+      </c>
+      <c r="J43" t="s">
+        <v>380</v>
+      </c>
+      <c r="K43" t="s">
+        <v>381</v>
+      </c>
+      <c r="L43" t="s">
+        <v>382</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>366</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>383</v>
+      </c>
+      <c r="X43" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>386</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>387</v>
+      </c>
+      <c r="J44" t="s">
+        <v>388</v>
+      </c>
+      <c r="K44" t="s">
+        <v>389</v>
+      </c>
+      <c r="L44" t="s">
+        <v>390</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>366</v>
+      </c>
+      <c r="O44" t="s">
+        <v>69</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>391</v>
+      </c>
+      <c r="X44" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>394</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>395</v>
+      </c>
+      <c r="J45" t="s">
+        <v>388</v>
+      </c>
+      <c r="K45" t="s">
+        <v>396</v>
+      </c>
+      <c r="L45" t="s">
+        <v>397</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>366</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>391</v>
+      </c>
+      <c r="X45" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>399</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>400</v>
+      </c>
+      <c r="J46" t="s">
+        <v>401</v>
+      </c>
+      <c r="K46" t="s">
+        <v>402</v>
+      </c>
+      <c r="L46" t="s">
+        <v>403</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>404</v>
+      </c>
+      <c r="O46" t="s">
+        <v>69</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>405</v>
+      </c>
+      <c r="X46" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>408</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>409</v>
+      </c>
+      <c r="J47" t="s">
+        <v>410</v>
+      </c>
+      <c r="K47" t="s">
+        <v>411</v>
+      </c>
+      <c r="L47" t="s">
+        <v>412</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>404</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>405</v>
+      </c>
+      <c r="X47" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>414</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>415</v>
+      </c>
+      <c r="J48" t="s">
+        <v>416</v>
+      </c>
+      <c r="K48" t="s">
+        <v>417</v>
+      </c>
+      <c r="L48" t="s">
+        <v>418</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>404</v>
+      </c>
+      <c r="O48" t="s">
+        <v>177</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>419</v>
+      </c>
+      <c r="X48" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>422</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>423</v>
+      </c>
+      <c r="J49" t="s">
+        <v>424</v>
+      </c>
+      <c r="K49" t="s">
+        <v>425</v>
+      </c>
+      <c r="L49" t="s">
+        <v>426</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>404</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>427</v>
+      </c>
+      <c r="X49" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>430</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>431</v>
+      </c>
+      <c r="J50" t="s">
+        <v>432</v>
+      </c>
+      <c r="K50" t="s">
+        <v>433</v>
+      </c>
+      <c r="L50" t="s">
+        <v>434</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>435</v>
+      </c>
+      <c r="O50" t="s">
+        <v>69</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>436</v>
+      </c>
+      <c r="X50" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>439</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>440</v>
+      </c>
+      <c r="J51" t="s">
+        <v>441</v>
+      </c>
+      <c r="K51" t="s">
+        <v>442</v>
+      </c>
+      <c r="L51" t="s">
+        <v>443</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>435</v>
+      </c>
+      <c r="O51" t="s">
+        <v>69</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>444</v>
+      </c>
+      <c r="X51" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>447</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>448</v>
+      </c>
+      <c r="J52" t="s">
+        <v>441</v>
+      </c>
+      <c r="K52" t="s">
+        <v>449</v>
+      </c>
+      <c r="L52" t="s">
+        <v>450</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>451</v>
+      </c>
+      <c r="O52" t="s">
+        <v>69</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>452</v>
+      </c>
+      <c r="X52" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>455</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>456</v>
+      </c>
+      <c r="J53" t="s">
+        <v>457</v>
+      </c>
+      <c r="K53" t="s">
+        <v>458</v>
+      </c>
+      <c r="L53" t="s">
+        <v>459</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>460</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>461</v>
+      </c>
+      <c r="X53" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>464</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>465</v>
+      </c>
+      <c r="J54" t="s">
+        <v>466</v>
+      </c>
+      <c r="K54" t="s">
+        <v>467</v>
+      </c>
+      <c r="L54" t="s">
+        <v>468</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>469</v>
+      </c>
+      <c r="O54" t="s">
+        <v>69</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>470</v>
+      </c>
+      <c r="X54" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>473</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>474</v>
+      </c>
+      <c r="J55" t="s">
+        <v>475</v>
+      </c>
+      <c r="K55" t="s">
+        <v>476</v>
+      </c>
+      <c r="L55" t="s">
+        <v>477</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>469</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>478</v>
+      </c>
+      <c r="X55" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>481</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>482</v>
+      </c>
+      <c r="J56" t="s">
+        <v>483</v>
+      </c>
+      <c r="K56" t="s">
+        <v>484</v>
+      </c>
+      <c r="L56" t="s">
+        <v>485</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>486</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>488</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>489</v>
+      </c>
+      <c r="J57" t="s">
+        <v>490</v>
+      </c>
+      <c r="K57" t="s">
+        <v>491</v>
+      </c>
+      <c r="L57" t="s">
+        <v>492</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>493</v>
+      </c>
+      <c r="O57" t="s">
+        <v>69</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>495</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>496</v>
+      </c>
+      <c r="J58" t="s">
+        <v>497</v>
+      </c>
+      <c r="K58" t="s">
+        <v>498</v>
+      </c>
+      <c r="L58" t="s">
+        <v>499</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>500</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>501</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>502</v>
+      </c>
+      <c r="J59" t="s">
+        <v>503</v>
+      </c>
+      <c r="K59" t="s">
+        <v>504</v>
+      </c>
+      <c r="L59" t="s">
+        <v>505</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>506</v>
+      </c>
+      <c r="O59" t="s">
+        <v>69</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>507</v>
+      </c>
+      <c r="X59" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>510</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>511</v>
+      </c>
+      <c r="J60" t="s">
+        <v>512</v>
+      </c>
+      <c r="K60" t="s">
+        <v>513</v>
+      </c>
+      <c r="L60" t="s">
+        <v>514</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>515</v>
+      </c>
+      <c r="O60" t="s">
+        <v>69</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>516</v>
+      </c>
+      <c r="X60" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>519</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>520</v>
+      </c>
+      <c r="J61" t="s">
+        <v>521</v>
+      </c>
+      <c r="K61" t="s">
+        <v>522</v>
+      </c>
+      <c r="L61" t="s">
+        <v>523</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>524</v>
+      </c>
+      <c r="O61" t="s">
+        <v>69</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>525</v>
+      </c>
+      <c r="X61" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>528</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>529</v>
+      </c>
+      <c r="J62" t="s">
+        <v>530</v>
+      </c>
+      <c r="K62" t="s">
+        <v>531</v>
+      </c>
+      <c r="L62" t="s">
+        <v>532</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>533</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>534</v>
+      </c>
+      <c r="X62" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>537</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>538</v>
+      </c>
+      <c r="J63" t="s">
+        <v>539</v>
+      </c>
+      <c r="K63" t="s">
+        <v>540</v>
+      </c>
+      <c r="L63" t="s">
+        <v>541</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>533</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>534</v>
+      </c>
+      <c r="X63" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>543</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>544</v>
+      </c>
+      <c r="J64" t="s">
+        <v>545</v>
+      </c>
+      <c r="K64" t="s">
+        <v>546</v>
+      </c>
+      <c r="L64" t="s">
+        <v>547</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>548</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>549</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>550</v>
+      </c>
+      <c r="J65" t="s">
+        <v>551</v>
+      </c>
+      <c r="K65" t="s">
+        <v>552</v>
+      </c>
+      <c r="L65" t="s">
+        <v>553</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>554</v>
+      </c>
+      <c r="O65" t="s">
+        <v>262</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>555</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>556</v>
+      </c>
+      <c r="J66" t="s">
+        <v>557</v>
+      </c>
+      <c r="K66" t="s">
+        <v>558</v>
+      </c>
+      <c r="L66" t="s">
+        <v>559</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>560</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>561</v>
+      </c>
+      <c r="J67" t="s">
+        <v>562</v>
+      </c>
+      <c r="K67" t="s">
+        <v>563</v>
+      </c>
+      <c r="L67" t="s">
+        <v>564</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>565</v>
+      </c>
+      <c r="O67" t="s">
+        <v>69</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>566</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>567</v>
+      </c>
+      <c r="J68" t="s">
+        <v>568</v>
+      </c>
+      <c r="K68" t="s">
+        <v>569</v>
+      </c>
+      <c r="L68" t="s">
+        <v>570</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>571</v>
+      </c>
+      <c r="O68" t="s">
+        <v>69</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>573</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>574</v>
+      </c>
+      <c r="J69" t="s">
+        <v>575</v>
+      </c>
+      <c r="K69" t="s">
+        <v>576</v>
+      </c>
+      <c r="L69" t="s">
+        <v>577</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_555.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_555.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="926">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,16 +150,76 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r602343290-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107867</t>
+  </si>
+  <si>
+    <t>602343290</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>Rude Comments from Front Office Manager</t>
+  </si>
+  <si>
+    <t>I checked in on Monday 30 July for three nights.  I was upgraded to a 1 bedroom suite because of my Marriott Status which was unexpected and nice and the desk staff seemed very nice.  I got to the room and the curtains would not close all the way, ice maker would not work, the bathroom sink stopper was permanently closed so you had to leave it out, and the overflow drain cover on the tub was missing.  These were all fixed the next day.  Everything seemed to go well until the last night.  A very noisy family moved in nextdoor so I checked about getting a room change.  I believe she is the front office supervisor or manager, she is the one who does the shopping for the evening social events.  She made the word for word comment, "You sure seem to have a lot of problems staying with us."  This comment should NEVER HAVE BEEN MADE TO A GUEST.  She made me feel like everything was my fault so I told her don't bother with the room change.  I will deal with it since it is my last night, and besides it is so late in the day you would never get my current room cleaned up to sell that night.  This comment alone was why they lost so many stars.  Had she shows some empathy and actually apologized for the noise situation, they would have gotten 5...I checked in on Monday 30 July for three nights.  I was upgraded to a 1 bedroom suite because of my Marriott Status which was unexpected and nice and the desk staff seemed very nice.  I got to the room and the curtains would not close all the way, ice maker would not work, the bathroom sink stopper was permanently closed so you had to leave it out, and the overflow drain cover on the tub was missing.  These were all fixed the next day.  Everything seemed to go well until the last night.  A very noisy family moved in nextdoor so I checked about getting a room change.  I believe she is the front office supervisor or manager, she is the one who does the shopping for the evening social events.  She made the word for word comment, "You sure seem to have a lot of problems staying with us."  This comment should NEVER HAVE BEEN MADE TO A GUEST.  She made me feel like everything was my fault so I told her don't bother with the room change.  I will deal with it since it is my last night, and besides it is so late in the day you would never get my current room cleaned up to sell that night.  This comment alone was why they lost so many stars.  Had she shows some empathy and actually apologized for the noise situation, they would have gotten 5 stars out of me.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Heather G, Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded August 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2018</t>
+  </si>
+  <si>
+    <t>I checked in on Monday 30 July for three nights.  I was upgraded to a 1 bedroom suite because of my Marriott Status which was unexpected and nice and the desk staff seemed very nice.  I got to the room and the curtains would not close all the way, ice maker would not work, the bathroom sink stopper was permanently closed so you had to leave it out, and the overflow drain cover on the tub was missing.  These were all fixed the next day.  Everything seemed to go well until the last night.  A very noisy family moved in nextdoor so I checked about getting a room change.  I believe she is the front office supervisor or manager, she is the one who does the shopping for the evening social events.  She made the word for word comment, "You sure seem to have a lot of problems staying with us."  This comment should NEVER HAVE BEEN MADE TO A GUEST.  She made me feel like everything was my fault so I told her don't bother with the room change.  I will deal with it since it is my last night, and besides it is so late in the day you would never get my current room cleaned up to sell that night.  This comment alone was why they lost so many stars.  Had she shows some empathy and actually apologized for the noise situation, they would have gotten 5...I checked in on Monday 30 July for three nights.  I was upgraded to a 1 bedroom suite because of my Marriott Status which was unexpected and nice and the desk staff seemed very nice.  I got to the room and the curtains would not close all the way, ice maker would not work, the bathroom sink stopper was permanently closed so you had to leave it out, and the overflow drain cover on the tub was missing.  These were all fixed the next day.  Everything seemed to go well until the last night.  A very noisy family moved in nextdoor so I checked about getting a room change.  I believe she is the front office supervisor or manager, she is the one who does the shopping for the evening social events.  She made the word for word comment, "You sure seem to have a lot of problems staying with us."  This comment should NEVER HAVE BEEN MADE TO A GUEST.  She made me feel like everything was my fault so I told her don't bother with the room change.  I will deal with it since it is my last night, and besides it is so late in the day you would never get my current room cleaned up to sell that night.  This comment alone was why they lost so many stars.  Had she shows some empathy and actually apologized for the noise situation, they would have gotten 5 stars out of me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r573672239-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573672239</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Decent hotel</t>
+  </si>
+  <si>
+    <t>This is a very clean hotel, the staff was so nice, and it’s in a great area. But here are the reasons I gave them 3 “stars”.1. The breakfast was ok but the sausage was so dry. I went to breakfast about 2 hours in but those sausages tasted like they’d been there since the week before. It sucks because I love a good breakfast but I didn’t even bother going back the next day.2. I don’t mind children at all, I have 2 of my own. However, we were on the first floor &amp; the floors are so thin, you could hear children running &amp; stomping. So if you can, get a room on a higher floor.3. This one is the one that changed my vote from 4 to 3. The last day we were there, we used a few dishes. I go to load them in the dishwasher &amp; it’s FULL of water. No one warned us, there was no sign, I just opened it up &amp; found the surprise.I can’t say for sure whether or not I’d stay there again but I doubt it. Parking was free when we stayed but we checked out the day they were going to start charging $6 a day to park. It’s not a bad hotel, just a few glitches that make you second guess staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Heather G, Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded April 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2018</t>
+  </si>
+  <si>
+    <t>This is a very clean hotel, the staff was so nice, and it’s in a great area. But here are the reasons I gave them 3 “stars”.1. The breakfast was ok but the sausage was so dry. I went to breakfast about 2 hours in but those sausages tasted like they’d been there since the week before. It sucks because I love a good breakfast but I didn’t even bother going back the next day.2. I don’t mind children at all, I have 2 of my own. However, we were on the first floor &amp; the floors are so thin, you could hear children running &amp; stomping. So if you can, get a room on a higher floor.3. This one is the one that changed my vote from 4 to 3. The last day we were there, we used a few dishes. I go to load them in the dishwasher &amp; it’s FULL of water. No one warned us, there was no sign, I just opened it up &amp; found the surprise.I can’t say for sure whether or not I’d stay there again but I doubt it. Parking was free when we stayed but we checked out the day they were going to start charging $6 a day to park. It’s not a bad hotel, just a few glitches that make you second guess staying there again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r549203496-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
-  </si>
-  <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>107867</t>
   </si>
   <si>
     <t>549203496</t>
@@ -182,9 +242,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>We stayed in the Residence Inn Westchase for several weeks as beneficiaries of the FEMA response to Harvey flooding our home.  It was a good "port in the storm" for us.  On the whole, this hotel did an outstanding job under sometimes difficult circumstances.  All the staff with whom we interacted were great.
 We had a one-bedroom suite with kitchenette.  A door allows the bedroom to be closed off from the living room.  Two TVs.  The bedroom of this suite is large enough to have a king bed, but they have only queen beds in them.  The sofa can make into a bed (of sorts) so that two can have some privacy from each other, although the sofa-bed is very uncomfortable.
 The kitchenette has a range, microwave, fridge and dishwasher.  They provide dishes, pots and utensils.  Housekeeping did a good job on the days we let them in.
@@ -247,6 +304,60 @@
     <t>Guess I'll start with the cockroaches that like to scurry the floor and ceiling at night as you sleep. The facilities are old and nothing works. Toilet requires several flushes before it flushes. Door between living room and bedroom won't close. I've had to call the front desk multiple times just to have the cleaning service clean the kitchen. Everything is "under construction" also.  I always have good experiences at residence inns, but this particular location is way sub-par. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r506302848-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506302848</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Nice for family vacations. Ask about maintenance issues before accepting room.</t>
+  </si>
+  <si>
+    <t>Overall, this is a great hotel if you're staying more than a few days. Nice clean rooms. Most of the staff was friendly and helpful. Unfortunately, I have to give a rating of Average because I was placed in a room where the bathtub faucet would not turn off. A steady stream of water for 4 days. There was a water ring at the drain indicating this was not a new issue. Front desk did offer to move me, but I had already unpacked. My rating is not about the water. There were other similar rooms available when I checked in, yet I was assigned the room furthest from the lobby, on the top floor - with a blatantly obvious maintenance issue. Very unfortunate.  Lesson learned: Ask about maintenance issues when they assign you your room.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Overall, this is a great hotel if you're staying more than a few days. Nice clean rooms. Most of the staff was friendly and helpful. Unfortunately, I have to give a rating of Average because I was placed in a room where the bathtub faucet would not turn off. A steady stream of water for 4 days. There was a water ring at the drain indicating this was not a new issue. Front desk did offer to move me, but I had already unpacked. My rating is not about the water. There were other similar rooms available when I checked in, yet I was assigned the room furthest from the lobby, on the top floor - with a blatantly obvious maintenance issue. Very unfortunate.  Lesson learned: Ask about maintenance issues when they assign you your room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r499015611-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499015611</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Vacation </t>
+  </si>
+  <si>
+    <t>WOW. Our family vacation was amazing. The food, suites, activities, amenities, etc. However, Mr. Horha from the front desk was Amazing. He assisted with our luggage, ensured we was comfortable, etc. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2017</t>
+  </si>
+  <si>
+    <t>WOW. Our family vacation was amazing. The food, suites, activities, amenities, etc. However, Mr. Horha from the front desk was Amazing. He assisted with our luggage, ensured we was comfortable, etc. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r491826940-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -313,6 +424,51 @@
     <t>First the bad. I've stayed in better.  Exposed wire on wall. Toilet seat had a noticeable tilt to one side. Pool was empty.  Construction in some rooms. Gate to parking lot not working. Faucet in bathroom was loose.  Generally it has maintenance issues. Now the good. Room was clean and quiet More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r482763623-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482763623</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>I was in Houston for almost 2 weeks on Business. This hotel met my every need. The rooms were spacious and clean. Kitchen area was a Must have for me. Love the 2 minute walk to the Kroger Grocery store! Had a BBQ with some co workers and the staff was awesome in helping me prepare. Love the layout of the property and the Happy Hour treats that they provide! My only comment/request to management is that it would be nice to have a small bench outside each exit by the ashtrays so we can sit comfortably while obeying the no smoking policy. I plan on coming back in 2 weeks and requested to my management to book me again at this hotel. I truly feel that this hotel meets all the standards of a "home away from home".MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded May 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2017</t>
+  </si>
+  <si>
+    <t>I was in Houston for almost 2 weeks on Business. This hotel met my every need. The rooms were spacious and clean. Kitchen area was a Must have for me. Love the 2 minute walk to the Kroger Grocery store! Had a BBQ with some co workers and the staff was awesome in helping me prepare. Love the layout of the property and the Happy Hour treats that they provide! My only comment/request to management is that it would be nice to have a small bench outside each exit by the ashtrays so we can sit comfortably while obeying the no smoking policy. I plan on coming back in 2 weeks and requested to my management to book me again at this hotel. I truly feel that this hotel meets all the standards of a "home away from home".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r480567056-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480567056</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Stayed here two nights (after a break of several years where I was frequently staying here when in Houston). The place is in progress of being upgraded throughout. The rooms / suites is very nice and modern. Bathroom small but functional. Air condition in the room very noisy and disturbing (have experienced much better effect and silent modes in most other hotels and suites around in US). Breakfast good. Swimming pool area very relaxing place. Service level good from everyone we meet. All in all a very good facility and location nice Houston west.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here two nights (after a break of several years where I was frequently staying here when in Houston). The place is in progress of being upgraded throughout. The rooms / suites is very nice and modern. Bathroom small but functional. Air condition in the room very noisy and disturbing (have experienced much better effect and silent modes in most other hotels and suites around in US). Breakfast good. Swimming pool area very relaxing place. Service level good from everyone we meet. All in all a very good facility and location nice Houston west.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r477718424-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -355,9 +511,6 @@
     <t>I'm pleased with the great service, and spacious, clean and comfortable room suite with A complete kitchenette with new full fridge, oven, dishwasher and sink, and sofa bed along with the spacious bathroom with new soft towels and bedroom. The AC is good and quiet. It makes you feel at home.  The parking lot is spacious. It's an enjoyable stay as from the location, It's convenient to go to downtown or NASA or other places for sight seeing  easily though it's a 20 - 30 minutes from the airport with a no toll back road. The great service from the front desk, breakfast and housekeeping is greatly appreciated.MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>I'm pleased with the great service, and spacious, clean and comfortable room suite with A complete kitchenette with new full fridge, oven, dishwasher and sink, and sofa bed along with the spacious bathroom with new soft towels and bedroom. The AC is good and quiet. It makes you feel at home.  The parking lot is spacious. It's an enjoyable stay as from the location, It's convenient to go to downtown or NASA or other places for sight seeing  easily though it's a 20 - 30 minutes from the airport with a no toll back road. The great service from the front desk, breakfast and housekeeping is greatly appreciated.More</t>
   </si>
   <si>
@@ -388,6 +541,60 @@
     <t>not in a great area BUT had no issues and the employees did a nice job. Clean room , good breakfast and good extras ...nice superbowl party ! Had maintenance fix a few small issues and housekeeping was good as well. Usually stay at 5 star properties but This did the trick. would go back again....only wish they had a safe.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r453698924-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>453698924</t>
+  </si>
+  <si>
+    <t>01/20/2017</t>
+  </si>
+  <si>
+    <t>Good nights sleep and breakfast</t>
+  </si>
+  <si>
+    <t>Up to standards for Residence Inns, much like the many others we have stayed.  Staff was helpful.  Breakfast was good.  Recommended.  Our suite had the amenities and a comfortable bed.  You will get a good nights rest.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Kyle M, Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded January 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2017</t>
+  </si>
+  <si>
+    <t>Up to standards for Residence Inns, much like the many others we have stayed.  Staff was helpful.  Breakfast was good.  Recommended.  Our suite had the amenities and a comfortable bed.  You will get a good nights rest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r453425233-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>453425233</t>
+  </si>
+  <si>
+    <t>01/19/2017</t>
+  </si>
+  <si>
+    <t>Good Service , Good Rooms</t>
+  </si>
+  <si>
+    <t>I required a a nice place to Stay , near a Places to Eat  plus the alternative to Cook inn and also near a Shopping Mall, well this is it . This Hotel has a very good friendly staff that go the extra mile to help you. Nice  breakfast Included ( better than the average of similar hotels ) , It has a Kruger  Next to the Hotel where you can buy all type of food to cook , and some nice sushi to take away prepared by Japanese cooks. Rooms are very clean and the bathroom is nice a clean too. Galleria Mall is very near , Also Walmart and Memorial Hall ( it has a nice Cinema ).MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Kyle M, Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded January 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2017</t>
+  </si>
+  <si>
+    <t>I required a a nice place to Stay , near a Places to Eat  plus the alternative to Cook inn and also near a Shopping Mall, well this is it . This Hotel has a very good friendly staff that go the extra mile to help you. Nice  breakfast Included ( better than the average of similar hotels ) , It has a Kruger  Next to the Hotel where you can buy all type of food to cook , and some nice sushi to take away prepared by Japanese cooks. Rooms are very clean and the bathroom is nice a clean too. Galleria Mall is very near , Also Walmart and Memorial Hall ( it has a nice Cinema ).More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r450823899-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -403,9 +610,6 @@
     <t>Hi all, That's my first review ever maybe , and the reason why I am writing that because I have seen an amazing customer service here starting from Hotel manager (Kyle) , (Athena- front desk) ,(Megan-front desk manager) ,( Dontez- front desk) denize , roberta , and everybody .I am a frequent flyer and I go everywhere , I have stayed mostly in 5 and 4 stars hotels but I never seen such a great treatment like here, you feel like home and the management treat you like a family member.Thanks to everybody and you are the best so far , keep it upRegardsAzizMoreShow less</t>
   </si>
   <si>
-    <t>January 2017</t>
-  </si>
-  <si>
     <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded January 11, 2017</t>
   </si>
   <si>
@@ -454,9 +658,6 @@
     <t>Denise Jones booked my reservation. She was very nice and attentive. Everything was perfect. In fact she even had an awesome gift.  for me in the room. I would definitely book this hotel again. The whole staff was nice and the room was very spacious for the price.MoreShow less</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
     <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded January 2, 2017</t>
   </si>
   <si>
@@ -466,6 +667,48 @@
     <t>Denise Jones booked my reservation. She was very nice and attentive. Everything was perfect. In fact she even had an awesome gift.  for me in the room. I would definitely book this hotel again. The whole staff was nice and the room was very spacious for the price.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r447208811-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447208811</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>Home sweet home</t>
+  </si>
+  <si>
+    <t>I was here for about 6 weeks and it was absolutely great, specially the service/hospitality of the place, from the GM to the kitchen lady to the cleaning people etc. It has a great shuttle service within 3 miles radius, which is nice because Houston is the worse place for walking hahaha. Breakfast is nice, specially waffles!!! My favorite part was the grill area and 3 days a week they do dinner/snacks with beers and wine, great to get to know people, and chill. And the room is so spacious, kitchen inside has almost everything you need. I'm looking forward to visit Houston again and staying there. People def make you feel like a family, and  GM knows almost every client by their name. Thanks for everything Kyle!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded December 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2016</t>
+  </si>
+  <si>
+    <t>I was here for about 6 weeks and it was absolutely great, specially the service/hospitality of the place, from the GM to the kitchen lady to the cleaning people etc. It has a great shuttle service within 3 miles radius, which is nice because Houston is the worse place for walking hahaha. Breakfast is nice, specially waffles!!! My favorite part was the grill area and 3 days a week they do dinner/snacks with beers and wine, great to get to know people, and chill. And the room is so spacious, kitchen inside has almost everything you need. I'm looking forward to visit Houston again and staying there. People def make you feel like a family, and  GM knows almost every client by their name. Thanks for everything Kyle!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r447189646-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447189646</t>
+  </si>
+  <si>
+    <t>WORST Residence Inn I've ever stayed in</t>
+  </si>
+  <si>
+    <t>This was by far the worst Residence Inn I've ever stayed in. It could very well be a Quality Inn or something else, but not the Marriott quality hotel. Cleaning staff tries hard, but the place is old and so dirty, they need to really do something radical to change things around. Moldy smelling sinks, hallways/corridors are dirty, floor is sticky/dirty, SLOW dropping wifi, distorted picture on TV with few channels working. Kitchen and bathroom badly needs renovation. Definitely not worth the price. Cut our stay short and left for another location earlier than planned.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was by far the worst Residence Inn I've ever stayed in. It could very well be a Quality Inn or something else, but not the Marriott quality hotel. Cleaning staff tries hard, but the place is old and so dirty, they need to really do something radical to change things around. Moldy smelling sinks, hallways/corridors are dirty, floor is sticky/dirty, SLOW dropping wifi, distorted picture on TV with few channels working. Kitchen and bathroom badly needs renovation. Definitely not worth the price. Cut our stay short and left for another location earlier than planned.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r445034573-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -541,6 +784,54 @@
     <t>Big thumbs up to Kyle the manager, personalized service to every guest, makes you feel happy and like a million bucks.Rooms are suites, there are happy hours mon-wed (and Kyle might give you a beer on a Thursday if he feels like it). Breakfast buffet hits the spot and means you can fuel up quick before your busy day starts.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r441204111-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>441204111</t>
+  </si>
+  <si>
+    <t>11/30/2016</t>
+  </si>
+  <si>
+    <t>Fun and welcoming</t>
+  </si>
+  <si>
+    <t>I stayed here for 6 weeks and absolutely loved it. The staff are all so incredibly friendly and helpful, always going out of their way for guests. From week 1, Kyle (GM - very energetic and fun!) knew who everyone was and would always be chatting to guests.The free shuttle bus was an amazing service, super useful and always ended up being quite a fun ride too as everyone got chatting away. This was used for both commuting to work and going out on evenings/weekends when possible.The room was spacious and had everything I needed.Breakfast buffet had a good variety, even after 6 weeks I wasn't bored by the options. Freshly made waffles were a personal favourite!As many people have said, this really felt like a home away from home and I'm looking forward to coming back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for 6 weeks and absolutely loved it. The staff are all so incredibly friendly and helpful, always going out of their way for guests. From week 1, Kyle (GM - very energetic and fun!) knew who everyone was and would always be chatting to guests.The free shuttle bus was an amazing service, super useful and always ended up being quite a fun ride too as everyone got chatting away. This was used for both commuting to work and going out on evenings/weekends when possible.The room was spacious and had everything I needed.Breakfast buffet had a good variety, even after 6 weeks I wasn't bored by the options. Freshly made waffles were a personal favourite!As many people have said, this really felt like a home away from home and I'm looking forward to coming back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r440943171-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440943171</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Unbeatable fun!!!</t>
+  </si>
+  <si>
+    <t>I can say I had the best time away from home in October/November 2016; and guess why? Residence Inn of course! They really made my stay worthwhile. Trust me, the general manager is so awesome. He is extremely fun to be with, jokes with everyone and so friendly. Not just him, but all the staff there. Lovely people.I had such a soft bed and a lot of pillows to keep me company, large couch to relax on, awesome kitchen and what have you. When I was confused about some appliances in the room, the manager didn't hesitate to come and show me their correct use. He was always there to answer all types of questions. Speaking of our movement to and fro from work, and even down town; they always had our backs. I actually felt bad when it was time to leave.I will go again and again and again if I have the chance to. I encourage anyone in Houston to try it out and believe me, you will totally agree with me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>I can say I had the best time away from home in October/November 2016; and guess why? Residence Inn of course! They really made my stay worthwhile. Trust me, the general manager is so awesome. He is extremely fun to be with, jokes with everyone and so friendly. Not just him, but all the staff there. Lovely people.I had such a soft bed and a lot of pillows to keep me company, large couch to relax on, awesome kitchen and what have you. When I was confused about some appliances in the room, the manager didn't hesitate to come and show me their correct use. He was always there to answer all types of questions. Speaking of our movement to and fro from work, and even down town; they always had our backs. I actually felt bad when it was time to leave.I will go again and again and again if I have the chance to. I encourage anyone in Houston to try it out and believe me, you will totally agree with me.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r439642662-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -556,12 +847,6 @@
     <t>I stayed here for 6 weeks and it was almost a home for me. I had very comfortable room with kitchen area (no cockroaches, no smell). The room was too big for me but who am I to complain :) The daily housekeeping service was good and all the staff at the property was very helpful and friendly. Amazing service, amazing staff, Thanks Kyle and Raza!There is a nice pool and my favorite warm spa pool.Small gym - 2 treadmill, ellipsoid machine, a couple of bike gym machines and set of dumbbells, it is more than enough for me, but if it's not enough for you there is a huge gym nearby. About food: compliment breakfast is good, a few options, you can make your own breakfast (fruits, oatmeal, waffles, toasts, cereals, 4 different hot options). There is a couple restaurants areas nearby, walkable distance (you can ask for a shuttle as well :)). And 24 hours Kroger in 200m.MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded November 28, 2016</t>
   </si>
   <si>
@@ -619,6 +904,54 @@
     <t>I would like to recommend this Residence Inn to all of my friends visiting Houston.Kyle, the General Manager is awesome! He treated me and my husband like real family members, and offered us warm greetings every morning and valuable free rides to near attractions and restaurants in person probably every day during our stay. Additionally, we had quite a few meaningful/fun talks making me have a deeper understanding of the local culture of Houston, which was the essence of a trip. The month in Houston staying with Kyle will be my memorable life experience. Kyle, I wish you all the best in your bright future and please send my regards to your wife and cute kids.Raza (apologies if misspelled), the Front Desk Manager, is also amazing, and had given us quite a lot daily support during our stay. We also enjoyed having conversations with him.Ama, a cleaning lady, is friendly and helpful.   I wish you enjoy your life every day.  John, your kind smile and handsomeness will be remembered. The other beautiful ladies with the front desks, each of you is really the sunshine of Houston.Bryan, the AC engineer, thank you for "rescuing" me the other day by your charm.... this list could go on...In a word, come to this Residence Inn if you visit Houston!!!! You won't regret!!!Kind regards,LingMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r438189557-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438189557</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I came on a business visit.Found the stay very comfortable.The ambience is very peaceful.It gives feeling of being at home.The staff is very coordial.Would really recommend this hotel for your next stayMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded November 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2016</t>
+  </si>
+  <si>
+    <t>I came on a business visit.Found the stay very comfortable.The ambience is very peaceful.It gives feeling of being at home.The staff is very coordial.Would really recommend this hotel for your next stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r436979022-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436979022</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>Lovely hotel with amazing service!</t>
+  </si>
+  <si>
+    <t>I spent 6 weeks at the Residence Inn and it couldn't have been better, the staff at the front desk were always incredibly helpful and accommodating. Kyle the manager will go out of his way to help guests in any way possible.  The rooms are spacious and comfortable with all the necessities to make living in a hotel for an extended period really easy. The hotel breakfast is great, hot waffles every morning and fresh fruit too! The hotel provides a shuttle to anywhere within a 3 mile radius which is super helpful if you don't have a car as getting around Houston is impossible without. The pool and grill area is great for socialising as are the weekly mixers which involve lots of free food and beer! There is also a large Krogers supermarket literally next door and its open 6am - 1am which is really convenient. I can't rate this place highly enough!MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded November 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2016</t>
+  </si>
+  <si>
+    <t>I spent 6 weeks at the Residence Inn and it couldn't have been better, the staff at the front desk were always incredibly helpful and accommodating. Kyle the manager will go out of his way to help guests in any way possible.  The rooms are spacious and comfortable with all the necessities to make living in a hotel for an extended period really easy. The hotel breakfast is great, hot waffles every morning and fresh fruit too! The hotel provides a shuttle to anywhere within a 3 mile radius which is super helpful if you don't have a car as getting around Houston is impossible without. The pool and grill area is great for socialising as are the weekly mixers which involve lots of free food and beer! There is also a large Krogers supermarket literally next door and its open 6am - 1am which is really convenient. I can't rate this place highly enough!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r436603863-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -682,9 +1015,6 @@
     <t>Family stayed at the hotel for over a month.Really excellent service. The GM Kyle sets the tone for the place with his leadership and drive for top class service. There is a genuine family atmosphere created and he and his staff clearly wanted to make sure your stay was as good as it could be. I could not really fault the hotel , breakfasts were great , the Mon to Wed night time socials created an easy and relaxed atmosphere. Property is a little tired but kept clean and with a pool available. Location is good , especially right next to a Kroger, and with ;ots of dining options close by if wanted. Our best wishes to all the staff at the hotel, they all went the extra mile whenever needed (with every single guest) and did so with a smile on their faces and a genuine desire to make all the residents have a great stay. Well done.MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded November 9, 2016</t>
   </si>
   <si>
@@ -694,6 +1024,54 @@
     <t>Family stayed at the hotel for over a month.Really excellent service. The GM Kyle sets the tone for the place with his leadership and drive for top class service. There is a genuine family atmosphere created and he and his staff clearly wanted to make sure your stay was as good as it could be. I could not really fault the hotel , breakfasts were great , the Mon to Wed night time socials created an easy and relaxed atmosphere. Property is a little tired but kept clean and with a pool available. Location is good , especially right next to a Kroger, and with ;ots of dining options close by if wanted. Our best wishes to all the staff at the hotel, they all went the extra mile whenever needed (with every single guest) and did so with a smile on their faces and a genuine desire to make all the residents have a great stay. Well done.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r432112367-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432112367</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>Excellent Service by entire Hotel Staff</t>
+  </si>
+  <si>
+    <t>Excellent service by entire hotel staff. Like to stay again N again here.Very helpful i remember names of most of team due to their great service.Special thanks to General Manager - Kyle &amp; Manager On Duty - Razza.I have stayed for almost 2 months twice and consistently great services by all staff members.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Excellent service by entire hotel staff. Like to stay again N again here.Very helpful i remember names of most of team due to their great service.Special thanks to General Manager - Kyle &amp; Manager On Duty - Razza.I have stayed for almost 2 months twice and consistently great services by all staff members.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r422957464-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>422957464</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>our first choice in Houston, great for families !</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel several times. It's in a great location with free gated parking, clean and comfortable rooms &amp; bathrooms and excellent staff. They always go out of their way to make guests feel at home. Thanks again for a wonderful stay...Kyle, Roberta, Kelia, John and Chevis.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded September 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2016</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel several times. It's in a great location with free gated parking, clean and comfortable rooms &amp; bathrooms and excellent staff. They always go out of their way to make guests feel at home. Thanks again for a wonderful stay...Kyle, Roberta, Kelia, John and Chevis.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r421079769-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -775,6 +1153,60 @@
     <t>Residence inn west chase Houston provides of good service like breakfast our team have visited on the Business trip, for this  nearest to our office provide shuttle to office &amp; back..... located at good nature's  environmentMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r415546589-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>415546589</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Best staff with Manager "Suspenders"</t>
+  </si>
+  <si>
+    <t>We stayed here recently for 2 months for an internship and touring Houston. The staff was very accommodating. The breakfast was great to have after a 24 hour EMS shift, and the pool was always clean and available to use. The night time social and drinks was very nice to have during the week, especially if we didn't feel like going out. Even though the hotel was under construction it didn't interfere with our stay. What a great place, if we make it back to Houston I will definitely stay here. The manager Kyle "Suspenders" really make sure his staff is on point and his guests are taken care of. He checks in with everyone every morning at breakfast or at social hour, it really felt like home.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded September 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here recently for 2 months for an internship and touring Houston. The staff was very accommodating. The breakfast was great to have after a 24 hour EMS shift, and the pool was always clean and available to use. The night time social and drinks was very nice to have during the week, especially if we didn't feel like going out. Even though the hotel was under construction it didn't interfere with our stay. What a great place, if we make it back to Houston I will definitely stay here. The manager Kyle "Suspenders" really make sure his staff is on point and his guests are taken care of. He checks in with everyone every morning at breakfast or at social hour, it really felt like home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r414657394-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>414657394</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Exceptional</t>
+  </si>
+  <si>
+    <t>Me and my family came from Boston Massachusetts and we were treated very well here. Complimentary EVERYTHING . Breakfast, Internet, Shuttle service,soft serve drinks . They are so nice ! Only blah was today , we had planned for a day of activities around the three mile radius but when we called down for the shuttle, we were told we couldn't use it for the next three hours because a guest needed the shuttle for three hours . We asked if we could be helped in any other way and they said no . Either use an uber or a cab at our expense . Mind you the activities were in the three mile radius. However .......... this residence inn is amazing and they are so nice . For that reason I give a five star . MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Me and my family came from Boston Massachusetts and we were treated very well here. Complimentary EVERYTHING . Breakfast, Internet, Shuttle service,soft serve drinks . They are so nice ! Only blah was today , we had planned for a day of activities around the three mile radius but when we called down for the shuttle, we were told we couldn't use it for the next three hours because a guest needed the shuttle for three hours . We asked if we could be helped in any other way and they said no . Either use an uber or a cab at our expense . Mind you the activities were in the three mile radius. However .......... this residence inn is amazing and they are so nice . For that reason I give a five star . More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r387130933-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -814,9 +1246,6 @@
     <t>You don't even get what you pay for. Spend your money somewhere else. Dirty rooms nasty attitudes. They overcharge you at the end. Cheap place and cheap attitude, management is nonexistent. Called and was put on hold for 10 min after I asked for corporates number.  Which they could never find.  Would never recommend this place to anyone. They gave me a hard time at check in which I should have taken as a sign,  but I have them a shot anyways and paid a hefty price for it.  Room smelled bad and the beds sheets stink.  Just horrible.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>You don't even get what you pay for. Spend your money somewhere else. Dirty rooms nasty attitudes. They overcharge you at the end. Cheap place and cheap attitude, management is nonexistent. Called and was put on hold for 10 min after I asked for corporates number.  Which they could never find.  Would never recommend this place to anyone. They gave me a hard time at check in which I should have taken as a sign,  but I have them a shot anyways and paid a hefty price for it.  Room smelled bad and the beds sheets stink.  Just horrible.More</t>
   </si>
   <si>
@@ -847,6 +1276,51 @@
     <t>Someone said on their review "Best hotel and staff ever." Truer words were never spoken. I work for the U.S. Government and travel a lot. I pay government rate and usually get government rate service. Not here! It starts at the top with the General Manager, Kyle, and spreads to all the others. Kyle even sat and looked at pictures of my two Grandbabies and my band! The rooms and grounds are kept clean. There's plenty of food at breakfast and nice treats, and games, at night. Other hotels should send their staff to learn from this place. Thanks, John CMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r381258831-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381258831</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>Best Home away from Home</t>
+  </si>
+  <si>
+    <t>I stayed here on business for 1 1/2 months. Kyle and his staff are the greatest. The hotel is very homey and comfortable. The staff made you feel welcome and feel like a happy family. I would recommend this hotel to anyone in Houston area. Kyle and his staff are the greatest!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I stayed here on business for 1 1/2 months. Kyle and his staff are the greatest. The hotel is very homey and comfortable. The staff made you feel welcome and feel like a happy family. I would recommend this hotel to anyone in Houston area. Kyle and his staff are the greatest!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r379489488-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>379489488</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>Made us feel like Family.</t>
+  </si>
+  <si>
+    <t>Kyle,and his staff were wonderful, they truly made us feel at home.We were there for almost 2 weeks and the whole staff was very attentive.The Breakfast was amazing,and even the young lady running the Breakfast Bar was wonderful.All this kindness and service seemed to trickle down from the top,Kyle was very service oriented and that flowed thru to the staff. I will be staying there next time i'm in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded June 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2016</t>
+  </si>
+  <si>
+    <t>Kyle,and his staff were wonderful, they truly made us feel at home.We were there for almost 2 weeks and the whole staff was very attentive.The Breakfast was amazing,and even the young lady running the Breakfast Bar was wonderful.All this kindness and service seemed to trickle down from the top,Kyle was very service oriented and that flowed thru to the staff. I will be staying there next time i'm in Houston.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r365930612-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -889,9 +1363,6 @@
     <t>I stayed here 4 nights on business in April 2016. There's more to like here than to complain about. The staff was very friendly and responsive to requests. There was a decent breakfast bar (included) each morning, and some treat in the evening Mon - Wed. I think Monday was a social hour, Tuesday was grilled burgers &amp; fixin's plus alcohol, Wed was a spread of sweets. I loved having a little kitchen and Kroger is next door. I'd say the décor in my room was starting to look a little bit worn but it was clean. There's a large L shaped sofa but I didn't find it to be comfortable at all! To watch TV you'd want to have your head (I watch lying down) at the short end of the L, and that was a built in part that also served as an entry console. It was hard, and the sofa wasn't very deep. I could never get comfortable there so I watched TV in my bedroom. Nonetheless I was happy with my room and will stay here againMoreShow less</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>I stayed here 4 nights on business in April 2016. There's more to like here than to complain about. The staff was very friendly and responsive to requests. There was a decent breakfast bar (included) each morning, and some treat in the evening Mon - Wed. I think Monday was a social hour, Tuesday was grilled burgers &amp; fixin's plus alcohol, Wed was a spread of sweets. I loved having a little kitchen and Kroger is next door. I'd say the décor in my room was starting to look a little bit worn but it was clean. There's a large L shaped sofa but I didn't find it to be comfortable at all! To watch TV you'd want to have your head (I watch lying down) at the short end of the L, and that was a built in part that also served as an entry console. It was hard, and the sofa wasn't very deep. I could never get comfortable there so I watched TV in my bedroom. Nonetheless I was happy with my room and will stay here againMore</t>
   </si>
   <si>
@@ -910,6 +1381,48 @@
     <t>Our recent stay at the Residence Inn has been amszing. The staff was exceptional and the accommodations were great. I recommend this hotel for a vacation or a staycation  you will not be disappointed! From the full breakfast every morning to the on site gym and pool the facilities were impeccable.  For business or pleasure this hotel will meet your every needMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r363985887-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363985887</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Business trip for two nights</t>
+  </si>
+  <si>
+    <t>I am a big Marriott guy and almost always choose them but have not stayed in a Residence Inn in years. Front desk check-in was fine and the lobby was fine. Stayed in a two bedroom suite and the size was fine but not the cleanest place in the world. Found a dead roach(which I know is better than a live one) in the closet. Also there where some hairs on the bathroom floor that where not mine. But the last straw was when I saw my towels for the reset of my room on the hallway floor. Thats just gross.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2016</t>
+  </si>
+  <si>
+    <t>I am a big Marriott guy and almost always choose them but have not stayed in a Residence Inn in years. Front desk check-in was fine and the lobby was fine. Stayed in a two bedroom suite and the size was fine but not the cleanest place in the world. Found a dead roach(which I know is better than a live one) in the closet. Also there where some hairs on the bathroom floor that where not mine. But the last straw was when I saw my towels for the reset of my room on the hallway floor. Thats just gross.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r361657669-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361657669</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Excellent hotel with Exceptional Service.</t>
+  </si>
+  <si>
+    <t>This is my 04th trip to Houston &amp; every time i visit houston i have booked &amp; stayed at this place. The hotel staff is friendly &amp; accommodating. They are very helpful &amp; always take good care of the guests. I want to take this opportunity to especially appreciate the General Manager Kyle for an outstanding service. A big thank you &amp; a lot of respect. He is always ready with a smile &amp; goes out of his way take exceptional care of the guests.He is Superb Manager &amp; Leadership skills are top class. Watch out for this young man as he is the future star in the hospitality industry.The shuttle service,the breakfast &amp; evening snacks along with drinks are delight. I highly recommend for individuals , business travelers, meetings, get-togethers well as family vacation.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is my 04th trip to Houston &amp; every time i visit houston i have booked &amp; stayed at this place. The hotel staff is friendly &amp; accommodating. They are very helpful &amp; always take good care of the guests. I want to take this opportunity to especially appreciate the General Manager Kyle for an outstanding service. A big thank you &amp; a lot of respect. He is always ready with a smile &amp; goes out of his way take exceptional care of the guests.He is Superb Manager &amp; Leadership skills are top class. Watch out for this young man as he is the future star in the hospitality industry.The shuttle service,the breakfast &amp; evening snacks along with drinks are delight. I highly recommend for individuals , business travelers, meetings, get-togethers well as family vacation.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r361277251-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -976,6 +1489,44 @@
     <t>My church has rented out the meeting two times in a roll and we've throughly enjoyed our experience at Residence Inn thus far. The facilities are top notch and the staff are efficient and warm. I would definitely recommend this place!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r354668939-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354668939</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Staff and Perfect Location</t>
+  </si>
+  <si>
+    <t>Our stay in Houston was not for vacation, but for treatment at Excel Diagnostics.  The hotel proximity to the office was less than 3 blocks and easily accessible without driving on main roads. Restaurants are close to hotel and Kroger Grocery Store and Pharmacy are next door.  You can easily walk through the keyed gate from the Residence Inn parking lot and be in the grocery store or pharmacy in less than 5 minutes. The hotel parking and rooms are key only accessible for security.  Entry to the rooms is convenient and the pool and grilling area nice and comfortable.The kitchen is more than sufficient with cutlery, dishes, pots/pans, stove, microwave, dishwasher and full size refrigerator.  Easy to use to prepare meals when on extended stay.   If you have to be away from home with your family, extended business trip or in our case a medical illness, this facility is where you should stay.  The facility is clean, some areas are being renovated and some have been updated already.  Even with remodeling being done, the hotel was clean and even the renovation crew were friendly.
+Most of all, the management and hotel staff were remarkable.  The manager was often out with the guests during receptions and frequently seen at the front desk greeting guests.  The cleaning staff were accommodating and clearly here to make your stay easy.  Thank you Kyle and the entire Residence Inn Houston Westchase crew for the...Our stay in Houston was not for vacation, but for treatment at Excel Diagnostics.  The hotel proximity to the office was less than 3 blocks and easily accessible without driving on main roads. Restaurants are close to hotel and Kroger Grocery Store and Pharmacy are next door.  You can easily walk through the keyed gate from the Residence Inn parking lot and be in the grocery store or pharmacy in less than 5 minutes. The hotel parking and rooms are key only accessible for security.  Entry to the rooms is convenient and the pool and grilling area nice and comfortable.The kitchen is more than sufficient with cutlery, dishes, pots/pans, stove, microwave, dishwasher and full size refrigerator.  Easy to use to prepare meals when on extended stay.   If you have to be away from home with your family, extended business trip or in our case a medical illness, this facility is where you should stay.  The facility is clean, some areas are being renovated and some have been updated already.  Even with remodeling being done, the hotel was clean and even the renovation crew were friendly.Most of all, the management and hotel staff were remarkable.  The manager was often out with the guests during receptions and frequently seen at the front desk greeting guests.  The cleaning staff were accommodating and clearly here to make your stay easy.  Thank you Kyle and the entire Residence Inn Houston Westchase crew for the care and compassion that you have shown us during this time.  We will see you in a few weeks.Kim BruceMoreShow less</t>
+  </si>
+  <si>
+    <t>Our stay in Houston was not for vacation, but for treatment at Excel Diagnostics.  The hotel proximity to the office was less than 3 blocks and easily accessible without driving on main roads. Restaurants are close to hotel and Kroger Grocery Store and Pharmacy are next door.  You can easily walk through the keyed gate from the Residence Inn parking lot and be in the grocery store or pharmacy in less than 5 minutes. The hotel parking and rooms are key only accessible for security.  Entry to the rooms is convenient and the pool and grilling area nice and comfortable.The kitchen is more than sufficient with cutlery, dishes, pots/pans, stove, microwave, dishwasher and full size refrigerator.  Easy to use to prepare meals when on extended stay.   If you have to be away from home with your family, extended business trip or in our case a medical illness, this facility is where you should stay.  The facility is clean, some areas are being renovated and some have been updated already.  Even with remodeling being done, the hotel was clean and even the renovation crew were friendly.
+Most of all, the management and hotel staff were remarkable.  The manager was often out with the guests during receptions and frequently seen at the front desk greeting guests.  The cleaning staff were accommodating and clearly here to make your stay easy.  Thank you Kyle and the entire Residence Inn Houston Westchase crew for the...Our stay in Houston was not for vacation, but for treatment at Excel Diagnostics.  The hotel proximity to the office was less than 3 blocks and easily accessible without driving on main roads. Restaurants are close to hotel and Kroger Grocery Store and Pharmacy are next door.  You can easily walk through the keyed gate from the Residence Inn parking lot and be in the grocery store or pharmacy in less than 5 minutes. The hotel parking and rooms are key only accessible for security.  Entry to the rooms is convenient and the pool and grilling area nice and comfortable.The kitchen is more than sufficient with cutlery, dishes, pots/pans, stove, microwave, dishwasher and full size refrigerator.  Easy to use to prepare meals when on extended stay.   If you have to be away from home with your family, extended business trip or in our case a medical illness, this facility is where you should stay.  The facility is clean, some areas are being renovated and some have been updated already.  Even with remodeling being done, the hotel was clean and even the renovation crew were friendly.Most of all, the management and hotel staff were remarkable.  The manager was often out with the guests during receptions and frequently seen at the front desk greeting guests.  The cleaning staff were accommodating and clearly here to make your stay easy.  Thank you Kyle and the entire Residence Inn Houston Westchase crew for the care and compassion that you have shown us during this time.  We will see you in a few weeks.Kim BruceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r353930513-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353930513</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Very nice accommodation with excellent staff</t>
+  </si>
+  <si>
+    <t>Accommodation is very good and clean. Kroger is right beside the hotel which is very east to access with out going to main road.General manager, manager and other staff are are very helpful. Thanks for Kyle and Raja for making my stay more comfortable with all the helpful tips provided by them.They will advice you all that you need to know and there is no NO for any request you place. Such a nice place to stay with good and welcoming staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>Accommodation is very good and clean. Kroger is right beside the hotel which is very east to access with out going to main road.General manager, manager and other staff are are very helpful. Thanks for Kyle and Raja for making my stay more comfortable with all the helpful tips provided by them.They will advice you all that you need to know and there is no NO for any request you place. Such a nice place to stay with good and welcoming staff.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r347148449-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -1051,6 +1602,76 @@
     <t>Nice secure property in west Houston . Very comfortable and quite. Very efficient staff . Property well maintained and clean . Great location for business on westheimer west of galleria mall. Plenty of restaurants in walking distance.  Will be backMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r336062127-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>336062127</t>
+  </si>
+  <si>
+    <t>12/30/2015</t>
+  </si>
+  <si>
+    <t>Be Careful - Crooks, cheats with no regard to customer service.</t>
+  </si>
+  <si>
+    <t>I am gold elite member and stayed with Marriott/Residence Inn in other cities for more than 66 nights this year.
+Period of Stay: Nov 5 - Nov 10 2015 with my wife and my 5 months old daughter.
+Room No: 103, changed to 203 on Nov 7 after I complained about a lot of cockroaches and other insects.
+Mode of payment: Used my rewards points for the entire duration of stay.
+But Still Was charged: $256.23
+Here is the time line:
+a) Nov 13, 2015 - I called Westchase Residence Inn about this charge. I was in communication with Mayra Rascon. I also emailed her my reservation confirmation, which showed $0.00 charges.
+b) Nov 19, 2015 - I emailed Mayra again to ask about any updates. NO RESPONSE
+c) Nov 21, 2015 - I called Marriott's rewards (801-468-4000) and had to request to re-initiate the process
+d) Nov 29, 2015 - I got calls from 402-390-3244 and 713-974-5454 (General Manager Westchase Residence Inn) assuring me the refund in one or two days.
+e) Dec 14, 2015 - Today, my refund was initiated AFTER 1 MONTH. THAT TOO AFTER I THREATENED TO FILE A CASE IN A SMALL CLAIMS COURT. I got a confirmation email and a phone call (was not able to attend) from Raza from Westchase Residence Inn apologizing.
+So, here is the main issue. It took one month to get this done and that too after I kept...I am gold elite member and stayed with Marriott/Residence Inn in other cities for more than 66 nights this year.Period of Stay: Nov 5 - Nov 10 2015 with my wife and my 5 months old daughter.Room No: 103, changed to 203 on Nov 7 after I complained about a lot of cockroaches and other insects.Mode of payment: Used my rewards points for the entire duration of stay.But Still Was charged: $256.23Here is the time line:a) Nov 13, 2015 - I called Westchase Residence Inn about this charge. I was in communication with Mayra Rascon. I also emailed her my reservation confirmation, which showed $0.00 charges.b) Nov 19, 2015 - I emailed Mayra again to ask about any updates. NO RESPONSEc) Nov 21, 2015 - I called Marriott's rewards (801-468-4000) and had to request to re-initiate the processd) Nov 29, 2015 - I got calls from 402-390-3244 and 713-974-5454 (General Manager Westchase Residence Inn) assuring me the refund in one or two days.e) Dec 14, 2015 - Today, my refund was initiated AFTER 1 MONTH. THAT TOO AFTER I THREATENED TO FILE A CASE IN A SMALL CLAIMS COURT. I got a confirmation email and a phone call (was not able to attend) from Raza from Westchase Residence Inn apologizing.So, here is the main issue. It took one month to get this done and that too after I kept track on it through and through for no fault of mine. And, you guys are so "generous" that you finally refunded me my money back, which should not have been charged at the first place. This is great customer service. What a joke!! Plus a little apology and no compensation for my time and frustration that it caused. Also, never heard back from Guest Experience Supervisor to whom I had sent my complaint.What a shame, Marriott!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded December 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2015</t>
+  </si>
+  <si>
+    <t>I am gold elite member and stayed with Marriott/Residence Inn in other cities for more than 66 nights this year.
+Period of Stay: Nov 5 - Nov 10 2015 with my wife and my 5 months old daughter.
+Room No: 103, changed to 203 on Nov 7 after I complained about a lot of cockroaches and other insects.
+Mode of payment: Used my rewards points for the entire duration of stay.
+But Still Was charged: $256.23
+Here is the time line:
+a) Nov 13, 2015 - I called Westchase Residence Inn about this charge. I was in communication with Mayra Rascon. I also emailed her my reservation confirmation, which showed $0.00 charges.
+b) Nov 19, 2015 - I emailed Mayra again to ask about any updates. NO RESPONSE
+c) Nov 21, 2015 - I called Marriott's rewards (801-468-4000) and had to request to re-initiate the process
+d) Nov 29, 2015 - I got calls from 402-390-3244 and 713-974-5454 (General Manager Westchase Residence Inn) assuring me the refund in one or two days.
+e) Dec 14, 2015 - Today, my refund was initiated AFTER 1 MONTH. THAT TOO AFTER I THREATENED TO FILE A CASE IN A SMALL CLAIMS COURT. I got a confirmation email and a phone call (was not able to attend) from Raza from Westchase Residence Inn apologizing.
+So, here is the main issue. It took one month to get this done and that too after I kept...I am gold elite member and stayed with Marriott/Residence Inn in other cities for more than 66 nights this year.Period of Stay: Nov 5 - Nov 10 2015 with my wife and my 5 months old daughter.Room No: 103, changed to 203 on Nov 7 after I complained about a lot of cockroaches and other insects.Mode of payment: Used my rewards points for the entire duration of stay.But Still Was charged: $256.23Here is the time line:a) Nov 13, 2015 - I called Westchase Residence Inn about this charge. I was in communication with Mayra Rascon. I also emailed her my reservation confirmation, which showed $0.00 charges.b) Nov 19, 2015 - I emailed Mayra again to ask about any updates. NO RESPONSEc) Nov 21, 2015 - I called Marriott's rewards (801-468-4000) and had to request to re-initiate the processd) Nov 29, 2015 - I got calls from 402-390-3244 and 713-974-5454 (General Manager Westchase Residence Inn) assuring me the refund in one or two days.e) Dec 14, 2015 - Today, my refund was initiated AFTER 1 MONTH. THAT TOO AFTER I THREATENED TO FILE A CASE IN A SMALL CLAIMS COURT. I got a confirmation email and a phone call (was not able to attend) from Raza from Westchase Residence Inn apologizing.So, here is the main issue. It took one month to get this done and that too after I kept track on it through and through for no fault of mine. And, you guys are so "generous" that you finally refunded me my money back, which should not have been charged at the first place. This is great customer service. What a joke!! Plus a little apology and no compensation for my time and frustration that it caused. Also, never heard back from Guest Experience Supervisor to whom I had sent my complaint.What a shame, Marriott!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r323009952-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323009952</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>Very good location</t>
+  </si>
+  <si>
+    <t>Hotel is  very near to Kroger grocery store. Have the facility to cook inside.Decent location and have the facilities of pool and some sports inside the hotel.Mon - wed a place where they provide free snacks and place to mingle with others.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded November 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2015</t>
+  </si>
+  <si>
+    <t>Hotel is  very near to Kroger grocery store. Have the facility to cook inside.Decent location and have the facilities of pool and some sports inside the hotel.Mon - wed a place where they provide free snacks and place to mingle with others.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r322638780-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -1066,12 +1687,6 @@
     <t>We stayed at this property from October 13 -25 2015All I can say is its going to be very difficult for us to stay else where! :)Kyle the General Manager along with Megan and jasmine they made our stay so wonderful...Have not met any hotel staff as great as themClean Friendly and safe property!!!Hospitality at its best!Thank you!Esmail &amp; AtekaMoreShow less</t>
   </si>
   <si>
-    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded November 5, 2015</t>
-  </si>
-  <si>
-    <t>Responded November 5, 2015</t>
-  </si>
-  <si>
     <t>We stayed at this property from October 13 -25 2015All I can say is its going to be very difficult for us to stay else where! :)Kyle the General Manager along with Megan and jasmine they made our stay so wonderful...Have not met any hotel staff as great as themClean Friendly and safe property!!!Hospitality at its best!Thank you!Esmail &amp; AtekaMore</t>
   </si>
   <si>
@@ -1111,6 +1726,60 @@
     <t>This a very good place to stay it has a pool,gym the rooms are comfortable,the breakfast and the front desk people is very kind.The rooms also have a good kitchen so if you get tired eating out, you can cook anything you want, because you can buy groceries in a kroger supermarket located just in front of the hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r311314131-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>311314131</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Great Stay, Great personnel</t>
+  </si>
+  <si>
+    <t>We stayed for a week at this location and we were treated very well.  The staff went out of their way to make us comfortable.  Kyle the manager helped us out on local areas of interest and Jasmine was very delightful to work with.   Our room was very clean and the breakfasts were great.   Thanks to all, as we will probably stay there again in Oct.   Bob &amp; DianeMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded September 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2015</t>
+  </si>
+  <si>
+    <t>We stayed for a week at this location and we were treated very well.  The staff went out of their way to make us comfortable.  Kyle the manager helped us out on local areas of interest and Jasmine was very delightful to work with.   Our room was very clean and the breakfasts were great.   Thanks to all, as we will probably stay there again in Oct.   Bob &amp; DianeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r311141747-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>311141747</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Poor service from some of the staff!! Workers need to be more like Kyle</t>
+  </si>
+  <si>
+    <t>My word there is so much to talk about here, just a brief summary, the breakfast lady is very nice, room cleaners are respectful and helpful, People like ARIANNA needs to be demoted or trained better at customer service. Tnayea follows Arianna, needs better training in customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>My word there is so much to talk about here, just a brief summary, the breakfast lady is very nice, room cleaners are respectful and helpful, People like ARIANNA needs to be demoted or trained better at customer service. Tnayea follows Arianna, needs better training in customer service.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r309558481-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -1126,9 +1795,6 @@
     <t>The hotel is located close to excellent restaurants, and right next to a Kroger store. There are full kitchens in the rooms. The manager and staff are excellent and very accommodating. I highly recommend this property for your next stay in Houston. It has easy access to all the major highways and expressways.MoreShow less</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
     <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded September 15, 2015</t>
   </si>
   <si>
@@ -1186,6 +1852,48 @@
     <t>I watched staff help guests in pooring rain, during a time when  a large crowd was checking in, yet still maintain composure and professionalism. Great shuttle service. Fixed anything broken within a short time. I'd especially like to note the efforts of Jasmine to manage guests that were not easy to deal with. Also, the Manager, Kyle, better not change a thing; stay just the way you are. His demeanor and sincerity helping this Iraq veteran sets a standard for others to follow.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r303887735-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>303887735</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyle </t>
+  </si>
+  <si>
+    <t>The staff at this hotel was AMAZING as well as their General Manager Kyle. They go above and beyond to make sure that their guests are satisfied as well as fully accommodated. I wouldn't stay anywhere else but here. The breakfast was great and the rooms are to die for. MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded August 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2015</t>
+  </si>
+  <si>
+    <t>The staff at this hotel was AMAZING as well as their General Manager Kyle. They go above and beyond to make sure that their guests are satisfied as well as fully accommodated. I wouldn't stay anywhere else but here. The breakfast was great and the rooms are to die for. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r302089021-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>302089021</t>
+  </si>
+  <si>
+    <t>08/22/2015</t>
+  </si>
+  <si>
+    <t>Excellent place to stay</t>
+  </si>
+  <si>
+    <t>This was my first time staying in a Residence Inn, the rooms are very spacious and inviting. The staff could not be better, always extremely helpful with whatever you needed from directions to dining recommendations. This place is located right in the middle of everything you might need while traveling, restaurants, shopping and not far from either Hobby or IAH airports. If I come back to Houston I will clearly be staying at Residence Inn Westchase.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was my first time staying in a Residence Inn, the rooms are very spacious and inviting. The staff could not be better, always extremely helpful with whatever you needed from directions to dining recommendations. This place is located right in the middle of everything you might need while traveling, restaurants, shopping and not far from either Hobby or IAH airports. If I come back to Houston I will clearly be staying at Residence Inn Westchase.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r299228088-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -1252,6 +1960,42 @@
     <t>I was here during end of July on a business trip for 7 days , the hotel is very comfortable and with all amenities you require during a business as well as pleasure trip. Its right next to some great eating places &amp; a shopping complex for daily needs , if you have any .Kyle Metzger the General Manager is a extremely  helpful 7 courteous Gentleman, ....Overall a great stay , looking forward to returning soon.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r296644918-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296644918</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>Houston for the weekend</t>
+  </si>
+  <si>
+    <t>Jasmine was on duty when we checked in, helpful, friendly. Check in was fast &amp; smooth. 1st room had trouble with AC, 1 call to Jasmine, room was changed &amp; 2nd room the AC was wonderful. Good location. Large pool,  Quiet, clean, would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jasmine was on duty when we checked in, helpful, friendly. Check in was fast &amp; smooth. 1st room had trouble with AC, 1 call to Jasmine, room was changed &amp; 2nd room the AC was wonderful. Good location. Large pool,  Quiet, clean, would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r296420968-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296420968</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>My recent stay at RI at Westchase</t>
+  </si>
+  <si>
+    <t>Very impressed with the management staff, they were very eager to make my stay as pleasant as possible.The property was very clean and tidy and the hospitality hour offered a nice variety of choices.Finally, the location was very convenient for my needs.Looking forward to my next stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very impressed with the management staff, they were very eager to make my stay as pleasant as possible.The property was very clean and tidy and the hospitality hour offered a nice variety of choices.Finally, the location was very convenient for my needs.Looking forward to my next stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r296191779-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -1318,6 +2062,60 @@
     <t>We are long-time Residence Inn clients, but it's the first (and definitely last) time we stay in this particular one. Lousy service, mostly unfriendly staff (with few exceptions, like the super nice and friendly lady who serves breakfast), and the WORST experience with housekeeping service. Everyday we have to ask for something they forgot to leave, like pillowcases or toilet paper. It really is embarassing to have to ask for whatever they forgot each day. We talked with the housekeeping supervisor and they have been leaving extra stuff everyday as a "special" treatment. But these things are supposed to be standard in any hotel stay, not special. We don't need extra stuff, we just need the usual things that any hotel room has. Pillowcases? Come on! My mother is also staying here in another room and for three days in a row, we leave at 10am, come back at 4pm and her room has not been cleaned. Call the unfriendly staff (via a local call because there are problems with the phones and you can't reach the front desk by dialing 0 from your room), and 20 minutes later they have not been able to find anyone from housekeeping to go and clean the room. It is frankly ridiculous. I guess this is our last time in any Residence Inn.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r284562899-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284562899</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Really awful service from management here. Not indicitive of most Marriotts. Mold in the vents blowing in the rooms.</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 weeks for a medical stay. The pool hot tub jets did not work, there was mold all over our air conditioning vents blowing in and we asked to be moved to another room, which they switched our building then after the house keeper moved us, not the management even after we asked them to move us and they said they would when we got back from medical treatments. The only thing great about this hotel was the pool and an African American gentleman who worked there. I think his name was Chris. He was just a maintenance worker/house keeping staff and he helped us more than the manager named also Chris. This house keeper gentleman told us he would stay late for us and he stayed over an hour past his shift to move us to another hotel room due to mold. The front desk gals and the manager (also named Chris but a white man) told us he would move our room immediately and he would contact us to move us as soon as it was ready. Two days go by, no phone call no nothing. So finally this nice maintenance/house keeping gentleman goes the extra mile and gets a new room for us and our keys and moves all our stuff to another room off the clock. HEY OWNER, the guy who is the manager at this hotel is terrible!!!!!! He never followed through...Stayed here for 2 weeks for a medical stay. The pool hot tub jets did not work, there was mold all over our air conditioning vents blowing in and we asked to be moved to another room, which they switched our building then after the house keeper moved us, not the management even after we asked them to move us and they said they would when we got back from medical treatments. The only thing great about this hotel was the pool and an African American gentleman who worked there. I think his name was Chris. He was just a maintenance worker/house keeping staff and he helped us more than the manager named also Chris. This house keeper gentleman told us he would stay late for us and he stayed over an hour past his shift to move us to another hotel room due to mold. The front desk gals and the manager (also named Chris but a white man) told us he would move our room immediately and he would contact us to move us as soon as it was ready. Two days go by, no phone call no nothing. So finally this nice maintenance/house keeping gentleman goes the extra mile and gets a new room for us and our keys and moves all our stuff to another room off the clock. HEY OWNER, the guy who is the manager at this hotel is terrible!!!!!! He never followed through on anything we asked him. Not even our Marriott rewards points that took him three weeks to credit to our accounts and I had to call three times. You really have a guy who isn't manager material running the place. Get the African American gentleman who is like a big teddy bear and amazing at customer service to run your hotel!!!! He and he alone helped us and on his own time. We tipped him a $20 for staying because he didn't have to at all. There was also floods going on and tornado warnings/watches while we were there. Our cell phones go off to alert us at 5 am to take shelter! We call the front desk and ask, hey...what do we do? The front desk says, "we don't get tornadoes here". OMG!!!! We had two children with us and they had no protocol to take shelter or to make us feel secure. I mean are you kidding me???? No I won't stay again. Oh and btw when we told them we had a mold issue in all the ventilation, they told us it wasn't mold, but it was, building B. So steer clear.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded July 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 weeks for a medical stay. The pool hot tub jets did not work, there was mold all over our air conditioning vents blowing in and we asked to be moved to another room, which they switched our building then after the house keeper moved us, not the management even after we asked them to move us and they said they would when we got back from medical treatments. The only thing great about this hotel was the pool and an African American gentleman who worked there. I think his name was Chris. He was just a maintenance worker/house keeping staff and he helped us more than the manager named also Chris. This house keeper gentleman told us he would stay late for us and he stayed over an hour past his shift to move us to another hotel room due to mold. The front desk gals and the manager (also named Chris but a white man) told us he would move our room immediately and he would contact us to move us as soon as it was ready. Two days go by, no phone call no nothing. So finally this nice maintenance/house keeping gentleman goes the extra mile and gets a new room for us and our keys and moves all our stuff to another room off the clock. HEY OWNER, the guy who is the manager at this hotel is terrible!!!!!! He never followed through...Stayed here for 2 weeks for a medical stay. The pool hot tub jets did not work, there was mold all over our air conditioning vents blowing in and we asked to be moved to another room, which they switched our building then after the house keeper moved us, not the management even after we asked them to move us and they said they would when we got back from medical treatments. The only thing great about this hotel was the pool and an African American gentleman who worked there. I think his name was Chris. He was just a maintenance worker/house keeping staff and he helped us more than the manager named also Chris. This house keeper gentleman told us he would stay late for us and he stayed over an hour past his shift to move us to another hotel room due to mold. The front desk gals and the manager (also named Chris but a white man) told us he would move our room immediately and he would contact us to move us as soon as it was ready. Two days go by, no phone call no nothing. So finally this nice maintenance/house keeping gentleman goes the extra mile and gets a new room for us and our keys and moves all our stuff to another room off the clock. HEY OWNER, the guy who is the manager at this hotel is terrible!!!!!! He never followed through on anything we asked him. Not even our Marriott rewards points that took him three weeks to credit to our accounts and I had to call three times. You really have a guy who isn't manager material running the place. Get the African American gentleman who is like a big teddy bear and amazing at customer service to run your hotel!!!! He and he alone helped us and on his own time. We tipped him a $20 for staying because he didn't have to at all. There was also floods going on and tornado warnings/watches while we were there. Our cell phones go off to alert us at 5 am to take shelter! We call the front desk and ask, hey...what do we do? The front desk says, "we don't get tornadoes here". OMG!!!! We had two children with us and they had no protocol to take shelter or to make us feel secure. I mean are you kidding me???? No I won't stay again. Oh and btw when we told them we had a mold issue in all the ventilation, they told us it wasn't mold, but it was, building B. So steer clear.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r261059106-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261059106</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>Worst Marriott experience!</t>
+  </si>
+  <si>
+    <t>Checked in at 2:30AM to be assigned a room that was full of cockroaches! Told I was checked into a wrong room that had been sprayed. Assigned a new one at 3:30AM and found it was not even cleaned. Reassigned at 4AM into a 3rd room at a higher floor. First thing I see when I wake up is a cockroach running across the floor! 24 hours hence property manager in untraceable by the staff and no one has any answers!Worst ecperience in 16 years of international traveling!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded March 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2015</t>
+  </si>
+  <si>
+    <t>Checked in at 2:30AM to be assigned a room that was full of cockroaches! Told I was checked into a wrong room that had been sprayed. Assigned a new one at 3:30AM and found it was not even cleaned. Reassigned at 4AM into a 3rd room at a higher floor. First thing I see when I wake up is a cockroach running across the floor! 24 hours hence property manager in untraceable by the staff and no one has any answers!Worst ecperience in 16 years of international traveling!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r242921905-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -1393,6 +2191,51 @@
     <t>I stayed there twice this year for busines trips, the hotel located in good spot on Westchase district and very close to big supermarket, the hotel is clean and modern with free breakfast and snacks provided 4 days a week. The hotel also provide free shuttle service within 4 mile from hotel. The rooms are clean and always in good shape. I really like the staff working there, you always will get a warm welcome from front desk whenever you enter the hotel, special thanks for Clara the housekeeper for her professional and outstanding job she is doing every day to keep the room in great look ! I highly recommend this hotel it’s the best when considering money paid to value received.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r229223240-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229223240</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>We stayed here to be close to a medical facility.  The grounds are very well kept and the facility  also is in great shape.  They work very hard to maintain it and keep it clean and comfortable.  The morning breakfast is very good and plenty of choices.  the evening snacks are often enough for a meal.  The staff is very friendly and helpful.  I can certainly recommend this place and will be returning.  There are plenty of restaurants with in walking distance and a grocery store right outside the front door.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>We stayed here to be close to a medical facility.  The grounds are very well kept and the facility  also is in great shape.  They work very hard to maintain it and keep it clean and comfortable.  The morning breakfast is very good and plenty of choices.  the evening snacks are often enough for a meal.  The staff is very friendly and helpful.  I can certainly recommend this place and will be returning.  There are plenty of restaurants with in walking distance and a grocery store right outside the front door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r215998964-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215998964</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>1 Month Stay In Houston</t>
+  </si>
+  <si>
+    <t>Manager was very kind and friendly, the place had free breakfast everyday and dinner for free for half the week. Our room was great, came with a full kitchen and cooking hardware. We stayed for a month for an internship and the service couldn't have been better. Everyone was very polite and they even upgraded our room to a suite for no extra charge. Not a shabby price either.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Veronica M, Front Office Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded July 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2014</t>
+  </si>
+  <si>
+    <t>Manager was very kind and friendly, the place had free breakfast everyday and dinner for free for half the week. Our room was great, came with a full kitchen and cooking hardware. We stayed for a month for an internship and the service couldn't have been better. Everyone was very polite and they even upgraded our room to a suite for no extra charge. Not a shabby price either.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r204060175-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -1471,6 +2314,51 @@
     <t>We really enjoyed our stay at Residence Inn Westchase - from the efficient check-in (real late) to the delightful staff to the excellent breakfast.  Our room was a nicely sized suite with full kitchen and living room.  The location was convenient to us and there are plenty of good restaurants nearby (even an adjacent grocery store).  I was a little taken aback by the fencing around the property (not aware that it was warranted by the neighborhood), but I guess the added security was to be commended.  Did I mention that you should save room for breakfast?More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r190435407-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190435407</t>
+  </si>
+  <si>
+    <t>01/10/2014</t>
+  </si>
+  <si>
+    <t>Not up to Marriott Standards</t>
+  </si>
+  <si>
+    <t>The Marriott website states: "The newly-renovated Residence Inn by Marriott Houston Westchase Hotel welcomes you to one of the most exclusive neighborhoods in the Bayou City." This hotel is not newly renovated as it may lead you to believe. My room was dated and worn.I am a Marriott Platinum Member staying 100 nights a year at Marriotts and I have to say this was the dirtiest hotel I stayed at.  The room was dirty with hairs on the floor and greasy grime on the night stand. The tub has some kind of sediment in it.  The dishwasher when it was run left a huge puddle on the floor.  The 2 bdr on the third floor was very noisy because of the next door Kroger market and Westheimer Rd. Service on check in was very good and they provided extra pillows and a welcoming note.I do not understand why a hotel such as this allow for such shoddy housekeeping and no quality control in monitoring the cleanliness of the rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jonathan C, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded January 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2014</t>
+  </si>
+  <si>
+    <t>The Marriott website states: "The newly-renovated Residence Inn by Marriott Houston Westchase Hotel welcomes you to one of the most exclusive neighborhoods in the Bayou City." This hotel is not newly renovated as it may lead you to believe. My room was dated and worn.I am a Marriott Platinum Member staying 100 nights a year at Marriotts and I have to say this was the dirtiest hotel I stayed at.  The room was dirty with hairs on the floor and greasy grime on the night stand. The tub has some kind of sediment in it.  The dishwasher when it was run left a huge puddle on the floor.  The 2 bdr on the third floor was very noisy because of the next door Kroger market and Westheimer Rd. Service on check in was very good and they provided extra pillows and a welcoming note.I do not understand why a hotel such as this allow for such shoddy housekeeping and no quality control in monitoring the cleanliness of the rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r187372893-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187372893</t>
+  </si>
+  <si>
+    <t>12/11/2013</t>
+  </si>
+  <si>
+    <t>Convenient location</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel many times. I like the fact that there is a supermarket right next to it. Hotel is clean and well maintained. Breakfast and afternoon snack/dinner are included and pretty decent. Overall, great value. Parking is behind electric gates; so it's probably safer for your vehicles. Compared to the Homewood Suites that I stayed during the same trip, this hotel is not as good, but more convenient because of its proximity to the supermarket.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel many times. I like the fact that there is a supermarket right next to it. Hotel is clean and well maintained. Breakfast and afternoon snack/dinner are included and pretty decent. Overall, great value. Parking is behind electric gates; so it's probably safer for your vehicles. Compared to the Homewood Suites that I stayed during the same trip, this hotel is not as good, but more convenient because of its proximity to the supermarket.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r181418473-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -1486,9 +2374,6 @@
     <t>The family and I traveled to Houston for a weekend getway and chose Residence Inn because of their pet policies reasonable fee compared to other hotels. We checked in late but Cody was welcoming and cheerful and conversated with my 6 yr old which made him feel like a grown up. The buffet breakfast was big and had a lot of choices AND they had fountain drinks which is great because I do not drink coffee but I drink soda (I know bad). Catalina who worked in the kitchen area kept the buffet clean, stocked, and was very accomodating. When we checked out Stacey was helpful and filled up my cooler with ice for the long trip back. The rooms were very clean and it felt just like home.The location is perfect with a Kroger next door and several restaurants down the street.MoreShow less</t>
   </si>
   <si>
-    <t>October 2013</t>
-  </si>
-  <si>
     <t>The family and I traveled to Houston for a weekend getway and chose Residence Inn because of their pet policies reasonable fee compared to other hotels. We checked in late but Cody was welcoming and cheerful and conversated with my 6 yr old which made him feel like a grown up. The buffet breakfast was big and had a lot of choices AND they had fountain drinks which is great because I do not drink coffee but I drink soda (I know bad). Catalina who worked in the kitchen area kept the buffet clean, stocked, and was very accomodating. When we checked out Stacey was helpful and filled up my cooler with ice for the long trip back. The rooms were very clean and it felt just like home.The location is perfect with a Kroger next door and several restaurants down the street.More</t>
   </si>
   <si>
@@ -1531,6 +2416,51 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r169503176-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>169503176</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Comfortable and friendly</t>
+  </si>
+  <si>
+    <t>The staff is friendly and very helpful. Comfortable accommodations. Breakfasts and evening socials a big plus! It's at a great location- grocery store is located right next door; excellent variety of restaurants, "China town" is practically around the corner along with an upscale Mall.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r163901826-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163901826</t>
+  </si>
+  <si>
+    <t>06/13/2013</t>
+  </si>
+  <si>
+    <t>Great place to serve as your HQ when working in the area</t>
+  </si>
+  <si>
+    <t>Since their renovation, I have stayed here twice.  Both were very positive experiences.  The fence around the parking area adds a greater sense of security and is easy to enter/exit.  The changes in the dining area improve the appearance.  When maintenance items need to be addressed (e.g., torn netting behind the basketball goal), management responds immediately.  Staff is consistently courteous -- from front desk to housekeeping to individuals who manage the buffet.Not only does Residence Inn provide hot breakfast every morning, a few buffet items are served on Monday through Thursday nights.  I particularly appreciate that vegetarian options are always available.Rooms on the south side of the property (facing away from Westheimer) are most quiet.This is my preferred place to stay when I am on business in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>RIWestchase, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded June 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2013</t>
+  </si>
+  <si>
+    <t>Since their renovation, I have stayed here twice.  Both were very positive experiences.  The fence around the parking area adds a greater sense of security and is easy to enter/exit.  The changes in the dining area improve the appearance.  When maintenance items need to be addressed (e.g., torn netting behind the basketball goal), management responds immediately.  Staff is consistently courteous -- from front desk to housekeeping to individuals who manage the buffet.Not only does Residence Inn provide hot breakfast every morning, a few buffet items are served on Monday through Thursday nights.  I particularly appreciate that vegetarian options are always available.Rooms on the south side of the property (facing away from Westheimer) are most quiet.This is my preferred place to stay when I am on business in this area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r154212974-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -1612,6 +2542,57 @@
     <t>I stayed here for nearly 3 weeks for work and found the staff to be very friendly and helpful - Anna at the front desk in particular. Some were not as skilled / experienced, but everyone was very friendly and willing to assist. The rooms are a bit dated and there were signs everywhere announcing the renovation, but I would would say it's perfectly fine even without the renovation.The property has a nice pool area with lots of chairs, big BBQ's for guests to use and outdoor seating that we used a few times. They have breakfast (the typical stuff) and a beer/wine/light dinner reception a few days a week. The food isn't fantastic, but if you're busy working it's very convenient to just grab a snack and a glass of wine. I really loved having a grocery store literally right next door. It's wonderful to be able to grab something and is one of the major benefits of this hotel.There is a free shuttle within a couple mile radius, but we found it hard to use / difficult to schedule. It is Houston afterall so you really need a car to get anywhere.The rooms are probably slightly below your average Residence Inn, but they seem to be taking care of that. When I am headed back to Houston for my annual business trip next year I'll really look forward to our stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r136664701-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136664701</t>
+  </si>
+  <si>
+    <t>08/08/2012</t>
+  </si>
+  <si>
+    <t>Better than I expected!!</t>
+  </si>
+  <si>
+    <t>My family and a friends family stayed here a week ago for a week. I read the reviews and was very skeptical of staying here. VERY skeptical. Well Needless to say we had a fantastic experience. The hotel is being renovated and we stayed in a suie that was not. BUT it was clean and comfortable. The front desk gave us the BEST customer service I've ever experienced, and I use to be a front desk clerk. The breakfast was great and Monday-Thursday they serve dinner with soft drinks, beer and wine. I couldn't have asked for a better property. I will DEFINITELY stay there again and I recommend that you do too!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>RIWestchase, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded August 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2012</t>
+  </si>
+  <si>
+    <t>My family and a friends family stayed here a week ago for a week. I read the reviews and was very skeptical of staying here. VERY skeptical. Well Needless to say we had a fantastic experience. The hotel is being renovated and we stayed in a suie that was not. BUT it was clean and comfortable. The front desk gave us the BEST customer service I've ever experienced, and I use to be a front desk clerk. The breakfast was great and Monday-Thursday they serve dinner with soft drinks, beer and wine. I couldn't have asked for a better property. I will DEFINITELY stay there again and I recommend that you do too!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r131619641-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131619641</t>
+  </si>
+  <si>
+    <t>06/09/2012</t>
+  </si>
+  <si>
+    <t>Definitely not exemplary of the brand</t>
+  </si>
+  <si>
+    <t>I read below someone had called this hotel "not a good example of the brand". I wish I had read that before I booked here because that describes this hotel to a T. The one bedroom "suite" is actually a studio, though it's large, it's misrepresented. Just like the tennis court- which is a laughable tenth of the size of a tennis court. Completely unusable. The pool is murky, the laundry machines are in need of repair.  The room itself is greatly outdated and the bed is not comfortable. This is supposed to be a Residence Inn, a Marriott, a three star hotel and it carries a price that reflects those characteristics. Unfortunately the hotel itself is barely comparable with a 2 star. Save your money and stay somewhere else, if you've ever been to a Residence Inn before, this location is a great disappointment. MoreShow less</t>
+  </si>
+  <si>
+    <t>RIWestchase, General Manager at Residence Inn Houston Westchase on Westheimer, responded to this reviewResponded June 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2012</t>
+  </si>
+  <si>
+    <t>I read below someone had called this hotel "not a good example of the brand". I wish I had read that before I booked here because that describes this hotel to a T. The one bedroom "suite" is actually a studio, though it's large, it's misrepresented. Just like the tennis court- which is a laughable tenth of the size of a tennis court. Completely unusable. The pool is murky, the laundry machines are in need of repair.  The room itself is greatly outdated and the bed is not comfortable. This is supposed to be a Residence Inn, a Marriott, a three star hotel and it carries a price that reflects those characteristics. Unfortunately the hotel itself is barely comparable with a 2 star. Save your money and stay somewhere else, if you've ever been to a Residence Inn before, this location is a great disappointment. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r130878999-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -1675,6 +2656,48 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r98072153-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>98072153</t>
+  </si>
+  <si>
+    <t>02/26/2011</t>
+  </si>
+  <si>
+    <t>Needs updating</t>
+  </si>
+  <si>
+    <t>Good location and close to restaurants with a nice breakfast but the hotel needs updating. The rooms and kitchen are in need of repair and new appliances.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>Good location and close to restaurants with a nice breakfast but the hotel needs updating. The rooms and kitchen are in need of repair and new appliances.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r56320120-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56320120</t>
+  </si>
+  <si>
+    <t>02/17/2010</t>
+  </si>
+  <si>
+    <t>avoid if you need anything like internet or even someone at the desk</t>
+  </si>
+  <si>
+    <t>Rooms are fine. Convenient to companies in the area. Neaby Hilton, Marriott, etc. Horrible internet....slow would be a huge complement. And, if you try to call the front desk for assistance, you never get an answer--no one ever even picks up the phone. Don't know what one would do if there were a serious emergency. Maybe you pay for what you get but I'd avod this hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>Rooms are fine. Convenient to companies in the area. Neaby Hilton, Marriott, etc. Horrible internet....slow would be a huge complement. And, if you try to call the front desk for assistance, you never get an answer--no one ever even picks up the phone. Don't know what one would do if there were a serious emergency. Maybe you pay for what you get but I'd avod this hotelMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r47434308-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -1724,6 +2747,54 @@
   </si>
   <si>
     <t>January 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r7350534-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>7350534</t>
+  </si>
+  <si>
+    <t>04/13/2007</t>
+  </si>
+  <si>
+    <t>Good for Family and Pets</t>
+  </si>
+  <si>
+    <t>After many hours of research to find a hotel near the Westside Tennis Center, I found this one Resicence Inn.  I was going to book the Hilton by Westhimer because it seemed to have better reviews.  However, all the rooms were taken during the days we needed to stay.  I decided to stayed at this Hotel because we were four adults (my husband and my parents) as well as my dog "Xylla" Yorkie Terrier.   We booked a suite (#304) with two bedrooms, each one had its own bathroom (small but it was nice to have our own bathroom).  The place was convinient to walk my dog around the property or around the neighborhood next door to the hotel.  It had a full kitchet with pots and pans, plates, glasses to fix meals.  We only used the kitchen for snacks and beer ;0).  The breakfast was included in the price and it served between 6:00 and 9:30am....it was a complete hot breakfast (fruit, bread, wafles, scramble eggs, coffee, tea, yogurt).
+We didn't use the swiming pool but it was in good condition and clean.  The staff was friendly and helpful.
+One thing is that the Interner is NOT high speed, it is a share bandwith and if you are coming to Houston for business this is not the place for you because you will end up not getting anything done on time.  But if you are visiting to see friends, go...After many hours of research to find a hotel near the Westside Tennis Center, I found this one Resicence Inn.  I was going to book the Hilton by Westhimer because it seemed to have better reviews.  However, all the rooms were taken during the days we needed to stay.  I decided to stayed at this Hotel because we were four adults (my husband and my parents) as well as my dog "Xylla" Yorkie Terrier.   We booked a suite (#304) with two bedrooms, each one had its own bathroom (small but it was nice to have our own bathroom).  The place was convinient to walk my dog around the property or around the neighborhood next door to the hotel.  It had a full kitchet with pots and pans, plates, glasses to fix meals.  We only used the kitchen for snacks and beer ;0).  The breakfast was included in the price and it served between 6:00 and 9:30am....it was a complete hot breakfast (fruit, bread, wafles, scramble eggs, coffee, tea, yogurt).We didn't use the swiming pool but it was in good condition and clean.  The staff was friendly and helpful.One thing is that the Interner is NOT high speed, it is a share bandwith and if you are coming to Houston for business this is not the place for you because you will end up not getting anything done on time.  But if you are visiting to see friends, go shopping to the Galleria and/or visit a special event near this area then this is a nice place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>After many hours of research to find a hotel near the Westside Tennis Center, I found this one Resicence Inn.  I was going to book the Hilton by Westhimer because it seemed to have better reviews.  However, all the rooms were taken during the days we needed to stay.  I decided to stayed at this Hotel because we were four adults (my husband and my parents) as well as my dog "Xylla" Yorkie Terrier.   We booked a suite (#304) with two bedrooms, each one had its own bathroom (small but it was nice to have our own bathroom).  The place was convinient to walk my dog around the property or around the neighborhood next door to the hotel.  It had a full kitchet with pots and pans, plates, glasses to fix meals.  We only used the kitchen for snacks and beer ;0).  The breakfast was included in the price and it served between 6:00 and 9:30am....it was a complete hot breakfast (fruit, bread, wafles, scramble eggs, coffee, tea, yogurt).
+We didn't use the swiming pool but it was in good condition and clean.  The staff was friendly and helpful.
+One thing is that the Interner is NOT high speed, it is a share bandwith and if you are coming to Houston for business this is not the place for you because you will end up not getting anything done on time.  But if you are visiting to see friends, go...After many hours of research to find a hotel near the Westside Tennis Center, I found this one Resicence Inn.  I was going to book the Hilton by Westhimer because it seemed to have better reviews.  However, all the rooms were taken during the days we needed to stay.  I decided to stayed at this Hotel because we were four adults (my husband and my parents) as well as my dog "Xylla" Yorkie Terrier.   We booked a suite (#304) with two bedrooms, each one had its own bathroom (small but it was nice to have our own bathroom).  The place was convinient to walk my dog around the property or around the neighborhood next door to the hotel.  It had a full kitchet with pots and pans, plates, glasses to fix meals.  We only used the kitchen for snacks and beer ;0).  The breakfast was included in the price and it served between 6:00 and 9:30am....it was a complete hot breakfast (fruit, bread, wafles, scramble eggs, coffee, tea, yogurt).We didn't use the swiming pool but it was in good condition and clean.  The staff was friendly and helpful.One thing is that the Interner is NOT high speed, it is a share bandwith and if you are coming to Houston for business this is not the place for you because you will end up not getting anything done on time.  But if you are visiting to see friends, go shopping to the Galleria and/or visit a special event near this area then this is a nice place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r5516170-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5516170</t>
+  </si>
+  <si>
+    <t>07/26/2006</t>
+  </si>
+  <si>
+    <t>Just Ok...</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn Westchase July 20-23rd. This hotel is located next to a Courtyard. I decided on this hotel because I wanted a room with a lot of space.  For this stay, I had a one bedroom suite which was just like a one bedroom apartment including a kitchen with table and chairs, living room with TV, a desk and free internet access. When we checked in the hotel room, there was a very distinct smell like cheap cologne. I tried to spray some room fragrance, but that did not work. My stomach was sick because of the smell.  We later complained about it and was told that the guest staying next to us had a dog. YES, this hotel does allow pets. I believe the room they gave us was one that previously had an animal living there. Nonetheless, The hotel moved us to another room that was so much better. It was still a one bedroom suite, but was a lot fresher and cleaner than the first one.  There is a Kroger only steps away, so we were able to go there and buy a candle. 
+This hotel offers free breakfast and has an evening social with food and drinks. We did not try the food because we fell in love with a french restaurant a block away called Le Madaleine. They sell breakfast, lunch and dinner. IT'S WONDERFUL. We ate there everyday during our...I stayed at the Residence Inn Westchase July 20-23rd. This hotel is located next to a Courtyard. I decided on this hotel because I wanted a room with a lot of space.  For this stay, I had a one bedroom suite which was just like a one bedroom apartment including a kitchen with table and chairs, living room with TV, a desk and free internet access. When we checked in the hotel room, there was a very distinct smell like cheap cologne. I tried to spray some room fragrance, but that did not work. My stomach was sick because of the smell.  We later complained about it and was told that the guest staying next to us had a dog. YES, this hotel does allow pets. I believe the room they gave us was one that previously had an animal living there. Nonetheless, The hotel moved us to another room that was so much better. It was still a one bedroom suite, but was a lot fresher and cleaner than the first one.  There is a Kroger only steps away, so we were able to go there and buy a candle. This hotel offers free breakfast and has an evening social with food and drinks. We did not try the food because we fell in love with a french restaurant a block away called Le Madaleine. They sell breakfast, lunch and dinner. IT'S WONDERFUL. We ate there everyday during our stay.  Try the raspberry lemonade. The hotel is located on Westheimer. Most of our trip consisted of us going up and down Westheimer all day. There are SO many places to eat on this street. Everything you can imagine including upscale restaurants and regular fast food places. There are several Walmarts that are conveniently located in the area too. If you love Starbucks, then you will see hundreds of them in the area as well. The Galleria is in the area too. This place is so large that it would take several days to visit all of the stores. There are a lot of other places to shop outside of the Galleria. I plan to take another trip to Houston just to shop.  We ended our trip with a visit to Lakewood Church with Joel Osteen. This was the highlight of the trip. The service was excellent.. we would highly recommend it for Sunday Church service. Overall, my stay at this hotel was Ok. I think I will go for a 4 star hotel in the future.  Westheimer Street is a good location for a hotel, simply because of the location with easy access to shopping and eating.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn Westchase July 20-23rd. This hotel is located next to a Courtyard. I decided on this hotel because I wanted a room with a lot of space.  For this stay, I had a one bedroom suite which was just like a one bedroom apartment including a kitchen with table and chairs, living room with TV, a desk and free internet access. When we checked in the hotel room, there was a very distinct smell like cheap cologne. I tried to spray some room fragrance, but that did not work. My stomach was sick because of the smell.  We later complained about it and was told that the guest staying next to us had a dog. YES, this hotel does allow pets. I believe the room they gave us was one that previously had an animal living there. Nonetheless, The hotel moved us to another room that was so much better. It was still a one bedroom suite, but was a lot fresher and cleaner than the first one.  There is a Kroger only steps away, so we were able to go there and buy a candle. 
+This hotel offers free breakfast and has an evening social with food and drinks. We did not try the food because we fell in love with a french restaurant a block away called Le Madaleine. They sell breakfast, lunch and dinner. IT'S WONDERFUL. We ate there everyday during our...I stayed at the Residence Inn Westchase July 20-23rd. This hotel is located next to a Courtyard. I decided on this hotel because I wanted a room with a lot of space.  For this stay, I had a one bedroom suite which was just like a one bedroom apartment including a kitchen with table and chairs, living room with TV, a desk and free internet access. When we checked in the hotel room, there was a very distinct smell like cheap cologne. I tried to spray some room fragrance, but that did not work. My stomach was sick because of the smell.  We later complained about it and was told that the guest staying next to us had a dog. YES, this hotel does allow pets. I believe the room they gave us was one that previously had an animal living there. Nonetheless, The hotel moved us to another room that was so much better. It was still a one bedroom suite, but was a lot fresher and cleaner than the first one.  There is a Kroger only steps away, so we were able to go there and buy a candle. This hotel offers free breakfast and has an evening social with food and drinks. We did not try the food because we fell in love with a french restaurant a block away called Le Madaleine. They sell breakfast, lunch and dinner. IT'S WONDERFUL. We ate there everyday during our stay.  Try the raspberry lemonade. The hotel is located on Westheimer. Most of our trip consisted of us going up and down Westheimer all day. There are SO many places to eat on this street. Everything you can imagine including upscale restaurants and regular fast food places. There are several Walmarts that are conveniently located in the area too. If you love Starbucks, then you will see hundreds of them in the area as well. The Galleria is in the area too. This place is so large that it would take several days to visit all of the stores. There are a lot of other places to shop outside of the Galleria. I plan to take another trip to Houston just to shop.  We ended our trip with a visit to Lakewood Church with Joel Osteen. This was the highlight of the trip. The service was excellent.. we would highly recommend it for Sunday Church service. Overall, my stay at this hotel was Ok. I think I will go for a 4 star hotel in the future.  Westheimer Street is a good location for a hotel, simply because of the location with easy access to shopping and eating.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107867-r4349637-Residence_Inn_Houston_Westchase_on_Westheimer-Houston_Texas.html</t>
@@ -2297,7 +3368,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2306,22 +3377,28 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="n">
         <v>4</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -2337,7 +3414,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -2346,47 +3423,43 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -2402,7 +3475,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2411,43 +3484,43 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X4" t="s">
-        <v>71</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -2463,7 +3536,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2472,30 +3545,30 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
@@ -2506,13 +3579,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -2528,7 +3601,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2537,25 +3610,25 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2567,13 +3640,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -2589,7 +3662,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2598,43 +3671,49 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -2650,7 +3729,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2659,25 +3738,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2689,13 +3768,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -2711,7 +3790,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2720,49 +3799,47 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -2778,7 +3855,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2787,47 +3864,43 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
         <v>115</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>116</v>
-      </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="X10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -2843,7 +3916,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2852,47 +3925,43 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
         <v>121</v>
       </c>
-      <c r="J11" t="s">
-        <v>122</v>
-      </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -2908,7 +3977,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2917,43 +3986,47 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="X12" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -2969,7 +4042,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2978,25 +4051,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3008,13 +4081,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="X13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
@@ -3030,7 +4103,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -3039,25 +4112,25 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3069,13 +4142,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
@@ -3091,7 +4164,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -3100,43 +4173,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="O15" t="s">
-        <v>69</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="X15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y15" t="s">
         <v>161</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="16">
@@ -3152,41 +4231,45 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
         <v>163</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>164</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>165</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>166</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>167</v>
       </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>142</v>
-      </c>
       <c r="O16" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
@@ -3234,35 +4317,35 @@
         <v>175</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
         <v>176</v>
       </c>
       <c r="O17" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
+        <v>177</v>
+      </c>
+      <c r="X17" t="s">
         <v>178</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>179</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="18">
@@ -3278,43 +4361,41 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
         <v>181</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>182</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>183</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>184</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>185</v>
       </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>176</v>
-      </c>
       <c r="O18" t="s">
-        <v>69</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -3372,15 +4453,13 @@
         <v>176</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
@@ -3436,23 +4515,17 @@
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
@@ -3503,21 +4576,17 @@
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
@@ -3571,20 +4640,14 @@
         <v>218</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
@@ -3623,46 +4686,46 @@
         <v>223</v>
       </c>
       <c r="J23" t="s">
+        <v>215</v>
+      </c>
+      <c r="K23" t="s">
         <v>224</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>225</v>
       </c>
-      <c r="L23" t="s">
-        <v>226</v>
-      </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="O23" t="s">
-        <v>69</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="X23" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="Y23" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
@@ -3678,58 +4741,52 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>228</v>
+      </c>
+      <c r="J24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s">
         <v>231</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>232</v>
       </c>
-      <c r="J24" t="s">
-        <v>233</v>
-      </c>
-      <c r="K24" t="s">
-        <v>234</v>
-      </c>
-      <c r="L24" t="s">
-        <v>235</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>236</v>
-      </c>
       <c r="O24" t="s">
-        <v>69</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="X24" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Y24" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
@@ -3745,56 +4802,52 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" t="s">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s">
         <v>240</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
-        <v>241</v>
-      </c>
-      <c r="J25" t="s">
-        <v>242</v>
-      </c>
-      <c r="K25" t="s">
-        <v>243</v>
-      </c>
-      <c r="L25" t="s">
-        <v>244</v>
-      </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="O25" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="X25" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Y25" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26">
@@ -3810,7 +4863,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3819,22 +4872,26 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="J26" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K26" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>185</v>
+      </c>
+      <c r="O26" t="s">
+        <v>88</v>
+      </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
@@ -3845,13 +4902,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="X26" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="Y26" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
@@ -3867,7 +4924,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3876,49 +4933,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="J27" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="K27" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="O27" t="s">
-        <v>262</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="X27" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Y27" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
@@ -3934,39 +4991,41 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>261</v>
+      </c>
+      <c r="J28" t="s">
+        <v>262</v>
+      </c>
+      <c r="K28" t="s">
+        <v>263</v>
+      </c>
+      <c r="L28" t="s">
         <v>264</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
-        <v>265</v>
-      </c>
-      <c r="J28" t="s">
-        <v>266</v>
-      </c>
-      <c r="K28" t="s">
-        <v>267</v>
-      </c>
-      <c r="L28" t="s">
-        <v>268</v>
-      </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="O28" t="s">
-        <v>69</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
       <c r="Q28" t="s"/>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
@@ -3977,13 +5036,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="X28" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Y28" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
@@ -3999,7 +5058,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -4008,30 +5067,28 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="J29" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="O29" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
       <c r="S29" t="n">
         <v>5</v>
@@ -4044,13 +5101,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="X29" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Y29" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30">
@@ -4066,7 +5123,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -4075,45 +5132,49 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="J30" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="O30" t="s">
-        <v>69</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>1</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="X30" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Y30" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31">
@@ -4129,7 +5190,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4138,43 +5199,49 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J31" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K31" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L31" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="X31" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="Y31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32">
@@ -4190,53 +5257,49 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>292</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>293</v>
+      </c>
+      <c r="J32" t="s">
+        <v>286</v>
+      </c>
+      <c r="K32" t="s">
         <v>294</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="L32" t="s">
         <v>295</v>
       </c>
-      <c r="J32" t="s">
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
         <v>296</v>
       </c>
-      <c r="K32" t="s">
-        <v>297</v>
-      </c>
-      <c r="L32" t="s">
-        <v>298</v>
-      </c>
-      <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s">
-        <v>227</v>
-      </c>
       <c r="O32" t="s">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="X32" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="Y32" t="s">
         <v>299</v>
@@ -4279,19 +5342,17 @@
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="O33" t="s">
-        <v>69</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
       <c r="Q33" t="s"/>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>5</v>
@@ -4346,19 +5407,19 @@
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="O34" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
       </c>
       <c r="Q34" t="s"/>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>5</v>
@@ -4413,28 +5474,32 @@
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>321</v>
+        <v>218</v>
       </c>
       <c r="O35" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
+        <v>321</v>
+      </c>
+      <c r="X35" t="s">
         <v>322</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>323</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="36">
@@ -4450,40 +5515,42 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>324</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
         <v>325</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>326</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>327</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>328</v>
       </c>
-      <c r="L36" t="s">
-        <v>329</v>
-      </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="O36" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
       </c>
       <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
@@ -4493,13 +5560,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
+        <v>329</v>
+      </c>
+      <c r="X36" t="s">
         <v>330</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>331</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="37">
@@ -4515,52 +5582,58 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>332</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
         <v>333</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>334</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>335</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>336</v>
       </c>
-      <c r="L37" t="s">
-        <v>337</v>
-      </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="O37" t="s">
-        <v>69</v>
-      </c>
-      <c r="P37" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
       <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
+        <v>337</v>
+      </c>
+      <c r="X37" t="s">
         <v>338</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>339</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="38">
@@ -4576,40 +5649,40 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>340</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
         <v>341</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>342</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>343</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>344</v>
       </c>
-      <c r="L38" t="s">
-        <v>345</v>
-      </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
-      </c>
-      <c r="P38" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
       <c r="Q38" t="s"/>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
+      <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
@@ -4619,13 +5692,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
+        <v>345</v>
+      </c>
+      <c r="X38" t="s">
         <v>346</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>347</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="39">
@@ -4641,40 +5714,40 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>348</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
         <v>349</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>350</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>351</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>352</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
         <v>353</v>
       </c>
-      <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s">
-        <v>245</v>
-      </c>
       <c r="O39" t="s">
-        <v>60</v>
-      </c>
-      <c r="P39" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
       <c r="Q39" t="s"/>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
+      <c r="R39" t="s"/>
       <c r="S39" t="n">
         <v>4</v>
       </c>
@@ -4686,13 +5759,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="X39" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Y39" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40">
@@ -4708,7 +5781,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4717,43 +5790,49 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J40" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K40" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>245</v>
+        <v>362</v>
       </c>
       <c r="O40" t="s">
-        <v>69</v>
-      </c>
-      <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
       <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="X40" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="Y40" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41">
@@ -4769,7 +5848,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4778,49 +5857,47 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="J41" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K41" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L41" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="O41" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="X41" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Y41" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42">
@@ -4836,7 +5913,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4845,49 +5922,43 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="J42" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="K42" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="L42" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="O42" t="s">
-        <v>69</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="X42" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="Y42" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43">
@@ -4903,7 +5974,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4912,47 +5983,39 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="J43" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="K43" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="L43" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
-      <c r="N43" t="s">
-        <v>366</v>
-      </c>
-      <c r="O43" t="s">
-        <v>60</v>
-      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
       <c r="P43" t="s"/>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="X43" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="Y43" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44">
@@ -4968,7 +6031,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4977,47 +6040,39 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J44" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="K44" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="L44" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
-      </c>
-      <c r="N44" t="s">
-        <v>366</v>
-      </c>
-      <c r="O44" t="s">
-        <v>69</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="X44" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Y44" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45">
@@ -5033,7 +6088,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -5042,43 +6097,49 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="J45" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="K45" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="L45" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="O45" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" t="s"/>
+        <v>381</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
       <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="X45" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Y45" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46">
@@ -5094,7 +6155,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -5103,49 +6164,47 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="J46" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="K46" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="L46" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="O46" t="s">
-        <v>69</v>
-      </c>
-      <c r="P46" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="X46" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="Y46" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47">
@@ -5161,7 +6220,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5170,33 +6229,31 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="J47" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="K47" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="L47" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
       </c>
       <c r="Q47" t="s"/>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
+      <c r="R47" t="s"/>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
@@ -5206,13 +6263,13 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="X47" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="Y47" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48">
@@ -5228,7 +6285,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5237,32 +6294,34 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="J48" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="K48" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="L48" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="O48" t="s">
-        <v>177</v>
-      </c>
-      <c r="P48" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
       <c r="Q48" t="s"/>
-      <c r="R48" t="s"/>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>5</v>
@@ -5271,13 +6330,13 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="X48" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="Y48" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49">
@@ -5293,7 +6352,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5302,43 +6361,49 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="J49" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="K49" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="L49" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="O49" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P49" t="s"/>
-      <c r="Q49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
       <c r="R49" t="s"/>
-      <c r="S49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
       <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="X49" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="Y49" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50">
@@ -5354,7 +6419,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5363,47 +6428,45 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="J50" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="K50" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="L50" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="O50" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
       <c r="R50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>5</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="X50" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Y50" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51">
@@ -5419,7 +6482,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5428,49 +6491,43 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="J51" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K51" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="L51" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="O51" t="s">
-        <v>69</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
+      <c r="R51" t="s"/>
       <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>1</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="X51" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="Y51" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52">
@@ -5486,7 +6543,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5495,49 +6552,49 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="J52" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="K52" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="L52" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>353</v>
+      </c>
+      <c r="O52" t="s">
+        <v>88</v>
+      </c>
+      <c r="P52" t="n">
         <v>4</v>
       </c>
-      <c r="N52" t="s">
-        <v>451</v>
-      </c>
-      <c r="O52" t="s">
-        <v>69</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
-      <c r="R52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="X52" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="Y52" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="53">
@@ -5553,7 +6610,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5562,35 +6619,29 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="J53" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K53" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L53" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>460</v>
+        <v>353</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
       <c r="S53" t="n">
         <v>5</v>
       </c>
@@ -5602,13 +6653,13 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="X53" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="Y53" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54">
@@ -5624,7 +6675,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5633,53 +6684,47 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J54" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K54" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L54" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>469</v>
+        <v>353</v>
       </c>
       <c r="O54" t="s">
-        <v>69</v>
-      </c>
-      <c r="P54" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
       <c r="Q54" t="n">
         <v>4</v>
       </c>
-      <c r="R54" t="n">
-        <v>4</v>
-      </c>
-      <c r="S54" t="n">
-        <v>4</v>
-      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
+        <v>437</v>
+      </c>
+      <c r="X54" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y54" t="s">
         <v>470</v>
-      </c>
-      <c r="X54" t="s">
-        <v>471</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="55">
@@ -5695,46 +6740,42 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
+        <v>471</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>472</v>
+      </c>
+      <c r="J55" t="s">
         <v>473</v>
       </c>
-      <c r="G55" t="s">
-        <v>46</v>
-      </c>
-      <c r="H55" t="s">
-        <v>47</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="K55" t="s">
         <v>474</v>
       </c>
-      <c r="J55" t="s">
+      <c r="L55" t="s">
         <v>475</v>
       </c>
-      <c r="K55" t="s">
-        <v>476</v>
-      </c>
-      <c r="L55" t="s">
-        <v>477</v>
-      </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>469</v>
+        <v>353</v>
       </c>
       <c r="O55" t="s">
-        <v>60</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>4</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
       <c r="R55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
@@ -5744,13 +6785,13 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
+        <v>476</v>
+      </c>
+      <c r="X55" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y55" t="s">
         <v>478</v>
-      </c>
-      <c r="X55" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="56">
@@ -5766,47 +6807,43 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
+        <v>479</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>480</v>
+      </c>
+      <c r="J56" t="s">
         <v>481</v>
       </c>
-      <c r="G56" t="s">
-        <v>46</v>
-      </c>
-      <c r="H56" t="s">
-        <v>47</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="K56" t="s">
         <v>482</v>
       </c>
-      <c r="J56" t="s">
+      <c r="L56" t="s">
         <v>483</v>
       </c>
-      <c r="K56" t="s">
-        <v>484</v>
-      </c>
-      <c r="L56" t="s">
-        <v>485</v>
-      </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>486</v>
+        <v>353</v>
       </c>
       <c r="O56" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
       </c>
-      <c r="Q56" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q56" t="s"/>
       <c r="R56" t="n">
         <v>5</v>
       </c>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
         <v>5</v>
@@ -5814,10 +6851,14 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>484</v>
+      </c>
+      <c r="X56" t="s">
+        <v>485</v>
+      </c>
       <c r="Y56" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="57">
@@ -5833,58 +6874,48 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
+        <v>487</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
         <v>488</v>
       </c>
-      <c r="G57" t="s">
-        <v>46</v>
-      </c>
-      <c r="H57" t="s">
-        <v>47</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>489</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>490</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>491</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>484</v>
+      </c>
+      <c r="X57" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y57" t="s">
         <v>492</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5</v>
-      </c>
-      <c r="N57" t="s">
-        <v>493</v>
-      </c>
-      <c r="O57" t="s">
-        <v>69</v>
-      </c>
-      <c r="P57" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>5</v>
-      </c>
-      <c r="R57" t="n">
-        <v>5</v>
-      </c>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
-      <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>5</v>
-      </c>
-      <c r="V57" t="n">
-        <v>0</v>
-      </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
-      <c r="Y57" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="58">
@@ -5900,46 +6931,42 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
+        <v>493</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>494</v>
+      </c>
+      <c r="J58" t="s">
         <v>495</v>
       </c>
-      <c r="G58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H58" t="s">
-        <v>47</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="K58" t="s">
         <v>496</v>
       </c>
-      <c r="J58" t="s">
+      <c r="L58" t="s">
         <v>497</v>
       </c>
-      <c r="K58" t="s">
-        <v>498</v>
-      </c>
-      <c r="L58" t="s">
-        <v>499</v>
-      </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>500</v>
+        <v>371</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
-      </c>
-      <c r="P58" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>4</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
       <c r="R58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
@@ -5948,10 +6975,14 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>484</v>
+      </c>
+      <c r="X58" t="s">
+        <v>485</v>
+      </c>
       <c r="Y58" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59">
@@ -5967,62 +6998,52 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
+        <v>499</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>500</v>
+      </c>
+      <c r="J59" t="s">
         <v>501</v>
       </c>
-      <c r="G59" t="s">
-        <v>46</v>
-      </c>
-      <c r="H59" t="s">
-        <v>47</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="K59" t="s">
         <v>502</v>
       </c>
-      <c r="J59" t="s">
+      <c r="L59" t="s">
         <v>503</v>
       </c>
-      <c r="K59" t="s">
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
         <v>504</v>
       </c>
-      <c r="L59" t="s">
+      <c r="O59" t="s">
+        <v>88</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
         <v>505</v>
       </c>
-      <c r="M59" t="n">
-        <v>5</v>
-      </c>
-      <c r="N59" t="s">
+      <c r="X59" t="s">
         <v>506</v>
       </c>
-      <c r="O59" t="s">
-        <v>69</v>
-      </c>
-      <c r="P59" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>5</v>
-      </c>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
-      <c r="T59" t="s"/>
-      <c r="U59" t="n">
-        <v>5</v>
-      </c>
-      <c r="V59" t="n">
-        <v>0</v>
-      </c>
-      <c r="W59" t="s">
+      <c r="Y59" t="s">
         <v>507</v>
-      </c>
-      <c r="X59" t="s">
-        <v>508</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="60">
@@ -6038,62 +7059,56 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
+        <v>508</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>509</v>
+      </c>
+      <c r="J60" t="s">
         <v>510</v>
       </c>
-      <c r="G60" t="s">
-        <v>46</v>
-      </c>
-      <c r="H60" t="s">
-        <v>47</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="K60" t="s">
         <v>511</v>
       </c>
-      <c r="J60" t="s">
+      <c r="L60" t="s">
         <v>512</v>
       </c>
-      <c r="K60" t="s">
-        <v>513</v>
-      </c>
-      <c r="L60" t="s">
-        <v>514</v>
-      </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>515</v>
+        <v>436</v>
       </c>
       <c r="O60" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="P60" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>3</v>
-      </c>
-      <c r="R60" t="n">
-        <v>5</v>
-      </c>
-      <c r="S60" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="X60" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="Y60" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="61">
@@ -6109,34 +7124,34 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
+        <v>516</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>517</v>
+      </c>
+      <c r="J61" t="s">
+        <v>518</v>
+      </c>
+      <c r="K61" t="s">
         <v>519</v>
       </c>
-      <c r="G61" t="s">
-        <v>46</v>
-      </c>
-      <c r="H61" t="s">
-        <v>47</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="L61" t="s">
         <v>520</v>
       </c>
-      <c r="J61" t="s">
-        <v>521</v>
-      </c>
-      <c r="K61" t="s">
-        <v>522</v>
-      </c>
-      <c r="L61" t="s">
-        <v>523</v>
-      </c>
       <c r="M61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>524</v>
+        <v>436</v>
       </c>
       <c r="O61" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6148,13 +7163,13 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="X61" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Y61" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="62">
@@ -6170,62 +7185,58 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
+        <v>524</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>525</v>
+      </c>
+      <c r="J62" t="s">
+        <v>526</v>
+      </c>
+      <c r="K62" t="s">
+        <v>527</v>
+      </c>
+      <c r="L62" t="s">
         <v>528</v>
       </c>
-      <c r="G62" t="s">
-        <v>46</v>
-      </c>
-      <c r="H62" t="s">
-        <v>47</v>
-      </c>
-      <c r="I62" t="s">
-        <v>529</v>
-      </c>
-      <c r="J62" t="s">
-        <v>530</v>
-      </c>
-      <c r="K62" t="s">
-        <v>531</v>
-      </c>
-      <c r="L62" t="s">
-        <v>532</v>
-      </c>
       <c r="M62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
-      </c>
-      <c r="P62" t="n">
-        <v>3</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P62" t="s"/>
       <c r="Q62" t="n">
-        <v>2</v>
-      </c>
-      <c r="R62" t="n">
         <v>4</v>
       </c>
+      <c r="R62" t="s"/>
       <c r="S62" t="n">
         <v>2</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="X62" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="Y62" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="63">
@@ -6241,7 +7252,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6250,37 +7261,33 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="J63" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="K63" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L63" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="M63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>533</v>
+        <v>371</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
       </c>
-      <c r="Q63" t="n">
-        <v>5</v>
-      </c>
-      <c r="R63" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
       <c r="S63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
@@ -6290,13 +7297,13 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="X63" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="Y63" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="64">
@@ -6312,47 +7319,41 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
+        <v>540</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>541</v>
+      </c>
+      <c r="J64" t="s">
+        <v>542</v>
+      </c>
+      <c r="K64" t="s">
         <v>543</v>
       </c>
-      <c r="G64" t="s">
-        <v>46</v>
-      </c>
-      <c r="H64" t="s">
-        <v>47</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="L64" t="s">
         <v>544</v>
       </c>
-      <c r="J64" t="s">
-        <v>545</v>
-      </c>
-      <c r="K64" t="s">
-        <v>546</v>
-      </c>
-      <c r="L64" t="s">
-        <v>547</v>
-      </c>
       <c r="M64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>548</v>
+        <v>371</v>
       </c>
       <c r="O64" t="s">
-        <v>60</v>
-      </c>
-      <c r="P64" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>4</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
       <c r="R64" t="n">
         <v>5</v>
       </c>
-      <c r="S64" t="n">
-        <v>5</v>
-      </c>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
         <v>5</v>
@@ -6360,10 +7361,14 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
+      <c r="W64" t="s">
+        <v>537</v>
+      </c>
+      <c r="X64" t="s">
+        <v>538</v>
+      </c>
       <c r="Y64" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="65">
@@ -6379,43 +7384,39 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
+        <v>546</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>547</v>
+      </c>
+      <c r="J65" t="s">
+        <v>548</v>
+      </c>
+      <c r="K65" t="s">
         <v>549</v>
       </c>
-      <c r="G65" t="s">
-        <v>46</v>
-      </c>
-      <c r="H65" t="s">
-        <v>47</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="L65" t="s">
         <v>550</v>
       </c>
-      <c r="J65" t="s">
-        <v>551</v>
-      </c>
-      <c r="K65" t="s">
-        <v>552</v>
-      </c>
-      <c r="L65" t="s">
-        <v>553</v>
-      </c>
       <c r="M65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>554</v>
+        <v>371</v>
       </c>
       <c r="O65" t="s">
-        <v>262</v>
-      </c>
-      <c r="P65" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>4</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
       <c r="R65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S65" t="n">
         <v>4</v>
@@ -6427,10 +7428,14 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
+      <c r="W65" t="s">
+        <v>537</v>
+      </c>
+      <c r="X65" t="s">
+        <v>538</v>
+      </c>
       <c r="Y65" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="66">
@@ -6446,54 +7451,52 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
+        <v>552</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>553</v>
+      </c>
+      <c r="J66" t="s">
+        <v>554</v>
+      </c>
+      <c r="K66" t="s">
         <v>555</v>
       </c>
-      <c r="G66" t="s">
-        <v>46</v>
-      </c>
-      <c r="H66" t="s">
-        <v>47</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="L66" t="s">
         <v>556</v>
       </c>
-      <c r="J66" t="s">
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>371</v>
+      </c>
+      <c r="O66" t="s">
+        <v>88</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>537</v>
+      </c>
+      <c r="X66" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y66" t="s">
         <v>557</v>
-      </c>
-      <c r="K66" t="s">
-        <v>558</v>
-      </c>
-      <c r="L66" t="s">
-        <v>559</v>
-      </c>
-      <c r="M66" t="n">
-        <v>2</v>
-      </c>
-      <c r="N66" t="s"/>
-      <c r="O66" t="s"/>
-      <c r="P66" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>2</v>
-      </c>
-      <c r="R66" t="n">
-        <v>3</v>
-      </c>
-      <c r="S66" t="n">
-        <v>1</v>
-      </c>
-      <c r="T66" t="s"/>
-      <c r="U66" t="n">
-        <v>3</v>
-      </c>
-      <c r="V66" t="n">
-        <v>0</v>
-      </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
-      <c r="Y66" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="67">
@@ -6509,58 +7512,56 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
+        <v>558</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>559</v>
+      </c>
+      <c r="J67" t="s">
         <v>560</v>
       </c>
-      <c r="G67" t="s">
-        <v>46</v>
-      </c>
-      <c r="H67" t="s">
-        <v>47</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="K67" t="s">
         <v>561</v>
       </c>
-      <c r="J67" t="s">
+      <c r="L67" t="s">
         <v>562</v>
       </c>
-      <c r="K67" t="s">
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
         <v>563</v>
       </c>
-      <c r="L67" t="s">
-        <v>564</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="s">
-        <v>565</v>
-      </c>
       <c r="O67" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P67" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>1</v>
-      </c>
-      <c r="R67" t="n">
-        <v>3</v>
-      </c>
-      <c r="S67" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
+      <c r="W67" t="s">
+        <v>564</v>
+      </c>
+      <c r="X67" t="s">
+        <v>565</v>
+      </c>
       <c r="Y67" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="68">
@@ -6576,7 +7577,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6585,45 +7586,49 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="J68" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="K68" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L68" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O68" t="s">
-        <v>69</v>
-      </c>
-      <c r="P68" t="s"/>
-      <c r="Q68" t="n">
+        <v>79</v>
+      </c>
+      <c r="P68" t="n">
         <v>4</v>
       </c>
-      <c r="R68" t="s"/>
-      <c r="S68" t="n">
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
         <v>4</v>
       </c>
+      <c r="S68" t="s"/>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
+      <c r="W68" t="s">
+        <v>573</v>
+      </c>
+      <c r="X68" t="s">
+        <v>574</v>
+      </c>
       <c r="Y68" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="69">
@@ -6639,7 +7644,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -6648,35 +7653,3105 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="J69" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K69" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="L69" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="M69" t="n">
-        <v>4</v>
-      </c>
-      <c r="N69" t="s"/>
-      <c r="O69" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>572</v>
+      </c>
+      <c r="O69" t="s">
+        <v>88</v>
+      </c>
       <c r="P69" t="s"/>
-      <c r="Q69" t="s"/>
-      <c r="R69" t="s"/>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
       <c r="S69" t="s"/>
       <c r="T69" t="s"/>
-      <c r="U69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
+      <c r="W69" t="s">
+        <v>581</v>
+      </c>
+      <c r="X69" t="s">
+        <v>582</v>
+      </c>
       <c r="Y69" t="s">
-        <v>578</v>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>584</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>585</v>
+      </c>
+      <c r="J70" t="s">
+        <v>586</v>
+      </c>
+      <c r="K70" t="s">
+        <v>587</v>
+      </c>
+      <c r="L70" t="s">
+        <v>588</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>572</v>
+      </c>
+      <c r="O70" t="s">
+        <v>88</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>589</v>
+      </c>
+      <c r="X70" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>592</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>593</v>
+      </c>
+      <c r="J71" t="s">
+        <v>594</v>
+      </c>
+      <c r="K71" t="s">
+        <v>595</v>
+      </c>
+      <c r="L71" t="s">
+        <v>596</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>572</v>
+      </c>
+      <c r="O71" t="s">
+        <v>79</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>597</v>
+      </c>
+      <c r="X71" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>600</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>601</v>
+      </c>
+      <c r="J72" t="s">
+        <v>602</v>
+      </c>
+      <c r="K72" t="s">
+        <v>603</v>
+      </c>
+      <c r="L72" t="s">
+        <v>604</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>572</v>
+      </c>
+      <c r="O72" t="s">
+        <v>79</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>605</v>
+      </c>
+      <c r="X72" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>608</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>609</v>
+      </c>
+      <c r="J73" t="s">
+        <v>610</v>
+      </c>
+      <c r="K73" t="s">
+        <v>611</v>
+      </c>
+      <c r="L73" t="s">
+        <v>612</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>572</v>
+      </c>
+      <c r="O73" t="s">
+        <v>88</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>605</v>
+      </c>
+      <c r="X73" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>614</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>615</v>
+      </c>
+      <c r="J74" t="s">
+        <v>616</v>
+      </c>
+      <c r="K74" t="s">
+        <v>617</v>
+      </c>
+      <c r="L74" t="s">
+        <v>618</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>572</v>
+      </c>
+      <c r="O74" t="s">
+        <v>88</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>619</v>
+      </c>
+      <c r="X74" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>622</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>623</v>
+      </c>
+      <c r="J75" t="s">
+        <v>616</v>
+      </c>
+      <c r="K75" t="s">
+        <v>624</v>
+      </c>
+      <c r="L75" t="s">
+        <v>625</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>572</v>
+      </c>
+      <c r="O75" t="s">
+        <v>79</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>619</v>
+      </c>
+      <c r="X75" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>627</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>628</v>
+      </c>
+      <c r="J76" t="s">
+        <v>629</v>
+      </c>
+      <c r="K76" t="s">
+        <v>630</v>
+      </c>
+      <c r="L76" t="s">
+        <v>631</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>632</v>
+      </c>
+      <c r="O76" t="s">
+        <v>88</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>633</v>
+      </c>
+      <c r="X76" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>636</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>637</v>
+      </c>
+      <c r="J77" t="s">
+        <v>638</v>
+      </c>
+      <c r="K77" t="s">
+        <v>639</v>
+      </c>
+      <c r="L77" t="s">
+        <v>640</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>633</v>
+      </c>
+      <c r="X77" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>642</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>643</v>
+      </c>
+      <c r="J78" t="s">
+        <v>644</v>
+      </c>
+      <c r="K78" t="s">
+        <v>645</v>
+      </c>
+      <c r="L78" t="s">
+        <v>646</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>572</v>
+      </c>
+      <c r="O78" t="s">
+        <v>88</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>633</v>
+      </c>
+      <c r="X78" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>648</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>649</v>
+      </c>
+      <c r="J79" t="s">
+        <v>650</v>
+      </c>
+      <c r="K79" t="s">
+        <v>651</v>
+      </c>
+      <c r="L79" t="s">
+        <v>652</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>632</v>
+      </c>
+      <c r="O79" t="s">
+        <v>79</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>633</v>
+      </c>
+      <c r="X79" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>654</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>655</v>
+      </c>
+      <c r="J80" t="s">
+        <v>656</v>
+      </c>
+      <c r="K80" t="s">
+        <v>657</v>
+      </c>
+      <c r="L80" t="s">
+        <v>658</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>632</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>659</v>
+      </c>
+      <c r="X80" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>662</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>663</v>
+      </c>
+      <c r="J81" t="s">
+        <v>664</v>
+      </c>
+      <c r="K81" t="s">
+        <v>665</v>
+      </c>
+      <c r="L81" t="s">
+        <v>666</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>632</v>
+      </c>
+      <c r="O81" t="s">
+        <v>79</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>667</v>
+      </c>
+      <c r="X81" t="s">
+        <v>668</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>670</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>671</v>
+      </c>
+      <c r="J82" t="s">
+        <v>672</v>
+      </c>
+      <c r="K82" t="s">
+        <v>673</v>
+      </c>
+      <c r="L82" t="s">
+        <v>674</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>675</v>
+      </c>
+      <c r="O82" t="s">
+        <v>79</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>676</v>
+      </c>
+      <c r="X82" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>679</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>680</v>
+      </c>
+      <c r="J83" t="s">
+        <v>681</v>
+      </c>
+      <c r="K83" t="s">
+        <v>682</v>
+      </c>
+      <c r="L83" t="s">
+        <v>683</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>684</v>
+      </c>
+      <c r="O83" t="s">
+        <v>88</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>685</v>
+      </c>
+      <c r="X83" t="s">
+        <v>686</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>688</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>689</v>
+      </c>
+      <c r="J84" t="s">
+        <v>690</v>
+      </c>
+      <c r="K84" t="s">
+        <v>691</v>
+      </c>
+      <c r="L84" t="s">
+        <v>692</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>693</v>
+      </c>
+      <c r="O84" t="s">
+        <v>88</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>694</v>
+      </c>
+      <c r="X84" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>697</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>698</v>
+      </c>
+      <c r="J85" t="s">
+        <v>699</v>
+      </c>
+      <c r="K85" t="s">
+        <v>700</v>
+      </c>
+      <c r="L85" t="s">
+        <v>701</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>693</v>
+      </c>
+      <c r="O85" t="s">
+        <v>88</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>702</v>
+      </c>
+      <c r="X85" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>705</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>706</v>
+      </c>
+      <c r="J86" t="s">
+        <v>699</v>
+      </c>
+      <c r="K86" t="s">
+        <v>707</v>
+      </c>
+      <c r="L86" t="s">
+        <v>708</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>709</v>
+      </c>
+      <c r="O86" t="s">
+        <v>88</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>710</v>
+      </c>
+      <c r="X86" t="s">
+        <v>711</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>713</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>714</v>
+      </c>
+      <c r="J87" t="s">
+        <v>715</v>
+      </c>
+      <c r="K87" t="s">
+        <v>294</v>
+      </c>
+      <c r="L87" t="s">
+        <v>716</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>717</v>
+      </c>
+      <c r="O87" t="s">
+        <v>79</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>694</v>
+      </c>
+      <c r="X87" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>719</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>720</v>
+      </c>
+      <c r="J88" t="s">
+        <v>721</v>
+      </c>
+      <c r="K88" t="s">
+        <v>722</v>
+      </c>
+      <c r="L88" t="s">
+        <v>723</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>724</v>
+      </c>
+      <c r="O88" t="s">
+        <v>88</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>725</v>
+      </c>
+      <c r="X88" t="s">
+        <v>726</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>728</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>729</v>
+      </c>
+      <c r="J89" t="s">
+        <v>730</v>
+      </c>
+      <c r="K89" t="s">
+        <v>731</v>
+      </c>
+      <c r="L89" t="s">
+        <v>732</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>733</v>
+      </c>
+      <c r="O89" t="s">
+        <v>79</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>734</v>
+      </c>
+      <c r="X89" t="s">
+        <v>735</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>737</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>738</v>
+      </c>
+      <c r="J90" t="s">
+        <v>739</v>
+      </c>
+      <c r="K90" t="s">
+        <v>740</v>
+      </c>
+      <c r="L90" t="s">
+        <v>741</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>742</v>
+      </c>
+      <c r="O90" t="s">
+        <v>88</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>743</v>
+      </c>
+      <c r="X90" t="s">
+        <v>744</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>746</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>747</v>
+      </c>
+      <c r="J91" t="s">
+        <v>748</v>
+      </c>
+      <c r="K91" t="s">
+        <v>749</v>
+      </c>
+      <c r="L91" t="s">
+        <v>750</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>742</v>
+      </c>
+      <c r="O91" t="s">
+        <v>79</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>751</v>
+      </c>
+      <c r="X91" t="s">
+        <v>752</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>754</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>755</v>
+      </c>
+      <c r="J92" t="s">
+        <v>756</v>
+      </c>
+      <c r="K92" t="s">
+        <v>757</v>
+      </c>
+      <c r="L92" t="s">
+        <v>758</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="s">
+        <v>742</v>
+      </c>
+      <c r="O92" t="s">
+        <v>88</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>759</v>
+      </c>
+      <c r="X92" t="s">
+        <v>760</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>762</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>763</v>
+      </c>
+      <c r="J93" t="s">
+        <v>764</v>
+      </c>
+      <c r="K93" t="s">
+        <v>765</v>
+      </c>
+      <c r="L93" t="s">
+        <v>766</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>767</v>
+      </c>
+      <c r="O93" t="s">
+        <v>79</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>694</v>
+      </c>
+      <c r="X93" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>769</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>770</v>
+      </c>
+      <c r="J94" t="s">
+        <v>771</v>
+      </c>
+      <c r="K94" t="s">
+        <v>772</v>
+      </c>
+      <c r="L94" t="s">
+        <v>773</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>767</v>
+      </c>
+      <c r="O94" t="s">
+        <v>79</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>775</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>776</v>
+      </c>
+      <c r="J95" t="s">
+        <v>777</v>
+      </c>
+      <c r="K95" t="s">
+        <v>778</v>
+      </c>
+      <c r="L95" t="s">
+        <v>779</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>780</v>
+      </c>
+      <c r="O95" t="s">
+        <v>88</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>782</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>783</v>
+      </c>
+      <c r="J96" t="s">
+        <v>784</v>
+      </c>
+      <c r="K96" t="s">
+        <v>785</v>
+      </c>
+      <c r="L96" t="s">
+        <v>786</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>787</v>
+      </c>
+      <c r="O96" t="s">
+        <v>79</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>788</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>789</v>
+      </c>
+      <c r="J97" t="s">
+        <v>790</v>
+      </c>
+      <c r="K97" t="s">
+        <v>791</v>
+      </c>
+      <c r="L97" t="s">
+        <v>792</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>793</v>
+      </c>
+      <c r="O97" t="s">
+        <v>79</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>794</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>795</v>
+      </c>
+      <c r="J98" t="s">
+        <v>796</v>
+      </c>
+      <c r="K98" t="s">
+        <v>797</v>
+      </c>
+      <c r="L98" t="s">
+        <v>798</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>799</v>
+      </c>
+      <c r="O98" t="s">
+        <v>88</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>800</v>
+      </c>
+      <c r="X98" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>803</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>804</v>
+      </c>
+      <c r="J99" t="s">
+        <v>805</v>
+      </c>
+      <c r="K99" t="s">
+        <v>806</v>
+      </c>
+      <c r="L99" t="s">
+        <v>807</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>808</v>
+      </c>
+      <c r="O99" t="s">
+        <v>88</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>809</v>
+      </c>
+      <c r="X99" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>812</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>813</v>
+      </c>
+      <c r="J100" t="s">
+        <v>814</v>
+      </c>
+      <c r="K100" t="s">
+        <v>815</v>
+      </c>
+      <c r="L100" t="s">
+        <v>816</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>817</v>
+      </c>
+      <c r="O100" t="s">
+        <v>88</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>3</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>818</v>
+      </c>
+      <c r="X100" t="s">
+        <v>819</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>821</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>822</v>
+      </c>
+      <c r="J101" t="s">
+        <v>823</v>
+      </c>
+      <c r="K101" t="s">
+        <v>824</v>
+      </c>
+      <c r="L101" t="s">
+        <v>825</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>826</v>
+      </c>
+      <c r="O101" t="s">
+        <v>88</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>827</v>
+      </c>
+      <c r="X101" t="s">
+        <v>828</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>830</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>831</v>
+      </c>
+      <c r="J102" t="s">
+        <v>832</v>
+      </c>
+      <c r="K102" t="s">
+        <v>833</v>
+      </c>
+      <c r="L102" t="s">
+        <v>834</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>835</v>
+      </c>
+      <c r="O102" t="s">
+        <v>79</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>836</v>
+      </c>
+      <c r="X102" t="s">
+        <v>837</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>839</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>840</v>
+      </c>
+      <c r="J103" t="s">
+        <v>841</v>
+      </c>
+      <c r="K103" t="s">
+        <v>842</v>
+      </c>
+      <c r="L103" t="s">
+        <v>843</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" t="s"/>
+      <c r="O103" t="s"/>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>2</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>3</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>844</v>
+      </c>
+      <c r="X103" t="s">
+        <v>845</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>847</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>848</v>
+      </c>
+      <c r="J104" t="s">
+        <v>849</v>
+      </c>
+      <c r="K104" t="s">
+        <v>850</v>
+      </c>
+      <c r="L104" t="s">
+        <v>851</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2</v>
+      </c>
+      <c r="N104" t="s">
+        <v>852</v>
+      </c>
+      <c r="O104" t="s">
+        <v>63</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>2</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>2</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>853</v>
+      </c>
+      <c r="X104" t="s">
+        <v>854</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>856</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>857</v>
+      </c>
+      <c r="J105" t="s">
+        <v>858</v>
+      </c>
+      <c r="K105" t="s">
+        <v>859</v>
+      </c>
+      <c r="L105" t="s">
+        <v>860</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>852</v>
+      </c>
+      <c r="O105" t="s">
+        <v>63</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>853</v>
+      </c>
+      <c r="X105" t="s">
+        <v>854</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>862</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>863</v>
+      </c>
+      <c r="J106" t="s">
+        <v>864</v>
+      </c>
+      <c r="K106" t="s">
+        <v>865</v>
+      </c>
+      <c r="L106" t="s">
+        <v>866</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>867</v>
+      </c>
+      <c r="O106" t="s">
+        <v>79</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>868</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>869</v>
+      </c>
+      <c r="J107" t="s">
+        <v>870</v>
+      </c>
+      <c r="K107" t="s">
+        <v>871</v>
+      </c>
+      <c r="L107" t="s">
+        <v>872</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="s">
+        <v>873</v>
+      </c>
+      <c r="O107" t="s">
+        <v>63</v>
+      </c>
+      <c r="P107" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>4</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>853</v>
+      </c>
+      <c r="X107" t="s">
+        <v>854</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>875</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>876</v>
+      </c>
+      <c r="J108" t="s">
+        <v>877</v>
+      </c>
+      <c r="K108" t="s">
+        <v>878</v>
+      </c>
+      <c r="L108" t="s">
+        <v>879</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="s">
+        <v>880</v>
+      </c>
+      <c r="O108" t="s">
+        <v>88</v>
+      </c>
+      <c r="P108" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>3</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>1</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>853</v>
+      </c>
+      <c r="X108" t="s">
+        <v>854</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>882</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>883</v>
+      </c>
+      <c r="J109" t="s">
+        <v>884</v>
+      </c>
+      <c r="K109" t="s">
+        <v>885</v>
+      </c>
+      <c r="L109" t="s">
+        <v>886</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>887</v>
+      </c>
+      <c r="O109" t="s">
+        <v>381</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>888</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>889</v>
+      </c>
+      <c r="J110" t="s">
+        <v>890</v>
+      </c>
+      <c r="K110" t="s">
+        <v>891</v>
+      </c>
+      <c r="L110" t="s">
+        <v>892</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2</v>
+      </c>
+      <c r="N110" t="s"/>
+      <c r="O110" t="s"/>
+      <c r="P110" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>2</v>
+      </c>
+      <c r="R110" t="n">
+        <v>3</v>
+      </c>
+      <c r="S110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>3</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>893</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>894</v>
+      </c>
+      <c r="J111" t="s">
+        <v>895</v>
+      </c>
+      <c r="K111" t="s">
+        <v>896</v>
+      </c>
+      <c r="L111" t="s">
+        <v>897</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="s">
+        <v>898</v>
+      </c>
+      <c r="O111" t="s">
+        <v>88</v>
+      </c>
+      <c r="P111" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1</v>
+      </c>
+      <c r="R111" t="n">
+        <v>3</v>
+      </c>
+      <c r="S111" t="n">
+        <v>1</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>1</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>899</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>900</v>
+      </c>
+      <c r="J112" t="s">
+        <v>901</v>
+      </c>
+      <c r="K112" t="s">
+        <v>902</v>
+      </c>
+      <c r="L112" t="s">
+        <v>903</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3</v>
+      </c>
+      <c r="N112" t="s">
+        <v>904</v>
+      </c>
+      <c r="O112" t="s">
+        <v>79</v>
+      </c>
+      <c r="P112" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>3</v>
+      </c>
+      <c r="R112" t="n">
+        <v>3</v>
+      </c>
+      <c r="S112" t="n">
+        <v>3</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>3</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>906</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>907</v>
+      </c>
+      <c r="J113" t="s">
+        <v>908</v>
+      </c>
+      <c r="K113" t="s">
+        <v>909</v>
+      </c>
+      <c r="L113" t="s">
+        <v>910</v>
+      </c>
+      <c r="M113" t="n">
+        <v>3</v>
+      </c>
+      <c r="N113" t="s">
+        <v>911</v>
+      </c>
+      <c r="O113" t="s">
+        <v>63</v>
+      </c>
+      <c r="P113" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>2</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>2</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="s"/>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>913</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>914</v>
+      </c>
+      <c r="J114" t="s">
+        <v>915</v>
+      </c>
+      <c r="K114" t="s">
+        <v>916</v>
+      </c>
+      <c r="L114" t="s">
+        <v>917</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>918</v>
+      </c>
+      <c r="O114" t="s">
+        <v>88</v>
+      </c>
+      <c r="P114" t="s"/>
+      <c r="Q114" t="n">
+        <v>4</v>
+      </c>
+      <c r="R114" t="s"/>
+      <c r="S114" t="n">
+        <v>4</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>4</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>37374</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>920</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>921</v>
+      </c>
+      <c r="J115" t="s">
+        <v>922</v>
+      </c>
+      <c r="K115" t="s">
+        <v>923</v>
+      </c>
+      <c r="L115" t="s">
+        <v>924</v>
+      </c>
+      <c r="M115" t="n">
+        <v>4</v>
+      </c>
+      <c r="N115" t="s"/>
+      <c r="O115" t="s"/>
+      <c r="P115" t="s"/>
+      <c r="Q115" t="s"/>
+      <c r="R115" t="s"/>
+      <c r="S115" t="s"/>
+      <c r="T115" t="s"/>
+      <c r="U115" t="s"/>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>925</v>
       </c>
     </row>
   </sheetData>
